--- a/sandbox/ИПП Аввакумов Г.Е..xlsx
+++ b/sandbox/ИПП Аввакумов Г.Е..xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\ИПП МОСИТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\OSPanel\domains\MDD\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11130" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="11130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - Титул" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Лист 4 - УР - всего (доп)" sheetId="5" r:id="rId5"/>
     <sheet name="Лист 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1505,64 +1505,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,33 +1564,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,37 +1644,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1656,31 +1678,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1690,6 +1687,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,17 +1709,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,700 +2063,700 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-      <c r="CF1" s="35"/>
-      <c r="CG1" s="35"/>
-      <c r="CH1" s="35"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="35"/>
-      <c r="CK1" s="35"/>
-      <c r="CL1" s="35"/>
-      <c r="CM1" s="35"/>
-      <c r="CN1" s="35"/>
-      <c r="CO1" s="35"/>
-      <c r="CP1" s="35"/>
-      <c r="CQ1" s="35"/>
-      <c r="CR1" s="35"/>
-      <c r="CS1" s="35"/>
-      <c r="CT1" s="35"/>
-      <c r="CU1" s="35"/>
-      <c r="CV1" s="35"/>
-      <c r="CW1" s="35"/>
-      <c r="CX1" s="35"/>
-      <c r="CY1" s="35"/>
-      <c r="CZ1" s="35"/>
-      <c r="DA1" s="35"/>
-      <c r="DB1" s="35"/>
-      <c r="DC1" s="35"/>
-      <c r="DD1" s="35"/>
-      <c r="DE1" s="35"/>
-      <c r="DF1" s="35"/>
-      <c r="DG1" s="35"/>
-      <c r="DH1" s="35"/>
-      <c r="DI1" s="35"/>
-      <c r="DJ1" s="35"/>
-      <c r="DK1" s="35"/>
-      <c r="DL1" s="35"/>
-      <c r="DM1" s="35"/>
-      <c r="DN1" s="35"/>
-      <c r="DO1" s="35"/>
-      <c r="DP1" s="35"/>
-      <c r="DQ1" s="35"/>
-      <c r="DR1" s="35"/>
-      <c r="DS1" s="35"/>
-      <c r="DT1" s="35"/>
-      <c r="DU1" s="35"/>
-      <c r="DV1" s="35"/>
-      <c r="DW1" s="35"/>
-      <c r="DX1" s="35"/>
-      <c r="DY1" s="35"/>
-      <c r="DZ1" s="35"/>
-      <c r="EA1" s="35"/>
-      <c r="EB1" s="35"/>
-      <c r="EC1" s="35"/>
-      <c r="ED1" s="35"/>
-      <c r="EE1" s="35"/>
-      <c r="EF1" s="35"/>
-      <c r="EG1" s="35"/>
-      <c r="EH1" s="35"/>
-      <c r="EI1" s="35"/>
-      <c r="EJ1" s="35"/>
-      <c r="EK1" s="35"/>
-      <c r="EL1" s="35"/>
-      <c r="EM1" s="35"/>
-      <c r="EN1" s="35"/>
-      <c r="EO1" s="35"/>
-      <c r="EP1" s="35"/>
-      <c r="EQ1" s="35"/>
-      <c r="ER1" s="35"/>
-      <c r="ES1" s="35"/>
-      <c r="ET1" s="35"/>
-      <c r="EU1" s="35"/>
-      <c r="EV1" s="35"/>
-      <c r="EW1" s="35"/>
-      <c r="EX1" s="35"/>
-      <c r="EY1" s="35"/>
-      <c r="EZ1" s="35"/>
-      <c r="FA1" s="35"/>
-      <c r="FB1" s="35"/>
-      <c r="FC1" s="35"/>
-      <c r="FD1" s="35"/>
-      <c r="FE1" s="35"/>
-      <c r="FF1" s="35"/>
-      <c r="FG1" s="35"/>
-      <c r="FH1" s="35"/>
-      <c r="FI1" s="35"/>
-      <c r="FJ1" s="35"/>
-      <c r="FK1" s="35"/>
-      <c r="FL1" s="35"/>
-      <c r="FM1" s="35"/>
-      <c r="FN1" s="35"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
+      <c r="EH1" s="36"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="36"/>
+      <c r="EZ1" s="36"/>
+      <c r="FA1" s="36"/>
+      <c r="FB1" s="36"/>
+      <c r="FC1" s="36"/>
+      <c r="FD1" s="36"/>
+      <c r="FE1" s="36"/>
+      <c r="FF1" s="36"/>
+      <c r="FG1" s="36"/>
+      <c r="FH1" s="36"/>
+      <c r="FI1" s="36"/>
+      <c r="FJ1" s="36"/>
+      <c r="FK1" s="36"/>
+      <c r="FL1" s="36"/>
+      <c r="FM1" s="36"/>
+      <c r="FN1" s="36"/>
     </row>
     <row r="2" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
-      <c r="CE2" s="35"/>
-      <c r="CF2" s="35"/>
-      <c r="CG2" s="35"/>
-      <c r="CH2" s="35"/>
-      <c r="CI2" s="35"/>
-      <c r="CJ2" s="35"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="35"/>
-      <c r="CN2" s="35"/>
-      <c r="CO2" s="35"/>
-      <c r="CP2" s="35"/>
-      <c r="CQ2" s="35"/>
-      <c r="CR2" s="35"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="35"/>
-      <c r="CV2" s="35"/>
-      <c r="CW2" s="35"/>
-      <c r="CX2" s="35"/>
-      <c r="CY2" s="35"/>
-      <c r="CZ2" s="35"/>
-      <c r="DA2" s="35"/>
-      <c r="DB2" s="35"/>
-      <c r="DC2" s="35"/>
-      <c r="DD2" s="35"/>
-      <c r="DE2" s="35"/>
-      <c r="DF2" s="35"/>
-      <c r="DG2" s="35"/>
-      <c r="DH2" s="35"/>
-      <c r="DI2" s="35"/>
-      <c r="DJ2" s="35"/>
-      <c r="DK2" s="35"/>
-      <c r="DL2" s="35"/>
-      <c r="DM2" s="35"/>
-      <c r="DN2" s="35"/>
-      <c r="DO2" s="35"/>
-      <c r="DP2" s="35"/>
-      <c r="DQ2" s="35"/>
-      <c r="DR2" s="35"/>
-      <c r="DS2" s="35"/>
-      <c r="DT2" s="35"/>
-      <c r="DU2" s="35"/>
-      <c r="DV2" s="35"/>
-      <c r="DW2" s="35"/>
-      <c r="DX2" s="35"/>
-      <c r="DY2" s="35"/>
-      <c r="DZ2" s="35"/>
-      <c r="EA2" s="35"/>
-      <c r="EB2" s="35"/>
-      <c r="EC2" s="35"/>
-      <c r="ED2" s="35"/>
-      <c r="EE2" s="35"/>
-      <c r="EF2" s="35"/>
-      <c r="EG2" s="35"/>
-      <c r="EH2" s="35"/>
-      <c r="EI2" s="35"/>
-      <c r="EJ2" s="35"/>
-      <c r="EK2" s="35"/>
-      <c r="EL2" s="35"/>
-      <c r="EM2" s="35"/>
-      <c r="EN2" s="35"/>
-      <c r="EO2" s="35"/>
-      <c r="EP2" s="35"/>
-      <c r="EQ2" s="35"/>
-      <c r="ER2" s="35"/>
-      <c r="ES2" s="35"/>
-      <c r="ET2" s="35"/>
-      <c r="EU2" s="35"/>
-      <c r="EV2" s="35"/>
-      <c r="EW2" s="35"/>
-      <c r="EX2" s="35"/>
-      <c r="EY2" s="35"/>
-      <c r="EZ2" s="35"/>
-      <c r="FA2" s="35"/>
-      <c r="FB2" s="35"/>
-      <c r="FC2" s="35"/>
-      <c r="FD2" s="35"/>
-      <c r="FE2" s="35"/>
-      <c r="FF2" s="35"/>
-      <c r="FG2" s="35"/>
-      <c r="FH2" s="35"/>
-      <c r="FI2" s="35"/>
-      <c r="FJ2" s="35"/>
-      <c r="FK2" s="35"/>
-      <c r="FL2" s="35"/>
-      <c r="FM2" s="35"/>
-      <c r="FN2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36"/>
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="36"/>
+      <c r="BY2" s="36"/>
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="36"/>
+      <c r="CS2" s="36"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="36"/>
+      <c r="CW2" s="36"/>
+      <c r="CX2" s="36"/>
+      <c r="CY2" s="36"/>
+      <c r="CZ2" s="36"/>
+      <c r="DA2" s="36"/>
+      <c r="DB2" s="36"/>
+      <c r="DC2" s="36"/>
+      <c r="DD2" s="36"/>
+      <c r="DE2" s="36"/>
+      <c r="DF2" s="36"/>
+      <c r="DG2" s="36"/>
+      <c r="DH2" s="36"/>
+      <c r="DI2" s="36"/>
+      <c r="DJ2" s="36"/>
+      <c r="DK2" s="36"/>
+      <c r="DL2" s="36"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="36"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="36"/>
+      <c r="DZ2" s="36"/>
+      <c r="EA2" s="36"/>
+      <c r="EB2" s="36"/>
+      <c r="EC2" s="36"/>
+      <c r="ED2" s="36"/>
+      <c r="EE2" s="36"/>
+      <c r="EF2" s="36"/>
+      <c r="EG2" s="36"/>
+      <c r="EH2" s="36"/>
+      <c r="EI2" s="36"/>
+      <c r="EJ2" s="36"/>
+      <c r="EK2" s="36"/>
+      <c r="EL2" s="36"/>
+      <c r="EM2" s="36"/>
+      <c r="EN2" s="36"/>
+      <c r="EO2" s="36"/>
+      <c r="EP2" s="36"/>
+      <c r="EQ2" s="36"/>
+      <c r="ER2" s="36"/>
+      <c r="ES2" s="36"/>
+      <c r="ET2" s="36"/>
+      <c r="EU2" s="36"/>
+      <c r="EV2" s="36"/>
+      <c r="EW2" s="36"/>
+      <c r="EX2" s="36"/>
+      <c r="EY2" s="36"/>
+      <c r="EZ2" s="36"/>
+      <c r="FA2" s="36"/>
+      <c r="FB2" s="36"/>
+      <c r="FC2" s="36"/>
+      <c r="FD2" s="36"/>
+      <c r="FE2" s="36"/>
+      <c r="FF2" s="36"/>
+      <c r="FG2" s="36"/>
+      <c r="FH2" s="36"/>
+      <c r="FI2" s="36"/>
+      <c r="FJ2" s="36"/>
+      <c r="FK2" s="36"/>
+      <c r="FL2" s="36"/>
+      <c r="FM2" s="36"/>
+      <c r="FN2" s="36"/>
     </row>
     <row r="3" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="35"/>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="35"/>
-      <c r="BN3" s="35"/>
-      <c r="BO3" s="35"/>
-      <c r="BP3" s="35"/>
-      <c r="BQ3" s="35"/>
-      <c r="BR3" s="35"/>
-      <c r="BS3" s="35"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="35"/>
-      <c r="BZ3" s="35"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35"/>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="35"/>
-      <c r="CG3" s="35"/>
-      <c r="CH3" s="35"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="35"/>
-      <c r="CL3" s="35"/>
-      <c r="CM3" s="35"/>
-      <c r="CN3" s="35"/>
-      <c r="CO3" s="35"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="35"/>
-      <c r="CU3" s="35"/>
-      <c r="CV3" s="35"/>
-      <c r="CW3" s="35"/>
-      <c r="CX3" s="35"/>
-      <c r="CY3" s="35"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="35"/>
-      <c r="DB3" s="35"/>
-      <c r="DC3" s="35"/>
-      <c r="DD3" s="35"/>
-      <c r="DE3" s="35"/>
-      <c r="DF3" s="35"/>
-      <c r="DG3" s="35"/>
-      <c r="DH3" s="35"/>
-      <c r="DI3" s="35"/>
-      <c r="DJ3" s="35"/>
-      <c r="DK3" s="35"/>
-      <c r="DL3" s="35"/>
-      <c r="DM3" s="35"/>
-      <c r="DN3" s="35"/>
-      <c r="DO3" s="35"/>
-      <c r="DP3" s="35"/>
-      <c r="DQ3" s="35"/>
-      <c r="DR3" s="35"/>
-      <c r="DS3" s="35"/>
-      <c r="DT3" s="35"/>
-      <c r="DU3" s="35"/>
-      <c r="DV3" s="35"/>
-      <c r="DW3" s="35"/>
-      <c r="DX3" s="35"/>
-      <c r="DY3" s="35"/>
-      <c r="DZ3" s="35"/>
-      <c r="EA3" s="35"/>
-      <c r="EB3" s="35"/>
-      <c r="EC3" s="35"/>
-      <c r="ED3" s="35"/>
-      <c r="EE3" s="35"/>
-      <c r="EF3" s="35"/>
-      <c r="EG3" s="35"/>
-      <c r="EH3" s="35"/>
-      <c r="EI3" s="35"/>
-      <c r="EJ3" s="35"/>
-      <c r="EK3" s="35"/>
-      <c r="EL3" s="35"/>
-      <c r="EM3" s="35"/>
-      <c r="EN3" s="35"/>
-      <c r="EO3" s="35"/>
-      <c r="EP3" s="35"/>
-      <c r="EQ3" s="35"/>
-      <c r="ER3" s="35"/>
-      <c r="ES3" s="35"/>
-      <c r="ET3" s="35"/>
-      <c r="EU3" s="35"/>
-      <c r="EV3" s="35"/>
-      <c r="EW3" s="35"/>
-      <c r="EX3" s="35"/>
-      <c r="EY3" s="35"/>
-      <c r="EZ3" s="35"/>
-      <c r="FA3" s="35"/>
-      <c r="FB3" s="35"/>
-      <c r="FC3" s="35"/>
-      <c r="FD3" s="35"/>
-      <c r="FE3" s="35"/>
-      <c r="FF3" s="35"/>
-      <c r="FG3" s="35"/>
-      <c r="FH3" s="35"/>
-      <c r="FI3" s="35"/>
-      <c r="FJ3" s="35"/>
-      <c r="FK3" s="35"/>
-      <c r="FL3" s="35"/>
-      <c r="FM3" s="35"/>
-      <c r="FN3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="36"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="36"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="36"/>
+      <c r="CV3" s="36"/>
+      <c r="CW3" s="36"/>
+      <c r="CX3" s="36"/>
+      <c r="CY3" s="36"/>
+      <c r="CZ3" s="36"/>
+      <c r="DA3" s="36"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="36"/>
+      <c r="DE3" s="36"/>
+      <c r="DF3" s="36"/>
+      <c r="DG3" s="36"/>
+      <c r="DH3" s="36"/>
+      <c r="DI3" s="36"/>
+      <c r="DJ3" s="36"/>
+      <c r="DK3" s="36"/>
+      <c r="DL3" s="36"/>
+      <c r="DM3" s="36"/>
+      <c r="DN3" s="36"/>
+      <c r="DO3" s="36"/>
+      <c r="DP3" s="36"/>
+      <c r="DQ3" s="36"/>
+      <c r="DR3" s="36"/>
+      <c r="DS3" s="36"/>
+      <c r="DT3" s="36"/>
+      <c r="DU3" s="36"/>
+      <c r="DV3" s="36"/>
+      <c r="DW3" s="36"/>
+      <c r="DX3" s="36"/>
+      <c r="DY3" s="36"/>
+      <c r="DZ3" s="36"/>
+      <c r="EA3" s="36"/>
+      <c r="EB3" s="36"/>
+      <c r="EC3" s="36"/>
+      <c r="ED3" s="36"/>
+      <c r="EE3" s="36"/>
+      <c r="EF3" s="36"/>
+      <c r="EG3" s="36"/>
+      <c r="EH3" s="36"/>
+      <c r="EI3" s="36"/>
+      <c r="EJ3" s="36"/>
+      <c r="EK3" s="36"/>
+      <c r="EL3" s="36"/>
+      <c r="EM3" s="36"/>
+      <c r="EN3" s="36"/>
+      <c r="EO3" s="36"/>
+      <c r="EP3" s="36"/>
+      <c r="EQ3" s="36"/>
+      <c r="ER3" s="36"/>
+      <c r="ES3" s="36"/>
+      <c r="ET3" s="36"/>
+      <c r="EU3" s="36"/>
+      <c r="EV3" s="36"/>
+      <c r="EW3" s="36"/>
+      <c r="EX3" s="36"/>
+      <c r="EY3" s="36"/>
+      <c r="EZ3" s="36"/>
+      <c r="FA3" s="36"/>
+      <c r="FB3" s="36"/>
+      <c r="FC3" s="36"/>
+      <c r="FD3" s="36"/>
+      <c r="FE3" s="36"/>
+      <c r="FF3" s="36"/>
+      <c r="FG3" s="36"/>
+      <c r="FH3" s="36"/>
+      <c r="FI3" s="36"/>
+      <c r="FJ3" s="36"/>
+      <c r="FK3" s="36"/>
+      <c r="FL3" s="36"/>
+      <c r="FM3" s="36"/>
+      <c r="FN3" s="36"/>
     </row>
     <row r="4" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35"/>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35"/>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35"/>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35"/>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36"/>
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+      <c r="DH4" s="36"/>
+      <c r="DI4" s="36"/>
+      <c r="DJ4" s="36"/>
+      <c r="DK4" s="36"/>
+      <c r="DL4" s="36"/>
+      <c r="DM4" s="36"/>
+      <c r="DN4" s="36"/>
+      <c r="DO4" s="36"/>
+      <c r="DP4" s="36"/>
+      <c r="DQ4" s="36"/>
+      <c r="DR4" s="36"/>
+      <c r="DS4" s="36"/>
+      <c r="DT4" s="36"/>
+      <c r="DU4" s="36"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="36"/>
+      <c r="DX4" s="36"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="36"/>
+      <c r="EA4" s="36"/>
+      <c r="EB4" s="36"/>
+      <c r="EC4" s="36"/>
+      <c r="ED4" s="36"/>
+      <c r="EE4" s="36"/>
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="36"/>
+      <c r="EH4" s="36"/>
+      <c r="EI4" s="36"/>
+      <c r="EJ4" s="36"/>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="36"/>
+      <c r="EO4" s="36"/>
+      <c r="EP4" s="36"/>
+      <c r="EQ4" s="36"/>
+      <c r="ER4" s="36"/>
+      <c r="ES4" s="36"/>
+      <c r="ET4" s="36"/>
+      <c r="EU4" s="36"/>
+      <c r="EV4" s="36"/>
+      <c r="EW4" s="36"/>
+      <c r="EX4" s="36"/>
+      <c r="EY4" s="36"/>
+      <c r="EZ4" s="36"/>
+      <c r="FA4" s="36"/>
+      <c r="FB4" s="36"/>
+      <c r="FC4" s="36"/>
+      <c r="FD4" s="36"/>
+      <c r="FE4" s="36"/>
+      <c r="FF4" s="36"/>
+      <c r="FG4" s="36"/>
+      <c r="FH4" s="36"/>
+      <c r="FI4" s="36"/>
+      <c r="FJ4" s="36"/>
+      <c r="FK4" s="36"/>
+      <c r="FL4" s="36"/>
+      <c r="FM4" s="36"/>
+      <c r="FN4" s="36"/>
     </row>
     <row r="5" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2764,281 +2764,281 @@
     <row r="8" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW10" s="40" t="s">
+      <c r="AW10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="35"/>
-      <c r="BB10" s="35"/>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="35"/>
-      <c r="BG10" s="35"/>
-      <c r="BH10" s="35"/>
-      <c r="BI10" s="35"/>
-      <c r="BJ10" s="35"/>
-      <c r="BK10" s="35"/>
-      <c r="BL10" s="35"/>
-      <c r="BM10" s="35"/>
-      <c r="BN10" s="35"/>
-      <c r="BO10" s="35"/>
-      <c r="BP10" s="35"/>
-      <c r="BQ10" s="35"/>
-      <c r="BR10" s="35"/>
-      <c r="BS10" s="35"/>
-      <c r="BT10" s="35"/>
-      <c r="BU10" s="35"/>
-      <c r="BV10" s="35"/>
-      <c r="BW10" s="35"/>
-      <c r="BX10" s="35"/>
-      <c r="BY10" s="35"/>
-      <c r="BZ10" s="35"/>
-      <c r="CA10" s="35"/>
-      <c r="CB10" s="35"/>
-      <c r="CC10" s="35"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="35"/>
-      <c r="CF10" s="35"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="36"/>
+      <c r="BJ10" s="36"/>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="36"/>
+      <c r="BM10" s="36"/>
+      <c r="BN10" s="36"/>
+      <c r="BO10" s="36"/>
+      <c r="BP10" s="36"/>
+      <c r="BQ10" s="36"/>
+      <c r="BR10" s="36"/>
+      <c r="BS10" s="36"/>
+      <c r="BT10" s="36"/>
+      <c r="BU10" s="36"/>
+      <c r="BV10" s="36"/>
+      <c r="BW10" s="36"/>
+      <c r="BX10" s="36"/>
+      <c r="BY10" s="36"/>
+      <c r="BZ10" s="36"/>
+      <c r="CA10" s="36"/>
+      <c r="CB10" s="36"/>
+      <c r="CC10" s="36"/>
+      <c r="CD10" s="36"/>
+      <c r="CE10" s="36"/>
+      <c r="CF10" s="36"/>
       <c r="CI10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EE10" s="40" t="s">
+      <c r="EE10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="EF10" s="35"/>
-      <c r="EG10" s="35"/>
-      <c r="EH10" s="35"/>
-      <c r="EI10" s="35"/>
-      <c r="EJ10" s="35"/>
-      <c r="EK10" s="35"/>
-      <c r="EL10" s="35"/>
-      <c r="EM10" s="35"/>
-      <c r="EN10" s="35"/>
-      <c r="EO10" s="35"/>
-      <c r="EP10" s="35"/>
-      <c r="EQ10" s="35"/>
-      <c r="ER10" s="35"/>
-      <c r="ES10" s="35"/>
-      <c r="ET10" s="35"/>
-      <c r="EU10" s="35"/>
-      <c r="EV10" s="35"/>
-      <c r="EW10" s="35"/>
-      <c r="EX10" s="35"/>
-      <c r="EY10" s="35"/>
-      <c r="EZ10" s="35"/>
-      <c r="FA10" s="35"/>
-      <c r="FB10" s="35"/>
-      <c r="FC10" s="35"/>
-      <c r="FD10" s="35"/>
-      <c r="FE10" s="35"/>
-      <c r="FF10" s="35"/>
-      <c r="FG10" s="35"/>
-      <c r="FH10" s="35"/>
-      <c r="FI10" s="35"/>
-      <c r="FJ10" s="35"/>
-      <c r="FK10" s="35"/>
-      <c r="FL10" s="35"/>
-      <c r="FM10" s="35"/>
-      <c r="FN10" s="35"/>
+      <c r="EF10" s="36"/>
+      <c r="EG10" s="36"/>
+      <c r="EH10" s="36"/>
+      <c r="EI10" s="36"/>
+      <c r="EJ10" s="36"/>
+      <c r="EK10" s="36"/>
+      <c r="EL10" s="36"/>
+      <c r="EM10" s="36"/>
+      <c r="EN10" s="36"/>
+      <c r="EO10" s="36"/>
+      <c r="EP10" s="36"/>
+      <c r="EQ10" s="36"/>
+      <c r="ER10" s="36"/>
+      <c r="ES10" s="36"/>
+      <c r="ET10" s="36"/>
+      <c r="EU10" s="36"/>
+      <c r="EV10" s="36"/>
+      <c r="EW10" s="36"/>
+      <c r="EX10" s="36"/>
+      <c r="EY10" s="36"/>
+      <c r="EZ10" s="36"/>
+      <c r="FA10" s="36"/>
+      <c r="FB10" s="36"/>
+      <c r="FC10" s="36"/>
+      <c r="FD10" s="36"/>
+      <c r="FE10" s="36"/>
+      <c r="FF10" s="36"/>
+      <c r="FG10" s="36"/>
+      <c r="FH10" s="36"/>
+      <c r="FI10" s="36"/>
+      <c r="FJ10" s="36"/>
+      <c r="FK10" s="36"/>
+      <c r="FL10" s="36"/>
+      <c r="FM10" s="36"/>
+      <c r="FN10" s="36"/>
     </row>
     <row r="11" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AO11" s="36" t="s">
+      <c r="AO11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="39" t="s">
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="33"/>
-      <c r="CF11" s="33"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="38"/>
+      <c r="CC11" s="38"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="38"/>
+      <c r="CF11" s="38"/>
       <c r="CI11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DW11" s="36" t="s">
+      <c r="DW11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="DX11" s="35"/>
-      <c r="DY11" s="35"/>
-      <c r="DZ11" s="35"/>
-      <c r="EA11" s="35"/>
-      <c r="EB11" s="35"/>
-      <c r="EC11" s="35"/>
-      <c r="ED11" s="35"/>
-      <c r="EE11" s="35"/>
-      <c r="EF11" s="35"/>
-      <c r="EG11" s="35"/>
-      <c r="EH11" s="35"/>
-      <c r="EI11" s="39" t="s">
+      <c r="DX11" s="36"/>
+      <c r="DY11" s="36"/>
+      <c r="DZ11" s="36"/>
+      <c r="EA11" s="36"/>
+      <c r="EB11" s="36"/>
+      <c r="EC11" s="36"/>
+      <c r="ED11" s="36"/>
+      <c r="EE11" s="36"/>
+      <c r="EF11" s="36"/>
+      <c r="EG11" s="36"/>
+      <c r="EH11" s="36"/>
+      <c r="EI11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="EJ11" s="33"/>
-      <c r="EK11" s="33"/>
-      <c r="EL11" s="33"/>
-      <c r="EM11" s="33"/>
-      <c r="EN11" s="33"/>
-      <c r="EO11" s="33"/>
-      <c r="EP11" s="33"/>
-      <c r="EQ11" s="33"/>
-      <c r="ER11" s="33"/>
-      <c r="ES11" s="33"/>
-      <c r="ET11" s="33"/>
-      <c r="EU11" s="33"/>
-      <c r="EV11" s="33"/>
-      <c r="EW11" s="33"/>
-      <c r="EX11" s="33"/>
-      <c r="EY11" s="33"/>
-      <c r="EZ11" s="33"/>
-      <c r="FA11" s="33"/>
-      <c r="FB11" s="33"/>
-      <c r="FC11" s="33"/>
-      <c r="FD11" s="33"/>
-      <c r="FE11" s="33"/>
-      <c r="FF11" s="33"/>
-      <c r="FG11" s="33"/>
-      <c r="FH11" s="33"/>
-      <c r="FI11" s="33"/>
-      <c r="FJ11" s="33"/>
-      <c r="FK11" s="33"/>
-      <c r="FL11" s="33"/>
-      <c r="FM11" s="33"/>
-      <c r="FN11" s="33"/>
+      <c r="EJ11" s="38"/>
+      <c r="EK11" s="38"/>
+      <c r="EL11" s="38"/>
+      <c r="EM11" s="38"/>
+      <c r="EN11" s="38"/>
+      <c r="EO11" s="38"/>
+      <c r="EP11" s="38"/>
+      <c r="EQ11" s="38"/>
+      <c r="ER11" s="38"/>
+      <c r="ES11" s="38"/>
+      <c r="ET11" s="38"/>
+      <c r="EU11" s="38"/>
+      <c r="EV11" s="38"/>
+      <c r="EW11" s="38"/>
+      <c r="EX11" s="38"/>
+      <c r="EY11" s="38"/>
+      <c r="EZ11" s="38"/>
+      <c r="FA11" s="38"/>
+      <c r="FB11" s="38"/>
+      <c r="FC11" s="38"/>
+      <c r="FD11" s="38"/>
+      <c r="FE11" s="38"/>
+      <c r="FF11" s="38"/>
+      <c r="FG11" s="38"/>
+      <c r="FH11" s="38"/>
+      <c r="FI11" s="38"/>
+      <c r="FJ11" s="38"/>
+      <c r="FK11" s="38"/>
+      <c r="FL11" s="38"/>
+      <c r="FM11" s="38"/>
+      <c r="FN11" s="38"/>
     </row>
     <row r="12" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BB12" s="36" t="s">
+      <c r="BB12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BC12" s="35"/>
-      <c r="BD12" s="38" t="s">
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="36" t="s">
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="38" t="s">
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="33"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="36" t="s">
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BX12" s="35"/>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="35"/>
-      <c r="CA12" s="38">
+      <c r="BX12" s="36"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="36"/>
+      <c r="CA12" s="37">
         <v>19</v>
       </c>
-      <c r="CB12" s="33"/>
-      <c r="CC12" s="33"/>
-      <c r="CD12" s="33"/>
-      <c r="CE12" s="36" t="s">
+      <c r="CB12" s="38"/>
+      <c r="CC12" s="38"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CF12" s="35"/>
+      <c r="CF12" s="36"/>
       <c r="CI12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EJ12" s="36" t="s">
+      <c r="EJ12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="EK12" s="35"/>
-      <c r="EL12" s="38" t="s">
+      <c r="EK12" s="36"/>
+      <c r="EL12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="EM12" s="33"/>
-      <c r="EN12" s="33"/>
-      <c r="EO12" s="33"/>
-      <c r="EP12" s="36" t="s">
+      <c r="EM12" s="38"/>
+      <c r="EN12" s="38"/>
+      <c r="EO12" s="38"/>
+      <c r="EP12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="EQ12" s="35"/>
-      <c r="ER12" s="38" t="s">
+      <c r="EQ12" s="36"/>
+      <c r="ER12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="ES12" s="33"/>
-      <c r="ET12" s="33"/>
-      <c r="EU12" s="33"/>
-      <c r="EV12" s="33"/>
-      <c r="EW12" s="33"/>
-      <c r="EX12" s="33"/>
-      <c r="EY12" s="33"/>
-      <c r="EZ12" s="33"/>
-      <c r="FA12" s="33"/>
-      <c r="FB12" s="33"/>
-      <c r="FC12" s="33"/>
-      <c r="FD12" s="33"/>
-      <c r="FE12" s="36" t="s">
+      <c r="ES12" s="38"/>
+      <c r="ET12" s="38"/>
+      <c r="EU12" s="38"/>
+      <c r="EV12" s="38"/>
+      <c r="EW12" s="38"/>
+      <c r="EX12" s="38"/>
+      <c r="EY12" s="38"/>
+      <c r="EZ12" s="38"/>
+      <c r="FA12" s="38"/>
+      <c r="FB12" s="38"/>
+      <c r="FC12" s="38"/>
+      <c r="FD12" s="38"/>
+      <c r="FE12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="FF12" s="35"/>
-      <c r="FG12" s="35"/>
-      <c r="FH12" s="35"/>
-      <c r="FI12" s="38">
+      <c r="FF12" s="36"/>
+      <c r="FG12" s="36"/>
+      <c r="FH12" s="36"/>
+      <c r="FI12" s="37">
         <v>20</v>
       </c>
-      <c r="FJ12" s="33"/>
-      <c r="FK12" s="33"/>
-      <c r="FL12" s="33"/>
-      <c r="FM12" s="36" t="s">
+      <c r="FJ12" s="38"/>
+      <c r="FK12" s="38"/>
+      <c r="FL12" s="38"/>
+      <c r="FM12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="FN12" s="35"/>
+      <c r="FN12" s="36"/>
     </row>
     <row r="13" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI13" s="2" t="s">
@@ -3056,349 +3056,349 @@
       </c>
     </row>
     <row r="16" spans="1:170" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="35"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="35"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="35"/>
-      <c r="CG16" s="35"/>
-      <c r="CH16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="36"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="36"/>
+      <c r="CA16" s="36"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="36"/>
+      <c r="CF16" s="36"/>
+      <c r="CG16" s="36"/>
+      <c r="CH16" s="36"/>
       <c r="CI16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CJ16" s="37" t="s">
+      <c r="CJ16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="CK16" s="35"/>
-      <c r="CL16" s="35"/>
-      <c r="CM16" s="35"/>
-      <c r="CN16" s="35"/>
-      <c r="CO16" s="35"/>
-      <c r="CP16" s="35"/>
-      <c r="CQ16" s="35"/>
-      <c r="CR16" s="35"/>
-      <c r="CS16" s="35"/>
-      <c r="CT16" s="35"/>
-      <c r="CU16" s="35"/>
-      <c r="CV16" s="35"/>
-      <c r="CW16" s="35"/>
-      <c r="CX16" s="35"/>
-      <c r="CY16" s="35"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="35"/>
-      <c r="DB16" s="35"/>
-      <c r="DC16" s="35"/>
-      <c r="DD16" s="35"/>
-      <c r="DE16" s="35"/>
-      <c r="DF16" s="35"/>
-      <c r="DG16" s="35"/>
-      <c r="DH16" s="35"/>
-      <c r="DI16" s="35"/>
-      <c r="DJ16" s="35"/>
-      <c r="DK16" s="35"/>
-      <c r="DL16" s="35"/>
-      <c r="DM16" s="35"/>
-      <c r="DN16" s="35"/>
-      <c r="DO16" s="35"/>
-      <c r="DP16" s="35"/>
-      <c r="DQ16" s="35"/>
-      <c r="DR16" s="35"/>
-      <c r="DS16" s="35"/>
-      <c r="DT16" s="35"/>
-      <c r="DU16" s="35"/>
-      <c r="DV16" s="35"/>
-      <c r="DW16" s="35"/>
-      <c r="DX16" s="35"/>
-      <c r="DY16" s="35"/>
-      <c r="DZ16" s="35"/>
-      <c r="EA16" s="35"/>
-      <c r="EB16" s="35"/>
-      <c r="EC16" s="35"/>
-      <c r="ED16" s="35"/>
-      <c r="EE16" s="35"/>
-      <c r="EF16" s="35"/>
-      <c r="EG16" s="35"/>
-      <c r="EH16" s="35"/>
-      <c r="EI16" s="35"/>
-      <c r="EJ16" s="35"/>
-      <c r="EK16" s="35"/>
-      <c r="EL16" s="35"/>
-      <c r="EM16" s="35"/>
-      <c r="EN16" s="35"/>
-      <c r="EO16" s="35"/>
-      <c r="EP16" s="35"/>
-      <c r="EQ16" s="35"/>
-      <c r="ER16" s="35"/>
-      <c r="ES16" s="35"/>
-      <c r="ET16" s="35"/>
-      <c r="EU16" s="35"/>
-      <c r="EV16" s="35"/>
-      <c r="EW16" s="35"/>
-      <c r="EX16" s="35"/>
-      <c r="EY16" s="35"/>
-      <c r="EZ16" s="35"/>
-      <c r="FA16" s="35"/>
-      <c r="FB16" s="35"/>
-      <c r="FC16" s="35"/>
-      <c r="FD16" s="35"/>
-      <c r="FE16" s="35"/>
-      <c r="FF16" s="35"/>
-      <c r="FG16" s="35"/>
-      <c r="FH16" s="35"/>
-      <c r="FI16" s="35"/>
-      <c r="FJ16" s="35"/>
-      <c r="FK16" s="35"/>
-      <c r="FL16" s="35"/>
-      <c r="FM16" s="35"/>
-      <c r="FN16" s="35"/>
+      <c r="CK16" s="36"/>
+      <c r="CL16" s="36"/>
+      <c r="CM16" s="36"/>
+      <c r="CN16" s="36"/>
+      <c r="CO16" s="36"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
+      <c r="CU16" s="36"/>
+      <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
+      <c r="CX16" s="36"/>
+      <c r="CY16" s="36"/>
+      <c r="CZ16" s="36"/>
+      <c r="DA16" s="36"/>
+      <c r="DB16" s="36"/>
+      <c r="DC16" s="36"/>
+      <c r="DD16" s="36"/>
+      <c r="DE16" s="36"/>
+      <c r="DF16" s="36"/>
+      <c r="DG16" s="36"/>
+      <c r="DH16" s="36"/>
+      <c r="DI16" s="36"/>
+      <c r="DJ16" s="36"/>
+      <c r="DK16" s="36"/>
+      <c r="DL16" s="36"/>
+      <c r="DM16" s="36"/>
+      <c r="DN16" s="36"/>
+      <c r="DO16" s="36"/>
+      <c r="DP16" s="36"/>
+      <c r="DQ16" s="36"/>
+      <c r="DR16" s="36"/>
+      <c r="DS16" s="36"/>
+      <c r="DT16" s="36"/>
+      <c r="DU16" s="36"/>
+      <c r="DV16" s="36"/>
+      <c r="DW16" s="36"/>
+      <c r="DX16" s="36"/>
+      <c r="DY16" s="36"/>
+      <c r="DZ16" s="36"/>
+      <c r="EA16" s="36"/>
+      <c r="EB16" s="36"/>
+      <c r="EC16" s="36"/>
+      <c r="ED16" s="36"/>
+      <c r="EE16" s="36"/>
+      <c r="EF16" s="36"/>
+      <c r="EG16" s="36"/>
+      <c r="EH16" s="36"/>
+      <c r="EI16" s="36"/>
+      <c r="EJ16" s="36"/>
+      <c r="EK16" s="36"/>
+      <c r="EL16" s="36"/>
+      <c r="EM16" s="36"/>
+      <c r="EN16" s="36"/>
+      <c r="EO16" s="36"/>
+      <c r="EP16" s="36"/>
+      <c r="EQ16" s="36"/>
+      <c r="ER16" s="36"/>
+      <c r="ES16" s="36"/>
+      <c r="ET16" s="36"/>
+      <c r="EU16" s="36"/>
+      <c r="EV16" s="36"/>
+      <c r="EW16" s="36"/>
+      <c r="EX16" s="36"/>
+      <c r="EY16" s="36"/>
+      <c r="EZ16" s="36"/>
+      <c r="FA16" s="36"/>
+      <c r="FB16" s="36"/>
+      <c r="FC16" s="36"/>
+      <c r="FD16" s="36"/>
+      <c r="FE16" s="36"/>
+      <c r="FF16" s="36"/>
+      <c r="FG16" s="36"/>
+      <c r="FH16" s="36"/>
+      <c r="FI16" s="36"/>
+      <c r="FJ16" s="36"/>
+      <c r="FK16" s="36"/>
+      <c r="FL16" s="36"/>
+      <c r="FM16" s="36"/>
+      <c r="FN16" s="36"/>
     </row>
     <row r="17" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="32" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="34" t="s">
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="32" t="s">
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="34" t="s">
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BG17" s="35"/>
-      <c r="BH17" s="35"/>
-      <c r="BI17" s="35"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="35"/>
-      <c r="BL17" s="35"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="35"/>
-      <c r="BO17" s="35"/>
-      <c r="BP17" s="35"/>
-      <c r="BQ17" s="35"/>
-      <c r="BR17" s="35"/>
-      <c r="BS17" s="35"/>
-      <c r="BT17" s="35"/>
-      <c r="BU17" s="35"/>
-      <c r="BV17" s="35"/>
-      <c r="BW17" s="35"/>
-      <c r="BX17" s="35"/>
-      <c r="BY17" s="35"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
       <c r="CI17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CV17" s="34" t="s">
+      <c r="CV17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="CW17" s="35"/>
-      <c r="CX17" s="35"/>
-      <c r="CY17" s="35"/>
-      <c r="CZ17" s="35"/>
-      <c r="DA17" s="35"/>
-      <c r="DB17" s="35"/>
-      <c r="DC17" s="35"/>
-      <c r="DD17" s="35"/>
-      <c r="DE17" s="35"/>
-      <c r="DF17" s="35"/>
-      <c r="DG17" s="35"/>
-      <c r="DH17" s="35"/>
-      <c r="DI17" s="35"/>
-      <c r="DJ17" s="35"/>
-      <c r="DK17" s="35"/>
-      <c r="DL17" s="35"/>
-      <c r="DM17" s="35"/>
-      <c r="DN17" s="35"/>
-      <c r="DO17" s="35"/>
-      <c r="DP17" s="35"/>
-      <c r="DQ17" s="35"/>
-      <c r="DR17" s="35"/>
-      <c r="DS17" s="35"/>
-      <c r="DT17" s="35"/>
-      <c r="DU17" s="35"/>
-      <c r="DV17" s="35"/>
-      <c r="DW17" s="35"/>
-      <c r="DX17" s="35"/>
-      <c r="DY17" s="35"/>
-      <c r="DZ17" s="35"/>
-      <c r="EA17" s="35"/>
-      <c r="EB17" s="35"/>
-      <c r="EC17" s="35"/>
-      <c r="ED17" s="35"/>
-      <c r="EE17" s="35"/>
-      <c r="EF17" s="35"/>
-      <c r="EG17" s="35"/>
-      <c r="EH17" s="35"/>
-      <c r="EI17" s="35"/>
-      <c r="EJ17" s="32" t="s">
+      <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
+      <c r="CZ17" s="36"/>
+      <c r="DA17" s="36"/>
+      <c r="DB17" s="36"/>
+      <c r="DC17" s="36"/>
+      <c r="DD17" s="36"/>
+      <c r="DE17" s="36"/>
+      <c r="DF17" s="36"/>
+      <c r="DG17" s="36"/>
+      <c r="DH17" s="36"/>
+      <c r="DI17" s="36"/>
+      <c r="DJ17" s="36"/>
+      <c r="DK17" s="36"/>
+      <c r="DL17" s="36"/>
+      <c r="DM17" s="36"/>
+      <c r="DN17" s="36"/>
+      <c r="DO17" s="36"/>
+      <c r="DP17" s="36"/>
+      <c r="DQ17" s="36"/>
+      <c r="DR17" s="36"/>
+      <c r="DS17" s="36"/>
+      <c r="DT17" s="36"/>
+      <c r="DU17" s="36"/>
+      <c r="DV17" s="36"/>
+      <c r="DW17" s="36"/>
+      <c r="DX17" s="36"/>
+      <c r="DY17" s="36"/>
+      <c r="DZ17" s="36"/>
+      <c r="EA17" s="36"/>
+      <c r="EB17" s="36"/>
+      <c r="EC17" s="36"/>
+      <c r="ED17" s="36"/>
+      <c r="EE17" s="36"/>
+      <c r="EF17" s="36"/>
+      <c r="EG17" s="36"/>
+      <c r="EH17" s="36"/>
+      <c r="EI17" s="36"/>
+      <c r="EJ17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="EK17" s="33"/>
-      <c r="EL17" s="33"/>
-      <c r="EM17" s="33"/>
-      <c r="EN17" s="34" t="s">
+      <c r="EK17" s="38"/>
+      <c r="EL17" s="38"/>
+      <c r="EM17" s="38"/>
+      <c r="EN17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="EO17" s="35"/>
-      <c r="EP17" s="35"/>
-      <c r="EQ17" s="32" t="s">
+      <c r="EO17" s="36"/>
+      <c r="EP17" s="36"/>
+      <c r="EQ17" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="ER17" s="33"/>
-      <c r="ES17" s="33"/>
-      <c r="ET17" s="33"/>
-      <c r="EU17" s="34" t="s">
+      <c r="ER17" s="38"/>
+      <c r="ES17" s="38"/>
+      <c r="ET17" s="38"/>
+      <c r="EU17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="EV17" s="35"/>
-      <c r="EW17" s="35"/>
-      <c r="EX17" s="35"/>
-      <c r="EY17" s="35"/>
-      <c r="EZ17" s="35"/>
-      <c r="FA17" s="35"/>
-      <c r="FB17" s="35"/>
-      <c r="FC17" s="35"/>
-      <c r="FD17" s="35"/>
-      <c r="FE17" s="35"/>
-      <c r="FF17" s="35"/>
-      <c r="FG17" s="35"/>
-      <c r="FH17" s="35"/>
-      <c r="FI17" s="35"/>
-      <c r="FJ17" s="35"/>
-      <c r="FK17" s="35"/>
-      <c r="FL17" s="35"/>
-      <c r="FM17" s="35"/>
-      <c r="FN17" s="35"/>
+      <c r="EV17" s="36"/>
+      <c r="EW17" s="36"/>
+      <c r="EX17" s="36"/>
+      <c r="EY17" s="36"/>
+      <c r="EZ17" s="36"/>
+      <c r="FA17" s="36"/>
+      <c r="FB17" s="36"/>
+      <c r="FC17" s="36"/>
+      <c r="FD17" s="36"/>
+      <c r="FE17" s="36"/>
+      <c r="FF17" s="36"/>
+      <c r="FG17" s="36"/>
+      <c r="FH17" s="36"/>
+      <c r="FI17" s="36"/>
+      <c r="FJ17" s="36"/>
+      <c r="FK17" s="36"/>
+      <c r="FL17" s="36"/>
+      <c r="FM17" s="36"/>
+      <c r="FN17" s="36"/>
     </row>
     <row r="18" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI18" s="2" t="s">
@@ -3416,278 +3416,278 @@
       </c>
     </row>
     <row r="21" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="42" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="36" t="s">
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="38">
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="37">
         <v>28</v>
       </c>
-      <c r="BD21" s="33"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="36" t="s">
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BH21" s="35"/>
-      <c r="BI21" s="38" t="s">
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="33"/>
-      <c r="BL21" s="33"/>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="33"/>
-      <c r="BO21" s="33"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
-      <c r="BR21" s="33"/>
-      <c r="BS21" s="33"/>
-      <c r="BT21" s="33"/>
-      <c r="BU21" s="33"/>
-      <c r="BV21" s="36" t="s">
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="38"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="BY21" s="35"/>
-      <c r="BZ21" s="38">
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="37">
         <v>19</v>
       </c>
-      <c r="CA21" s="33"/>
-      <c r="CB21" s="33"/>
-      <c r="CC21" s="33"/>
-      <c r="CD21" s="36" t="s">
+      <c r="CA21" s="38"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CE21" s="35"/>
+      <c r="CE21" s="36"/>
       <c r="CI21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CN21" s="43" t="s">
+      <c r="CN21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CO21" s="35"/>
-      <c r="CP21" s="35"/>
-      <c r="CQ21" s="35"/>
-      <c r="CR21" s="35"/>
-      <c r="CS21" s="35"/>
-      <c r="CT21" s="35"/>
-      <c r="CU21" s="35"/>
-      <c r="CV21" s="42" t="s">
+      <c r="CO21" s="36"/>
+      <c r="CP21" s="36"/>
+      <c r="CQ21" s="36"/>
+      <c r="CR21" s="36"/>
+      <c r="CS21" s="36"/>
+      <c r="CT21" s="36"/>
+      <c r="CU21" s="36"/>
+      <c r="CV21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CW21" s="35"/>
-      <c r="CX21" s="35"/>
-      <c r="CY21" s="35"/>
-      <c r="CZ21" s="35"/>
-      <c r="DA21" s="35"/>
-      <c r="DB21" s="35"/>
-      <c r="DC21" s="35"/>
-      <c r="DD21" s="35"/>
-      <c r="DE21" s="35"/>
-      <c r="DF21" s="35"/>
-      <c r="DG21" s="35"/>
-      <c r="DH21" s="35"/>
-      <c r="DI21" s="35"/>
-      <c r="DJ21" s="35"/>
-      <c r="DK21" s="35"/>
-      <c r="DL21" s="35"/>
-      <c r="DM21" s="35"/>
-      <c r="DN21" s="35"/>
-      <c r="DO21" s="35"/>
-      <c r="DP21" s="35"/>
-      <c r="DQ21" s="35"/>
-      <c r="DR21" s="35"/>
-      <c r="DS21" s="35"/>
-      <c r="DT21" s="35"/>
-      <c r="DU21" s="35"/>
-      <c r="DV21" s="35"/>
-      <c r="DW21" s="35"/>
-      <c r="DX21" s="35"/>
-      <c r="DY21" s="35"/>
-      <c r="DZ21" s="35"/>
-      <c r="EA21" s="35"/>
-      <c r="EB21" s="35"/>
-      <c r="EC21" s="35"/>
-      <c r="ED21" s="35"/>
-      <c r="EE21" s="35"/>
-      <c r="EF21" s="35"/>
-      <c r="EG21" s="35"/>
-      <c r="EH21" s="35"/>
-      <c r="EI21" s="35"/>
-      <c r="EJ21" s="36" t="s">
+      <c r="CW21" s="36"/>
+      <c r="CX21" s="36"/>
+      <c r="CY21" s="36"/>
+      <c r="CZ21" s="36"/>
+      <c r="DA21" s="36"/>
+      <c r="DB21" s="36"/>
+      <c r="DC21" s="36"/>
+      <c r="DD21" s="36"/>
+      <c r="DE21" s="36"/>
+      <c r="DF21" s="36"/>
+      <c r="DG21" s="36"/>
+      <c r="DH21" s="36"/>
+      <c r="DI21" s="36"/>
+      <c r="DJ21" s="36"/>
+      <c r="DK21" s="36"/>
+      <c r="DL21" s="36"/>
+      <c r="DM21" s="36"/>
+      <c r="DN21" s="36"/>
+      <c r="DO21" s="36"/>
+      <c r="DP21" s="36"/>
+      <c r="DQ21" s="36"/>
+      <c r="DR21" s="36"/>
+      <c r="DS21" s="36"/>
+      <c r="DT21" s="36"/>
+      <c r="DU21" s="36"/>
+      <c r="DV21" s="36"/>
+      <c r="DW21" s="36"/>
+      <c r="DX21" s="36"/>
+      <c r="DY21" s="36"/>
+      <c r="DZ21" s="36"/>
+      <c r="EA21" s="36"/>
+      <c r="EB21" s="36"/>
+      <c r="EC21" s="36"/>
+      <c r="ED21" s="36"/>
+      <c r="EE21" s="36"/>
+      <c r="EF21" s="36"/>
+      <c r="EG21" s="36"/>
+      <c r="EH21" s="36"/>
+      <c r="EI21" s="36"/>
+      <c r="EJ21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="EK21" s="35"/>
-      <c r="EL21" s="38" t="s">
+      <c r="EK21" s="36"/>
+      <c r="EL21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="EM21" s="33"/>
-      <c r="EN21" s="33"/>
-      <c r="EO21" s="33"/>
-      <c r="EP21" s="36" t="s">
+      <c r="EM21" s="38"/>
+      <c r="EN21" s="38"/>
+      <c r="EO21" s="38"/>
+      <c r="EP21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="EQ21" s="35"/>
-      <c r="ER21" s="38" t="s">
+      <c r="EQ21" s="36"/>
+      <c r="ER21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="ES21" s="33"/>
-      <c r="ET21" s="33"/>
-      <c r="EU21" s="33"/>
-      <c r="EV21" s="33"/>
-      <c r="EW21" s="33"/>
-      <c r="EX21" s="33"/>
-      <c r="EY21" s="33"/>
-      <c r="EZ21" s="33"/>
-      <c r="FA21" s="33"/>
-      <c r="FB21" s="33"/>
-      <c r="FC21" s="33"/>
-      <c r="FD21" s="33"/>
-      <c r="FE21" s="36" t="s">
+      <c r="ES21" s="38"/>
+      <c r="ET21" s="38"/>
+      <c r="EU21" s="38"/>
+      <c r="EV21" s="38"/>
+      <c r="EW21" s="38"/>
+      <c r="EX21" s="38"/>
+      <c r="EY21" s="38"/>
+      <c r="EZ21" s="38"/>
+      <c r="FA21" s="38"/>
+      <c r="FB21" s="38"/>
+      <c r="FC21" s="38"/>
+      <c r="FD21" s="38"/>
+      <c r="FE21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="FF21" s="35"/>
-      <c r="FG21" s="35"/>
-      <c r="FH21" s="35"/>
-      <c r="FI21" s="38">
+      <c r="FF21" s="36"/>
+      <c r="FG21" s="36"/>
+      <c r="FH21" s="36"/>
+      <c r="FI21" s="37">
         <v>20</v>
       </c>
-      <c r="FJ21" s="33"/>
-      <c r="FK21" s="33"/>
-      <c r="FL21" s="33"/>
-      <c r="FM21" s="36" t="s">
+      <c r="FJ21" s="38"/>
+      <c r="FK21" s="38"/>
+      <c r="FL21" s="38"/>
+      <c r="FM21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="FN21" s="35"/>
+      <c r="FN21" s="36"/>
     </row>
     <row r="22" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD22" s="40" t="s">
+      <c r="BD22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="38">
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
+      <c r="BJ22" s="36"/>
+      <c r="BK22" s="36"/>
+      <c r="BL22" s="36"/>
+      <c r="BM22" s="36"/>
+      <c r="BN22" s="36"/>
+      <c r="BO22" s="36"/>
+      <c r="BP22" s="36"/>
+      <c r="BQ22" s="36"/>
+      <c r="BR22" s="36"/>
+      <c r="BS22" s="36"/>
+      <c r="BT22" s="36"/>
+      <c r="BU22" s="37">
         <v>1</v>
       </c>
-      <c r="BV22" s="33"/>
-      <c r="BW22" s="33"/>
-      <c r="BX22" s="33"/>
-      <c r="BY22" s="33"/>
-      <c r="BZ22" s="33"/>
-      <c r="CA22" s="33"/>
-      <c r="CB22" s="33"/>
-      <c r="CC22" s="33"/>
-      <c r="CD22" s="33"/>
-      <c r="CE22" s="40" t="s">
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="38"/>
+      <c r="BX22" s="38"/>
+      <c r="BY22" s="38"/>
+      <c r="BZ22" s="38"/>
+      <c r="CA22" s="38"/>
+      <c r="CB22" s="38"/>
+      <c r="CC22" s="38"/>
+      <c r="CD22" s="38"/>
+      <c r="CE22" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="CF22" s="35"/>
+      <c r="CF22" s="36"/>
       <c r="CI22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EL22" s="40" t="s">
+      <c r="EL22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="EM22" s="35"/>
-      <c r="EN22" s="35"/>
-      <c r="EO22" s="35"/>
-      <c r="EP22" s="35"/>
-      <c r="EQ22" s="35"/>
-      <c r="ER22" s="35"/>
-      <c r="ES22" s="35"/>
-      <c r="ET22" s="35"/>
-      <c r="EU22" s="35"/>
-      <c r="EV22" s="35"/>
-      <c r="EW22" s="35"/>
-      <c r="EX22" s="35"/>
-      <c r="EY22" s="35"/>
-      <c r="EZ22" s="35"/>
-      <c r="FA22" s="35"/>
-      <c r="FB22" s="35"/>
-      <c r="FC22" s="38" t="s">
+      <c r="EM22" s="36"/>
+      <c r="EN22" s="36"/>
+      <c r="EO22" s="36"/>
+      <c r="EP22" s="36"/>
+      <c r="EQ22" s="36"/>
+      <c r="ER22" s="36"/>
+      <c r="ES22" s="36"/>
+      <c r="ET22" s="36"/>
+      <c r="EU22" s="36"/>
+      <c r="EV22" s="36"/>
+      <c r="EW22" s="36"/>
+      <c r="EX22" s="36"/>
+      <c r="EY22" s="36"/>
+      <c r="EZ22" s="36"/>
+      <c r="FA22" s="36"/>
+      <c r="FB22" s="36"/>
+      <c r="FC22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="FD22" s="33"/>
-      <c r="FE22" s="33"/>
-      <c r="FF22" s="33"/>
-      <c r="FG22" s="33"/>
-      <c r="FH22" s="33"/>
-      <c r="FI22" s="33"/>
-      <c r="FJ22" s="33"/>
-      <c r="FK22" s="33"/>
-      <c r="FL22" s="33"/>
-      <c r="FM22" s="40" t="s">
+      <c r="FD22" s="38"/>
+      <c r="FE22" s="38"/>
+      <c r="FF22" s="38"/>
+      <c r="FG22" s="38"/>
+      <c r="FH22" s="38"/>
+      <c r="FI22" s="38"/>
+      <c r="FJ22" s="38"/>
+      <c r="FK22" s="38"/>
+      <c r="FL22" s="38"/>
+      <c r="FM22" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="FN22" s="35"/>
+      <c r="FN22" s="36"/>
     </row>
     <row r="23" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI23" s="2" t="s">
@@ -3695,1014 +3695,1014 @@
       </c>
     </row>
     <row r="24" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y24" s="42" t="s">
+      <c r="Y24" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="39" t="s">
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="36"/>
+      <c r="AU24" s="36"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BA24" s="33"/>
-      <c r="BB24" s="33"/>
-      <c r="BC24" s="33"/>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
-      <c r="BI24" s="33"/>
-      <c r="BJ24" s="33"/>
-      <c r="BK24" s="33"/>
-      <c r="BL24" s="33"/>
-      <c r="BM24" s="33"/>
-      <c r="BN24" s="33"/>
-      <c r="BO24" s="33"/>
-      <c r="BP24" s="33"/>
-      <c r="BQ24" s="33"/>
-      <c r="BR24" s="33"/>
-      <c r="BS24" s="33"/>
-      <c r="BT24" s="33"/>
-      <c r="BU24" s="33"/>
-      <c r="BV24" s="33"/>
-      <c r="BW24" s="33"/>
-      <c r="BX24" s="33"/>
-      <c r="BY24" s="33"/>
-      <c r="BZ24" s="33"/>
-      <c r="CA24" s="33"/>
-      <c r="CB24" s="33"/>
-      <c r="CC24" s="33"/>
-      <c r="CD24" s="33"/>
-      <c r="CE24" s="33"/>
-      <c r="CF24" s="33"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="38"/>
+      <c r="BP24" s="38"/>
+      <c r="BQ24" s="38"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="38"/>
+      <c r="BT24" s="38"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="38"/>
+      <c r="BX24" s="38"/>
+      <c r="BY24" s="38"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="38"/>
+      <c r="CB24" s="38"/>
+      <c r="CC24" s="38"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="38"/>
+      <c r="CF24" s="38"/>
       <c r="CI24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DG24" s="42" t="s">
+      <c r="DG24" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="DH24" s="35"/>
-      <c r="DI24" s="35"/>
-      <c r="DJ24" s="35"/>
-      <c r="DK24" s="35"/>
-      <c r="DL24" s="35"/>
-      <c r="DM24" s="35"/>
-      <c r="DN24" s="35"/>
-      <c r="DO24" s="35"/>
-      <c r="DP24" s="35"/>
-      <c r="DQ24" s="35"/>
-      <c r="DR24" s="35"/>
-      <c r="DS24" s="35"/>
-      <c r="DT24" s="35"/>
-      <c r="DU24" s="35"/>
-      <c r="DV24" s="35"/>
-      <c r="DW24" s="35"/>
-      <c r="DX24" s="35"/>
-      <c r="DY24" s="35"/>
-      <c r="DZ24" s="35"/>
-      <c r="EA24" s="35"/>
-      <c r="EB24" s="35"/>
-      <c r="EC24" s="35"/>
-      <c r="ED24" s="35"/>
-      <c r="EE24" s="35"/>
-      <c r="EF24" s="35"/>
-      <c r="EG24" s="35"/>
-      <c r="EH24" s="39" t="s">
+      <c r="DH24" s="36"/>
+      <c r="DI24" s="36"/>
+      <c r="DJ24" s="36"/>
+      <c r="DK24" s="36"/>
+      <c r="DL24" s="36"/>
+      <c r="DM24" s="36"/>
+      <c r="DN24" s="36"/>
+      <c r="DO24" s="36"/>
+      <c r="DP24" s="36"/>
+      <c r="DQ24" s="36"/>
+      <c r="DR24" s="36"/>
+      <c r="DS24" s="36"/>
+      <c r="DT24" s="36"/>
+      <c r="DU24" s="36"/>
+      <c r="DV24" s="36"/>
+      <c r="DW24" s="36"/>
+      <c r="DX24" s="36"/>
+      <c r="DY24" s="36"/>
+      <c r="DZ24" s="36"/>
+      <c r="EA24" s="36"/>
+      <c r="EB24" s="36"/>
+      <c r="EC24" s="36"/>
+      <c r="ED24" s="36"/>
+      <c r="EE24" s="36"/>
+      <c r="EF24" s="36"/>
+      <c r="EG24" s="36"/>
+      <c r="EH24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="EI24" s="33"/>
-      <c r="EJ24" s="33"/>
-      <c r="EK24" s="33"/>
-      <c r="EL24" s="33"/>
-      <c r="EM24" s="33"/>
-      <c r="EN24" s="33"/>
-      <c r="EO24" s="33"/>
-      <c r="EP24" s="33"/>
-      <c r="EQ24" s="33"/>
-      <c r="ER24" s="33"/>
-      <c r="ES24" s="33"/>
-      <c r="ET24" s="33"/>
-      <c r="EU24" s="33"/>
-      <c r="EV24" s="33"/>
-      <c r="EW24" s="33"/>
-      <c r="EX24" s="33"/>
-      <c r="EY24" s="33"/>
-      <c r="EZ24" s="33"/>
-      <c r="FA24" s="33"/>
-      <c r="FB24" s="33"/>
-      <c r="FC24" s="33"/>
-      <c r="FD24" s="33"/>
-      <c r="FE24" s="33"/>
-      <c r="FF24" s="33"/>
-      <c r="FG24" s="33"/>
-      <c r="FH24" s="33"/>
-      <c r="FI24" s="33"/>
-      <c r="FJ24" s="33"/>
-      <c r="FK24" s="33"/>
-      <c r="FL24" s="33"/>
-      <c r="FM24" s="33"/>
-      <c r="FN24" s="33"/>
+      <c r="EI24" s="38"/>
+      <c r="EJ24" s="38"/>
+      <c r="EK24" s="38"/>
+      <c r="EL24" s="38"/>
+      <c r="EM24" s="38"/>
+      <c r="EN24" s="38"/>
+      <c r="EO24" s="38"/>
+      <c r="EP24" s="38"/>
+      <c r="EQ24" s="38"/>
+      <c r="ER24" s="38"/>
+      <c r="ES24" s="38"/>
+      <c r="ET24" s="38"/>
+      <c r="EU24" s="38"/>
+      <c r="EV24" s="38"/>
+      <c r="EW24" s="38"/>
+      <c r="EX24" s="38"/>
+      <c r="EY24" s="38"/>
+      <c r="EZ24" s="38"/>
+      <c r="FA24" s="38"/>
+      <c r="FB24" s="38"/>
+      <c r="FC24" s="38"/>
+      <c r="FD24" s="38"/>
+      <c r="FE24" s="38"/>
+      <c r="FF24" s="38"/>
+      <c r="FG24" s="38"/>
+      <c r="FH24" s="38"/>
+      <c r="FI24" s="38"/>
+      <c r="FJ24" s="38"/>
+      <c r="FK24" s="38"/>
+      <c r="FL24" s="38"/>
+      <c r="FM24" s="38"/>
+      <c r="FN24" s="38"/>
     </row>
     <row r="25" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="33"/>
-      <c r="BC26" s="33"/>
-      <c r="BD26" s="33"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
-      <c r="BG26" s="33"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="33"/>
-      <c r="BJ26" s="33"/>
-      <c r="BK26" s="33"/>
-      <c r="BL26" s="33"/>
-      <c r="BM26" s="33"/>
-      <c r="BN26" s="33"/>
-      <c r="BO26" s="33"/>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="33"/>
-      <c r="BR26" s="33"/>
-      <c r="BS26" s="33"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="33"/>
-      <c r="BV26" s="33"/>
-      <c r="BW26" s="33"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="33"/>
-      <c r="BZ26" s="33"/>
-      <c r="CA26" s="33"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="33"/>
-      <c r="CD26" s="33"/>
-      <c r="CE26" s="33"/>
-      <c r="CF26" s="33"/>
-      <c r="CG26" s="33"/>
-      <c r="CH26" s="33"/>
-      <c r="CI26" s="33"/>
-      <c r="CJ26" s="38" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="38"/>
+      <c r="BW26" s="38"/>
+      <c r="BX26" s="38"/>
+      <c r="BY26" s="38"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="38"/>
+      <c r="CB26" s="38"/>
+      <c r="CC26" s="38"/>
+      <c r="CD26" s="38"/>
+      <c r="CE26" s="38"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="38"/>
+      <c r="CH26" s="38"/>
+      <c r="CI26" s="38"/>
+      <c r="CJ26" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="CK26" s="33"/>
-      <c r="CL26" s="33"/>
-      <c r="CM26" s="33"/>
-      <c r="CN26" s="33"/>
-      <c r="CO26" s="33"/>
-      <c r="CP26" s="33"/>
-      <c r="CQ26" s="33"/>
-      <c r="CR26" s="33"/>
-      <c r="CS26" s="33"/>
-      <c r="CT26" s="33"/>
-      <c r="CU26" s="33"/>
-      <c r="CV26" s="33"/>
-      <c r="CW26" s="33"/>
-      <c r="CX26" s="33"/>
-      <c r="CY26" s="33"/>
-      <c r="CZ26" s="33"/>
-      <c r="DA26" s="33"/>
-      <c r="DB26" s="33"/>
-      <c r="DC26" s="33"/>
-      <c r="DD26" s="33"/>
-      <c r="DE26" s="33"/>
-      <c r="DF26" s="33"/>
-      <c r="DG26" s="33"/>
-      <c r="DH26" s="33"/>
-      <c r="DI26" s="33"/>
-      <c r="DJ26" s="33"/>
-      <c r="DK26" s="33"/>
-      <c r="DL26" s="33"/>
-      <c r="DM26" s="33"/>
-      <c r="DN26" s="33"/>
-      <c r="DO26" s="33"/>
-      <c r="DP26" s="33"/>
-      <c r="DQ26" s="33"/>
-      <c r="DR26" s="33"/>
-      <c r="DS26" s="33"/>
-      <c r="DT26" s="33"/>
-      <c r="DU26" s="33"/>
-      <c r="DV26" s="33"/>
-      <c r="DW26" s="33"/>
-      <c r="DX26" s="33"/>
-      <c r="DY26" s="33"/>
-      <c r="DZ26" s="33"/>
-      <c r="EA26" s="33"/>
-      <c r="EB26" s="33"/>
-      <c r="EC26" s="33"/>
-      <c r="ED26" s="33"/>
-      <c r="EE26" s="33"/>
-      <c r="EF26" s="33"/>
-      <c r="EG26" s="33"/>
-      <c r="EH26" s="33"/>
-      <c r="EI26" s="33"/>
-      <c r="EJ26" s="33"/>
-      <c r="EK26" s="33"/>
-      <c r="EL26" s="33"/>
-      <c r="EM26" s="33"/>
-      <c r="EN26" s="33"/>
-      <c r="EO26" s="33"/>
-      <c r="EP26" s="33"/>
-      <c r="EQ26" s="33"/>
-      <c r="ER26" s="33"/>
-      <c r="ES26" s="33"/>
-      <c r="ET26" s="33"/>
-      <c r="EU26" s="33"/>
-      <c r="EV26" s="33"/>
-      <c r="EW26" s="33"/>
-      <c r="EX26" s="33"/>
-      <c r="EY26" s="33"/>
-      <c r="EZ26" s="33"/>
-      <c r="FA26" s="33"/>
-      <c r="FB26" s="33"/>
-      <c r="FC26" s="33"/>
-      <c r="FD26" s="33"/>
-      <c r="FE26" s="33"/>
-      <c r="FF26" s="33"/>
-      <c r="FG26" s="33"/>
-      <c r="FH26" s="33"/>
-      <c r="FI26" s="33"/>
-      <c r="FJ26" s="33"/>
-      <c r="FK26" s="33"/>
-      <c r="FL26" s="33"/>
-      <c r="FM26" s="33"/>
-      <c r="FN26" s="33"/>
+      <c r="CK26" s="38"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="38"/>
+      <c r="CN26" s="38"/>
+      <c r="CO26" s="38"/>
+      <c r="CP26" s="38"/>
+      <c r="CQ26" s="38"/>
+      <c r="CR26" s="38"/>
+      <c r="CS26" s="38"/>
+      <c r="CT26" s="38"/>
+      <c r="CU26" s="38"/>
+      <c r="CV26" s="38"/>
+      <c r="CW26" s="38"/>
+      <c r="CX26" s="38"/>
+      <c r="CY26" s="38"/>
+      <c r="CZ26" s="38"/>
+      <c r="DA26" s="38"/>
+      <c r="DB26" s="38"/>
+      <c r="DC26" s="38"/>
+      <c r="DD26" s="38"/>
+      <c r="DE26" s="38"/>
+      <c r="DF26" s="38"/>
+      <c r="DG26" s="38"/>
+      <c r="DH26" s="38"/>
+      <c r="DI26" s="38"/>
+      <c r="DJ26" s="38"/>
+      <c r="DK26" s="38"/>
+      <c r="DL26" s="38"/>
+      <c r="DM26" s="38"/>
+      <c r="DN26" s="38"/>
+      <c r="DO26" s="38"/>
+      <c r="DP26" s="38"/>
+      <c r="DQ26" s="38"/>
+      <c r="DR26" s="38"/>
+      <c r="DS26" s="38"/>
+      <c r="DT26" s="38"/>
+      <c r="DU26" s="38"/>
+      <c r="DV26" s="38"/>
+      <c r="DW26" s="38"/>
+      <c r="DX26" s="38"/>
+      <c r="DY26" s="38"/>
+      <c r="DZ26" s="38"/>
+      <c r="EA26" s="38"/>
+      <c r="EB26" s="38"/>
+      <c r="EC26" s="38"/>
+      <c r="ED26" s="38"/>
+      <c r="EE26" s="38"/>
+      <c r="EF26" s="38"/>
+      <c r="EG26" s="38"/>
+      <c r="EH26" s="38"/>
+      <c r="EI26" s="38"/>
+      <c r="EJ26" s="38"/>
+      <c r="EK26" s="38"/>
+      <c r="EL26" s="38"/>
+      <c r="EM26" s="38"/>
+      <c r="EN26" s="38"/>
+      <c r="EO26" s="38"/>
+      <c r="EP26" s="38"/>
+      <c r="EQ26" s="38"/>
+      <c r="ER26" s="38"/>
+      <c r="ES26" s="38"/>
+      <c r="ET26" s="38"/>
+      <c r="EU26" s="38"/>
+      <c r="EV26" s="38"/>
+      <c r="EW26" s="38"/>
+      <c r="EX26" s="38"/>
+      <c r="EY26" s="38"/>
+      <c r="EZ26" s="38"/>
+      <c r="FA26" s="38"/>
+      <c r="FB26" s="38"/>
+      <c r="FC26" s="38"/>
+      <c r="FD26" s="38"/>
+      <c r="FE26" s="38"/>
+      <c r="FF26" s="38"/>
+      <c r="FG26" s="38"/>
+      <c r="FH26" s="38"/>
+      <c r="FI26" s="38"/>
+      <c r="FJ26" s="38"/>
+      <c r="FK26" s="38"/>
+      <c r="FL26" s="38"/>
+      <c r="FM26" s="38"/>
+      <c r="FN26" s="38"/>
     </row>
     <row r="27" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="38" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="33"/>
-      <c r="BC27" s="33"/>
-      <c r="BD27" s="33"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="33"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
-      <c r="BU27" s="33"/>
-      <c r="BV27" s="33"/>
-      <c r="BW27" s="33"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="33"/>
-      <c r="BZ27" s="33"/>
-      <c r="CA27" s="33"/>
-      <c r="CB27" s="33"/>
-      <c r="CC27" s="33"/>
-      <c r="CD27" s="33"/>
-      <c r="CE27" s="33"/>
-      <c r="CF27" s="33"/>
-      <c r="CG27" s="33"/>
-      <c r="CH27" s="33"/>
-      <c r="CI27" s="33"/>
-      <c r="CJ27" s="33"/>
-      <c r="CK27" s="33"/>
-      <c r="CL27" s="33"/>
-      <c r="CM27" s="33"/>
-      <c r="CN27" s="33"/>
-      <c r="CO27" s="33"/>
-      <c r="CP27" s="33"/>
-      <c r="CQ27" s="33"/>
-      <c r="CR27" s="33"/>
-      <c r="CS27" s="33"/>
-      <c r="CT27" s="33"/>
-      <c r="CU27" s="33"/>
-      <c r="CV27" s="33"/>
-      <c r="CW27" s="33"/>
-      <c r="CX27" s="33"/>
-      <c r="CY27" s="33"/>
-      <c r="CZ27" s="33"/>
-      <c r="DA27" s="33"/>
-      <c r="DB27" s="33"/>
-      <c r="DC27" s="33"/>
-      <c r="DD27" s="33"/>
-      <c r="DE27" s="33"/>
-      <c r="DF27" s="33"/>
-      <c r="DG27" s="33"/>
-      <c r="DH27" s="33"/>
-      <c r="DI27" s="33"/>
-      <c r="DJ27" s="33"/>
-      <c r="DK27" s="33"/>
-      <c r="DL27" s="33"/>
-      <c r="DM27" s="33"/>
-      <c r="DN27" s="33"/>
-      <c r="DO27" s="33"/>
-      <c r="DP27" s="33"/>
-      <c r="DQ27" s="33"/>
-      <c r="DR27" s="33"/>
-      <c r="DS27" s="33"/>
-      <c r="DT27" s="33"/>
-      <c r="DU27" s="33"/>
-      <c r="DV27" s="33"/>
-      <c r="DW27" s="33"/>
-      <c r="DX27" s="33"/>
-      <c r="DY27" s="33"/>
-      <c r="DZ27" s="33"/>
-      <c r="EA27" s="33"/>
-      <c r="EB27" s="33"/>
-      <c r="EC27" s="33"/>
-      <c r="ED27" s="33"/>
-      <c r="EE27" s="33"/>
-      <c r="EF27" s="33"/>
-      <c r="EG27" s="33"/>
-      <c r="EH27" s="33"/>
-      <c r="EI27" s="33"/>
-      <c r="EJ27" s="33"/>
-      <c r="EK27" s="33"/>
-      <c r="EL27" s="33"/>
-      <c r="EM27" s="33"/>
-      <c r="EN27" s="33"/>
-      <c r="EO27" s="33"/>
-      <c r="EP27" s="33"/>
-      <c r="EQ27" s="33"/>
-      <c r="ER27" s="33"/>
-      <c r="ES27" s="33"/>
-      <c r="ET27" s="33"/>
-      <c r="EU27" s="33"/>
-      <c r="EV27" s="33"/>
-      <c r="EW27" s="33"/>
-      <c r="EX27" s="33"/>
-      <c r="EY27" s="33"/>
-      <c r="EZ27" s="33"/>
-      <c r="FA27" s="33"/>
-      <c r="FB27" s="33"/>
-      <c r="FC27" s="33"/>
-      <c r="FD27" s="33"/>
-      <c r="FE27" s="33"/>
-      <c r="FF27" s="33"/>
-      <c r="FG27" s="33"/>
-      <c r="FH27" s="33"/>
-      <c r="FI27" s="33"/>
-      <c r="FJ27" s="33"/>
-      <c r="FK27" s="33"/>
-      <c r="FL27" s="33"/>
-      <c r="FM27" s="33"/>
-      <c r="FN27" s="33"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="38"/>
+      <c r="CB27" s="38"/>
+      <c r="CC27" s="38"/>
+      <c r="CD27" s="38"/>
+      <c r="CE27" s="38"/>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="38"/>
+      <c r="CH27" s="38"/>
+      <c r="CI27" s="38"/>
+      <c r="CJ27" s="38"/>
+      <c r="CK27" s="38"/>
+      <c r="CL27" s="38"/>
+      <c r="CM27" s="38"/>
+      <c r="CN27" s="38"/>
+      <c r="CO27" s="38"/>
+      <c r="CP27" s="38"/>
+      <c r="CQ27" s="38"/>
+      <c r="CR27" s="38"/>
+      <c r="CS27" s="38"/>
+      <c r="CT27" s="38"/>
+      <c r="CU27" s="38"/>
+      <c r="CV27" s="38"/>
+      <c r="CW27" s="38"/>
+      <c r="CX27" s="38"/>
+      <c r="CY27" s="38"/>
+      <c r="CZ27" s="38"/>
+      <c r="DA27" s="38"/>
+      <c r="DB27" s="38"/>
+      <c r="DC27" s="38"/>
+      <c r="DD27" s="38"/>
+      <c r="DE27" s="38"/>
+      <c r="DF27" s="38"/>
+      <c r="DG27" s="38"/>
+      <c r="DH27" s="38"/>
+      <c r="DI27" s="38"/>
+      <c r="DJ27" s="38"/>
+      <c r="DK27" s="38"/>
+      <c r="DL27" s="38"/>
+      <c r="DM27" s="38"/>
+      <c r="DN27" s="38"/>
+      <c r="DO27" s="38"/>
+      <c r="DP27" s="38"/>
+      <c r="DQ27" s="38"/>
+      <c r="DR27" s="38"/>
+      <c r="DS27" s="38"/>
+      <c r="DT27" s="38"/>
+      <c r="DU27" s="38"/>
+      <c r="DV27" s="38"/>
+      <c r="DW27" s="38"/>
+      <c r="DX27" s="38"/>
+      <c r="DY27" s="38"/>
+      <c r="DZ27" s="38"/>
+      <c r="EA27" s="38"/>
+      <c r="EB27" s="38"/>
+      <c r="EC27" s="38"/>
+      <c r="ED27" s="38"/>
+      <c r="EE27" s="38"/>
+      <c r="EF27" s="38"/>
+      <c r="EG27" s="38"/>
+      <c r="EH27" s="38"/>
+      <c r="EI27" s="38"/>
+      <c r="EJ27" s="38"/>
+      <c r="EK27" s="38"/>
+      <c r="EL27" s="38"/>
+      <c r="EM27" s="38"/>
+      <c r="EN27" s="38"/>
+      <c r="EO27" s="38"/>
+      <c r="EP27" s="38"/>
+      <c r="EQ27" s="38"/>
+      <c r="ER27" s="38"/>
+      <c r="ES27" s="38"/>
+      <c r="ET27" s="38"/>
+      <c r="EU27" s="38"/>
+      <c r="EV27" s="38"/>
+      <c r="EW27" s="38"/>
+      <c r="EX27" s="38"/>
+      <c r="EY27" s="38"/>
+      <c r="EZ27" s="38"/>
+      <c r="FA27" s="38"/>
+      <c r="FB27" s="38"/>
+      <c r="FC27" s="38"/>
+      <c r="FD27" s="38"/>
+      <c r="FE27" s="38"/>
+      <c r="FF27" s="38"/>
+      <c r="FG27" s="38"/>
+      <c r="FH27" s="38"/>
+      <c r="FI27" s="38"/>
+      <c r="FJ27" s="38"/>
+      <c r="FK27" s="38"/>
+      <c r="FL27" s="38"/>
+      <c r="FM27" s="38"/>
+      <c r="FN27" s="38"/>
     </row>
     <row r="28" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="38" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="33"/>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="33"/>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="33"/>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="33"/>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="33"/>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="33"/>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
-      <c r="CH28" s="33"/>
-      <c r="CI28" s="33"/>
-      <c r="CJ28" s="33"/>
-      <c r="CK28" s="33"/>
-      <c r="CL28" s="33"/>
-      <c r="CM28" s="33"/>
-      <c r="CN28" s="33"/>
-      <c r="CO28" s="33"/>
-      <c r="CP28" s="33"/>
-      <c r="CQ28" s="33"/>
-      <c r="CR28" s="33"/>
-      <c r="CS28" s="33"/>
-      <c r="CT28" s="33"/>
-      <c r="CU28" s="33"/>
-      <c r="CV28" s="33"/>
-      <c r="CW28" s="33"/>
-      <c r="CX28" s="33"/>
-      <c r="CY28" s="33"/>
-      <c r="CZ28" s="33"/>
-      <c r="DA28" s="33"/>
-      <c r="DB28" s="33"/>
-      <c r="DC28" s="33"/>
-      <c r="DD28" s="33"/>
-      <c r="DE28" s="33"/>
-      <c r="DF28" s="33"/>
-      <c r="DG28" s="33"/>
-      <c r="DH28" s="33"/>
-      <c r="DI28" s="33"/>
-      <c r="DJ28" s="33"/>
-      <c r="DK28" s="33"/>
-      <c r="DL28" s="33"/>
-      <c r="DM28" s="33"/>
-      <c r="DN28" s="33"/>
-      <c r="DO28" s="33"/>
-      <c r="DP28" s="33"/>
-      <c r="DQ28" s="33"/>
-      <c r="DR28" s="33"/>
-      <c r="DS28" s="33"/>
-      <c r="DT28" s="33"/>
-      <c r="DU28" s="33"/>
-      <c r="DV28" s="33"/>
-      <c r="DW28" s="33"/>
-      <c r="DX28" s="33"/>
-      <c r="DY28" s="33"/>
-      <c r="DZ28" s="33"/>
-      <c r="EA28" s="33"/>
-      <c r="EB28" s="33"/>
-      <c r="EC28" s="33"/>
-      <c r="ED28" s="33"/>
-      <c r="EE28" s="33"/>
-      <c r="EF28" s="33"/>
-      <c r="EG28" s="33"/>
-      <c r="EH28" s="33"/>
-      <c r="EI28" s="33"/>
-      <c r="EJ28" s="33"/>
-      <c r="EK28" s="33"/>
-      <c r="EL28" s="33"/>
-      <c r="EM28" s="33"/>
-      <c r="EN28" s="33"/>
-      <c r="EO28" s="33"/>
-      <c r="EP28" s="33"/>
-      <c r="EQ28" s="33"/>
-      <c r="ER28" s="33"/>
-      <c r="ES28" s="33"/>
-      <c r="ET28" s="33"/>
-      <c r="EU28" s="33"/>
-      <c r="EV28" s="33"/>
-      <c r="EW28" s="33"/>
-      <c r="EX28" s="33"/>
-      <c r="EY28" s="33"/>
-      <c r="EZ28" s="33"/>
-      <c r="FA28" s="33"/>
-      <c r="FB28" s="33"/>
-      <c r="FC28" s="33"/>
-      <c r="FD28" s="33"/>
-      <c r="FE28" s="33"/>
-      <c r="FF28" s="33"/>
-      <c r="FG28" s="33"/>
-      <c r="FH28" s="33"/>
-      <c r="FI28" s="33"/>
-      <c r="FJ28" s="33"/>
-      <c r="FK28" s="33"/>
-      <c r="FL28" s="33"/>
-      <c r="FM28" s="33"/>
-      <c r="FN28" s="33"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="38"/>
+      <c r="CC28" s="38"/>
+      <c r="CD28" s="38"/>
+      <c r="CE28" s="38"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="38"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="38"/>
+      <c r="CO28" s="38"/>
+      <c r="CP28" s="38"/>
+      <c r="CQ28" s="38"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="38"/>
+      <c r="CT28" s="38"/>
+      <c r="CU28" s="38"/>
+      <c r="CV28" s="38"/>
+      <c r="CW28" s="38"/>
+      <c r="CX28" s="38"/>
+      <c r="CY28" s="38"/>
+      <c r="CZ28" s="38"/>
+      <c r="DA28" s="38"/>
+      <c r="DB28" s="38"/>
+      <c r="DC28" s="38"/>
+      <c r="DD28" s="38"/>
+      <c r="DE28" s="38"/>
+      <c r="DF28" s="38"/>
+      <c r="DG28" s="38"/>
+      <c r="DH28" s="38"/>
+      <c r="DI28" s="38"/>
+      <c r="DJ28" s="38"/>
+      <c r="DK28" s="38"/>
+      <c r="DL28" s="38"/>
+      <c r="DM28" s="38"/>
+      <c r="DN28" s="38"/>
+      <c r="DO28" s="38"/>
+      <c r="DP28" s="38"/>
+      <c r="DQ28" s="38"/>
+      <c r="DR28" s="38"/>
+      <c r="DS28" s="38"/>
+      <c r="DT28" s="38"/>
+      <c r="DU28" s="38"/>
+      <c r="DV28" s="38"/>
+      <c r="DW28" s="38"/>
+      <c r="DX28" s="38"/>
+      <c r="DY28" s="38"/>
+      <c r="DZ28" s="38"/>
+      <c r="EA28" s="38"/>
+      <c r="EB28" s="38"/>
+      <c r="EC28" s="38"/>
+      <c r="ED28" s="38"/>
+      <c r="EE28" s="38"/>
+      <c r="EF28" s="38"/>
+      <c r="EG28" s="38"/>
+      <c r="EH28" s="38"/>
+      <c r="EI28" s="38"/>
+      <c r="EJ28" s="38"/>
+      <c r="EK28" s="38"/>
+      <c r="EL28" s="38"/>
+      <c r="EM28" s="38"/>
+      <c r="EN28" s="38"/>
+      <c r="EO28" s="38"/>
+      <c r="EP28" s="38"/>
+      <c r="EQ28" s="38"/>
+      <c r="ER28" s="38"/>
+      <c r="ES28" s="38"/>
+      <c r="ET28" s="38"/>
+      <c r="EU28" s="38"/>
+      <c r="EV28" s="38"/>
+      <c r="EW28" s="38"/>
+      <c r="EX28" s="38"/>
+      <c r="EY28" s="38"/>
+      <c r="EZ28" s="38"/>
+      <c r="FA28" s="38"/>
+      <c r="FB28" s="38"/>
+      <c r="FC28" s="38"/>
+      <c r="FD28" s="38"/>
+      <c r="FE28" s="38"/>
+      <c r="FF28" s="38"/>
+      <c r="FG28" s="38"/>
+      <c r="FH28" s="38"/>
+      <c r="FI28" s="38"/>
+      <c r="FJ28" s="38"/>
+      <c r="FK28" s="38"/>
+      <c r="FL28" s="38"/>
+      <c r="FM28" s="38"/>
+      <c r="FN28" s="38"/>
     </row>
     <row r="29" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="33"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="33"/>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
-      <c r="BI29" s="33"/>
-      <c r="BJ29" s="33"/>
-      <c r="BK29" s="33"/>
-      <c r="BL29" s="33"/>
-      <c r="BM29" s="33"/>
-      <c r="BN29" s="33"/>
-      <c r="BO29" s="33"/>
-      <c r="BP29" s="33"/>
-      <c r="BQ29" s="33"/>
-      <c r="BR29" s="33"/>
-      <c r="BS29" s="33"/>
-      <c r="BT29" s="33"/>
-      <c r="BU29" s="33"/>
-      <c r="BV29" s="33"/>
-      <c r="BW29" s="33"/>
-      <c r="BX29" s="33"/>
-      <c r="BY29" s="33"/>
-      <c r="BZ29" s="33"/>
-      <c r="CA29" s="33"/>
-      <c r="CB29" s="33"/>
-      <c r="CC29" s="33"/>
-      <c r="CD29" s="33"/>
-      <c r="CE29" s="33"/>
-      <c r="CF29" s="33"/>
-      <c r="CG29" s="33"/>
-      <c r="CH29" s="33"/>
-      <c r="CI29" s="33"/>
-      <c r="CJ29" s="33"/>
-      <c r="CK29" s="33"/>
-      <c r="CL29" s="33"/>
-      <c r="CM29" s="33"/>
-      <c r="CN29" s="33"/>
-      <c r="CO29" s="33"/>
-      <c r="CP29" s="33"/>
-      <c r="CQ29" s="33"/>
-      <c r="CR29" s="33"/>
-      <c r="CS29" s="33"/>
-      <c r="CT29" s="33"/>
-      <c r="CU29" s="33"/>
-      <c r="CV29" s="33"/>
-      <c r="CW29" s="33"/>
-      <c r="CX29" s="33"/>
-      <c r="CY29" s="33"/>
-      <c r="CZ29" s="33"/>
-      <c r="DA29" s="33"/>
-      <c r="DB29" s="33"/>
-      <c r="DC29" s="33"/>
-      <c r="DD29" s="33"/>
-      <c r="DE29" s="33"/>
-      <c r="DF29" s="33"/>
-      <c r="DG29" s="33"/>
-      <c r="DH29" s="33"/>
-      <c r="DI29" s="33"/>
-      <c r="DJ29" s="33"/>
-      <c r="DK29" s="33"/>
-      <c r="DL29" s="33"/>
-      <c r="DM29" s="33"/>
-      <c r="DN29" s="33"/>
-      <c r="DO29" s="33"/>
-      <c r="DP29" s="33"/>
-      <c r="DQ29" s="33"/>
-      <c r="DR29" s="33"/>
-      <c r="DS29" s="33"/>
-      <c r="DT29" s="33"/>
-      <c r="DU29" s="33"/>
-      <c r="DV29" s="33"/>
-      <c r="DW29" s="33"/>
-      <c r="DX29" s="33"/>
-      <c r="DY29" s="33"/>
-      <c r="DZ29" s="33"/>
-      <c r="EA29" s="33"/>
-      <c r="EB29" s="33"/>
-      <c r="EC29" s="33"/>
-      <c r="ED29" s="33"/>
-      <c r="EE29" s="33"/>
-      <c r="EF29" s="33"/>
-      <c r="EG29" s="33"/>
-      <c r="EH29" s="33"/>
-      <c r="EI29" s="33"/>
-      <c r="EJ29" s="33"/>
-      <c r="EK29" s="33"/>
-      <c r="EL29" s="33"/>
-      <c r="EM29" s="33"/>
-      <c r="EN29" s="33"/>
-      <c r="EO29" s="33"/>
-      <c r="EP29" s="33"/>
-      <c r="EQ29" s="33"/>
-      <c r="ER29" s="33"/>
-      <c r="ES29" s="33"/>
-      <c r="ET29" s="33"/>
-      <c r="EU29" s="33"/>
-      <c r="EV29" s="33"/>
-      <c r="EW29" s="33"/>
-      <c r="EX29" s="33"/>
-      <c r="EY29" s="33"/>
-      <c r="EZ29" s="33"/>
-      <c r="FA29" s="33"/>
-      <c r="FB29" s="33"/>
-      <c r="FC29" s="33"/>
-      <c r="FD29" s="33"/>
-      <c r="FE29" s="33"/>
-      <c r="FF29" s="33"/>
-      <c r="FG29" s="33"/>
-      <c r="FH29" s="33"/>
-      <c r="FI29" s="33"/>
-      <c r="FJ29" s="33"/>
-      <c r="FK29" s="33"/>
-      <c r="FL29" s="33"/>
-      <c r="FM29" s="33"/>
-      <c r="FN29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="38"/>
+      <c r="BW29" s="38"/>
+      <c r="BX29" s="38"/>
+      <c r="BY29" s="38"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="38"/>
+      <c r="CB29" s="38"/>
+      <c r="CC29" s="38"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
+      <c r="CK29" s="38"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="38"/>
+      <c r="CO29" s="38"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="38"/>
+      <c r="CT29" s="38"/>
+      <c r="CU29" s="38"/>
+      <c r="CV29" s="38"/>
+      <c r="CW29" s="38"/>
+      <c r="CX29" s="38"/>
+      <c r="CY29" s="38"/>
+      <c r="CZ29" s="38"/>
+      <c r="DA29" s="38"/>
+      <c r="DB29" s="38"/>
+      <c r="DC29" s="38"/>
+      <c r="DD29" s="38"/>
+      <c r="DE29" s="38"/>
+      <c r="DF29" s="38"/>
+      <c r="DG29" s="38"/>
+      <c r="DH29" s="38"/>
+      <c r="DI29" s="38"/>
+      <c r="DJ29" s="38"/>
+      <c r="DK29" s="38"/>
+      <c r="DL29" s="38"/>
+      <c r="DM29" s="38"/>
+      <c r="DN29" s="38"/>
+      <c r="DO29" s="38"/>
+      <c r="DP29" s="38"/>
+      <c r="DQ29" s="38"/>
+      <c r="DR29" s="38"/>
+      <c r="DS29" s="38"/>
+      <c r="DT29" s="38"/>
+      <c r="DU29" s="38"/>
+      <c r="DV29" s="38"/>
+      <c r="DW29" s="38"/>
+      <c r="DX29" s="38"/>
+      <c r="DY29" s="38"/>
+      <c r="DZ29" s="38"/>
+      <c r="EA29" s="38"/>
+      <c r="EB29" s="38"/>
+      <c r="EC29" s="38"/>
+      <c r="ED29" s="38"/>
+      <c r="EE29" s="38"/>
+      <c r="EF29" s="38"/>
+      <c r="EG29" s="38"/>
+      <c r="EH29" s="38"/>
+      <c r="EI29" s="38"/>
+      <c r="EJ29" s="38"/>
+      <c r="EK29" s="38"/>
+      <c r="EL29" s="38"/>
+      <c r="EM29" s="38"/>
+      <c r="EN29" s="38"/>
+      <c r="EO29" s="38"/>
+      <c r="EP29" s="38"/>
+      <c r="EQ29" s="38"/>
+      <c r="ER29" s="38"/>
+      <c r="ES29" s="38"/>
+      <c r="ET29" s="38"/>
+      <c r="EU29" s="38"/>
+      <c r="EV29" s="38"/>
+      <c r="EW29" s="38"/>
+      <c r="EX29" s="38"/>
+      <c r="EY29" s="38"/>
+      <c r="EZ29" s="38"/>
+      <c r="FA29" s="38"/>
+      <c r="FB29" s="38"/>
+      <c r="FC29" s="38"/>
+      <c r="FD29" s="38"/>
+      <c r="FE29" s="38"/>
+      <c r="FF29" s="38"/>
+      <c r="FG29" s="38"/>
+      <c r="FH29" s="38"/>
+      <c r="FI29" s="38"/>
+      <c r="FJ29" s="38"/>
+      <c r="FK29" s="38"/>
+      <c r="FL29" s="38"/>
+      <c r="FM29" s="38"/>
+      <c r="FN29" s="38"/>
     </row>
     <row r="30" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-      <c r="AO30" s="35"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="35"/>
-      <c r="AS30" s="35"/>
-      <c r="AT30" s="35"/>
-      <c r="AU30" s="35"/>
-      <c r="AV30" s="35"/>
-      <c r="AW30" s="35"/>
-      <c r="AX30" s="35"/>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="35"/>
-      <c r="BC30" s="35"/>
-      <c r="BD30" s="35"/>
-      <c r="BE30" s="35"/>
-      <c r="BF30" s="35"/>
-      <c r="BG30" s="35"/>
-      <c r="BH30" s="35"/>
-      <c r="BI30" s="35"/>
-      <c r="BJ30" s="35"/>
-      <c r="BK30" s="35"/>
-      <c r="BL30" s="35"/>
-      <c r="BM30" s="35"/>
-      <c r="BN30" s="35"/>
-      <c r="BO30" s="35"/>
-      <c r="BP30" s="35"/>
-      <c r="BQ30" s="35"/>
-      <c r="BR30" s="35"/>
-      <c r="BS30" s="35"/>
-      <c r="BT30" s="35"/>
-      <c r="BU30" s="35"/>
-      <c r="BV30" s="35"/>
-      <c r="BW30" s="35"/>
-      <c r="BX30" s="35"/>
-      <c r="BY30" s="35"/>
-      <c r="BZ30" s="35"/>
-      <c r="CA30" s="35"/>
-      <c r="CB30" s="35"/>
-      <c r="CC30" s="35"/>
-      <c r="CD30" s="35"/>
-      <c r="CE30" s="35"/>
-      <c r="CF30" s="35"/>
-      <c r="CG30" s="35"/>
-      <c r="CH30" s="35"/>
-      <c r="CI30" s="35"/>
-      <c r="CJ30" s="35"/>
-      <c r="CK30" s="35"/>
-      <c r="CL30" s="35"/>
-      <c r="CM30" s="35"/>
-      <c r="CN30" s="35"/>
-      <c r="CO30" s="35"/>
-      <c r="CP30" s="35"/>
-      <c r="CQ30" s="35"/>
-      <c r="CR30" s="35"/>
-      <c r="CS30" s="35"/>
-      <c r="CT30" s="35"/>
-      <c r="CU30" s="35"/>
-      <c r="CV30" s="35"/>
-      <c r="CW30" s="35"/>
-      <c r="CX30" s="35"/>
-      <c r="CY30" s="35"/>
-      <c r="CZ30" s="35"/>
-      <c r="DA30" s="35"/>
-      <c r="DB30" s="35"/>
-      <c r="DC30" s="35"/>
-      <c r="DD30" s="35"/>
-      <c r="DE30" s="35"/>
-      <c r="DF30" s="35"/>
-      <c r="DG30" s="35"/>
-      <c r="DH30" s="35"/>
-      <c r="DI30" s="35"/>
-      <c r="DJ30" s="35"/>
-      <c r="DK30" s="35"/>
-      <c r="DL30" s="35"/>
-      <c r="DM30" s="35"/>
-      <c r="DN30" s="35"/>
-      <c r="DO30" s="35"/>
-      <c r="DP30" s="35"/>
-      <c r="DQ30" s="35"/>
-      <c r="DR30" s="35"/>
-      <c r="DS30" s="35"/>
-      <c r="DT30" s="35"/>
-      <c r="DU30" s="35"/>
-      <c r="DV30" s="35"/>
-      <c r="DW30" s="35"/>
-      <c r="DX30" s="35"/>
-      <c r="DY30" s="35"/>
-      <c r="DZ30" s="35"/>
-      <c r="EA30" s="35"/>
-      <c r="EB30" s="35"/>
-      <c r="EC30" s="35"/>
-      <c r="ED30" s="35"/>
-      <c r="EE30" s="35"/>
-      <c r="EF30" s="35"/>
-      <c r="EG30" s="35"/>
-      <c r="EH30" s="35"/>
-      <c r="EI30" s="35"/>
-      <c r="EJ30" s="35"/>
-      <c r="EK30" s="35"/>
-      <c r="EL30" s="35"/>
-      <c r="EM30" s="35"/>
-      <c r="EN30" s="35"/>
-      <c r="EO30" s="35"/>
-      <c r="EP30" s="35"/>
-      <c r="EQ30" s="35"/>
-      <c r="ER30" s="35"/>
-      <c r="ES30" s="35"/>
-      <c r="ET30" s="35"/>
-      <c r="EU30" s="35"/>
-      <c r="EV30" s="35"/>
-      <c r="EW30" s="35"/>
-      <c r="EX30" s="35"/>
-      <c r="EY30" s="35"/>
-      <c r="EZ30" s="35"/>
-      <c r="FA30" s="35"/>
-      <c r="FB30" s="35"/>
-      <c r="FC30" s="35"/>
-      <c r="FD30" s="35"/>
-      <c r="FE30" s="35"/>
-      <c r="FF30" s="35"/>
-      <c r="FG30" s="35"/>
-      <c r="FH30" s="35"/>
-      <c r="FI30" s="35"/>
-      <c r="FJ30" s="35"/>
-      <c r="FK30" s="35"/>
-      <c r="FL30" s="35"/>
-      <c r="FM30" s="35"/>
-      <c r="FN30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="36"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="36"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30" s="36"/>
+      <c r="BF30" s="36"/>
+      <c r="BG30" s="36"/>
+      <c r="BH30" s="36"/>
+      <c r="BI30" s="36"/>
+      <c r="BJ30" s="36"/>
+      <c r="BK30" s="36"/>
+      <c r="BL30" s="36"/>
+      <c r="BM30" s="36"/>
+      <c r="BN30" s="36"/>
+      <c r="BO30" s="36"/>
+      <c r="BP30" s="36"/>
+      <c r="BQ30" s="36"/>
+      <c r="BR30" s="36"/>
+      <c r="BS30" s="36"/>
+      <c r="BT30" s="36"/>
+      <c r="BU30" s="36"/>
+      <c r="BV30" s="36"/>
+      <c r="BW30" s="36"/>
+      <c r="BX30" s="36"/>
+      <c r="BY30" s="36"/>
+      <c r="BZ30" s="36"/>
+      <c r="CA30" s="36"/>
+      <c r="CB30" s="36"/>
+      <c r="CC30" s="36"/>
+      <c r="CD30" s="36"/>
+      <c r="CE30" s="36"/>
+      <c r="CF30" s="36"/>
+      <c r="CG30" s="36"/>
+      <c r="CH30" s="36"/>
+      <c r="CI30" s="36"/>
+      <c r="CJ30" s="36"/>
+      <c r="CK30" s="36"/>
+      <c r="CL30" s="36"/>
+      <c r="CM30" s="36"/>
+      <c r="CN30" s="36"/>
+      <c r="CO30" s="36"/>
+      <c r="CP30" s="36"/>
+      <c r="CQ30" s="36"/>
+      <c r="CR30" s="36"/>
+      <c r="CS30" s="36"/>
+      <c r="CT30" s="36"/>
+      <c r="CU30" s="36"/>
+      <c r="CV30" s="36"/>
+      <c r="CW30" s="36"/>
+      <c r="CX30" s="36"/>
+      <c r="CY30" s="36"/>
+      <c r="CZ30" s="36"/>
+      <c r="DA30" s="36"/>
+      <c r="DB30" s="36"/>
+      <c r="DC30" s="36"/>
+      <c r="DD30" s="36"/>
+      <c r="DE30" s="36"/>
+      <c r="DF30" s="36"/>
+      <c r="DG30" s="36"/>
+      <c r="DH30" s="36"/>
+      <c r="DI30" s="36"/>
+      <c r="DJ30" s="36"/>
+      <c r="DK30" s="36"/>
+      <c r="DL30" s="36"/>
+      <c r="DM30" s="36"/>
+      <c r="DN30" s="36"/>
+      <c r="DO30" s="36"/>
+      <c r="DP30" s="36"/>
+      <c r="DQ30" s="36"/>
+      <c r="DR30" s="36"/>
+      <c r="DS30" s="36"/>
+      <c r="DT30" s="36"/>
+      <c r="DU30" s="36"/>
+      <c r="DV30" s="36"/>
+      <c r="DW30" s="36"/>
+      <c r="DX30" s="36"/>
+      <c r="DY30" s="36"/>
+      <c r="DZ30" s="36"/>
+      <c r="EA30" s="36"/>
+      <c r="EB30" s="36"/>
+      <c r="EC30" s="36"/>
+      <c r="ED30" s="36"/>
+      <c r="EE30" s="36"/>
+      <c r="EF30" s="36"/>
+      <c r="EG30" s="36"/>
+      <c r="EH30" s="36"/>
+      <c r="EI30" s="36"/>
+      <c r="EJ30" s="36"/>
+      <c r="EK30" s="36"/>
+      <c r="EL30" s="36"/>
+      <c r="EM30" s="36"/>
+      <c r="EN30" s="36"/>
+      <c r="EO30" s="36"/>
+      <c r="EP30" s="36"/>
+      <c r="EQ30" s="36"/>
+      <c r="ER30" s="36"/>
+      <c r="ES30" s="36"/>
+      <c r="ET30" s="36"/>
+      <c r="EU30" s="36"/>
+      <c r="EV30" s="36"/>
+      <c r="EW30" s="36"/>
+      <c r="EX30" s="36"/>
+      <c r="EY30" s="36"/>
+      <c r="EZ30" s="36"/>
+      <c r="FA30" s="36"/>
+      <c r="FB30" s="36"/>
+      <c r="FC30" s="36"/>
+      <c r="FD30" s="36"/>
+      <c r="FE30" s="36"/>
+      <c r="FF30" s="36"/>
+      <c r="FG30" s="36"/>
+      <c r="FH30" s="36"/>
+      <c r="FI30" s="36"/>
+      <c r="FJ30" s="36"/>
+      <c r="FK30" s="36"/>
+      <c r="FL30" s="36"/>
+      <c r="FM30" s="36"/>
+      <c r="FN30" s="36"/>
     </row>
     <row r="31" spans="1:170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4776,6 +4776,62 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="EJ17:EM17"/>
+    <mergeCell ref="EN17:EP17"/>
+    <mergeCell ref="EQ17:ET17"/>
+    <mergeCell ref="EU17:FN17"/>
+    <mergeCell ref="FM12:FN12"/>
+    <mergeCell ref="CJ16:FN16"/>
+    <mergeCell ref="CV17:EI17"/>
+    <mergeCell ref="FI12:FL12"/>
+    <mergeCell ref="FE12:FH12"/>
+    <mergeCell ref="EJ12:EK12"/>
+    <mergeCell ref="EL12:EO12"/>
+    <mergeCell ref="EP12:EQ12"/>
+    <mergeCell ref="ER12:FD12"/>
+    <mergeCell ref="CA12:CD12"/>
+    <mergeCell ref="BA11:CF11"/>
+    <mergeCell ref="AW10:CF10"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="DW11:EH11"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BJ12:BV12"/>
+    <mergeCell ref="BW12:BZ12"/>
+    <mergeCell ref="EI11:FN11"/>
+    <mergeCell ref="A1:FN1"/>
+    <mergeCell ref="A2:FN2"/>
+    <mergeCell ref="A3:FN3"/>
+    <mergeCell ref="A4:FN4"/>
+    <mergeCell ref="EE10:FN10"/>
+    <mergeCell ref="FM22:FN22"/>
+    <mergeCell ref="EL22:FB22"/>
+    <mergeCell ref="A29:FN29"/>
+    <mergeCell ref="A30:FN30"/>
+    <mergeCell ref="Y24:AY24"/>
+    <mergeCell ref="EH24:FN24"/>
+    <mergeCell ref="CJ26:FN26"/>
+    <mergeCell ref="AZ24:CF24"/>
+    <mergeCell ref="DG24:EG24"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A26:CI26"/>
+    <mergeCell ref="Q27:FN27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="AH28:FN28"/>
+    <mergeCell ref="FI21:FL21"/>
+    <mergeCell ref="BD22:BT22"/>
+    <mergeCell ref="BU22:CD22"/>
+    <mergeCell ref="CE22:CF22"/>
+    <mergeCell ref="FC22:FL22"/>
+    <mergeCell ref="EJ21:EK21"/>
+    <mergeCell ref="A16:CH16"/>
+    <mergeCell ref="G17:AT17"/>
+    <mergeCell ref="AU17:AX17"/>
+    <mergeCell ref="AY17:BA17"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="BF17:BY17"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="BI21:BU21"/>
     <mergeCell ref="FM21:FN21"/>
@@ -4792,62 +4848,6 @@
     <mergeCell ref="EP21:EQ21"/>
     <mergeCell ref="ER21:FD21"/>
     <mergeCell ref="FE21:FH21"/>
-    <mergeCell ref="A16:CH16"/>
-    <mergeCell ref="G17:AT17"/>
-    <mergeCell ref="AU17:AX17"/>
-    <mergeCell ref="AY17:BA17"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="BF17:BY17"/>
-    <mergeCell ref="FI21:FL21"/>
-    <mergeCell ref="BD22:BT22"/>
-    <mergeCell ref="BU22:CD22"/>
-    <mergeCell ref="CE22:CF22"/>
-    <mergeCell ref="FC22:FL22"/>
-    <mergeCell ref="EJ21:EK21"/>
-    <mergeCell ref="FM22:FN22"/>
-    <mergeCell ref="EL22:FB22"/>
-    <mergeCell ref="A29:FN29"/>
-    <mergeCell ref="A30:FN30"/>
-    <mergeCell ref="Y24:AY24"/>
-    <mergeCell ref="EH24:FN24"/>
-    <mergeCell ref="CJ26:FN26"/>
-    <mergeCell ref="AZ24:CF24"/>
-    <mergeCell ref="DG24:EG24"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A26:CI26"/>
-    <mergeCell ref="Q27:FN27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="AH28:FN28"/>
-    <mergeCell ref="EI11:FN11"/>
-    <mergeCell ref="A1:FN1"/>
-    <mergeCell ref="A2:FN2"/>
-    <mergeCell ref="A3:FN3"/>
-    <mergeCell ref="A4:FN4"/>
-    <mergeCell ref="EE10:FN10"/>
-    <mergeCell ref="CA12:CD12"/>
-    <mergeCell ref="BA11:CF11"/>
-    <mergeCell ref="AW10:CF10"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="DW11:EH11"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BJ12:BV12"/>
-    <mergeCell ref="BW12:BZ12"/>
-    <mergeCell ref="EJ17:EM17"/>
-    <mergeCell ref="EN17:EP17"/>
-    <mergeCell ref="EQ17:ET17"/>
-    <mergeCell ref="EU17:FN17"/>
-    <mergeCell ref="FM12:FN12"/>
-    <mergeCell ref="CJ16:FN16"/>
-    <mergeCell ref="CV17:EI17"/>
-    <mergeCell ref="FI12:FL12"/>
-    <mergeCell ref="FE12:FH12"/>
-    <mergeCell ref="EJ12:EK12"/>
-    <mergeCell ref="EL12:EO12"/>
-    <mergeCell ref="EP12:EQ12"/>
-    <mergeCell ref="ER12:FD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4858,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4874,77 +4874,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="3" spans="1:24" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
@@ -5078,41 +5078,41 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="50"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="63"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="49" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="51" t="s">
@@ -5151,10 +5151,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
@@ -5182,9 +5182,9 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="51"/>
       <c r="E8" s="9" t="s">
         <v>85</v>
@@ -5213,10 +5213,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
@@ -5244,9 +5244,9 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="51"/>
       <c r="E10" s="9" t="s">
         <v>85</v>
@@ -5275,10 +5275,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="11" t="s">
         <v>86</v>
       </c>
@@ -5306,9 +5306,9 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="51"/>
       <c r="E12" s="9" t="s">
         <v>85</v>
@@ -5337,10 +5337,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="11" t="s">
         <v>86</v>
       </c>
@@ -5368,9 +5368,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="51"/>
       <c r="E14" s="9" t="s">
         <v>85</v>
@@ -5399,10 +5399,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
@@ -5430,9 +5430,9 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="51"/>
       <c r="E16" s="9" t="s">
         <v>85</v>
@@ -5461,10 +5461,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="11" t="s">
         <v>86</v>
       </c>
@@ -5492,9 +5492,9 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="51"/>
       <c r="E18" s="9" t="s">
         <v>85</v>
@@ -5523,10 +5523,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="11" t="s">
         <v>86</v>
       </c>
@@ -5554,9 +5554,9 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="51"/>
       <c r="E20" s="9" t="s">
         <v>85</v>
@@ -5585,10 +5585,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="11" t="s">
         <v>86</v>
       </c>
@@ -5616,9 +5616,9 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="51"/>
       <c r="E22" s="9" t="s">
         <v>85</v>
@@ -5647,10 +5647,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="11" t="s">
         <v>86</v>
       </c>
@@ -5678,9 +5678,9 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="51"/>
       <c r="E24" s="9" t="s">
         <v>85</v>
@@ -5709,10 +5709,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
@@ -5740,15 +5740,15 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="59"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="13">
         <f t="shared" ref="F26:X26" si="1">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>0</v>
@@ -5827,13 +5827,13 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="15">
         <f t="shared" ref="F27:X27" si="2">F25+F23+F21+F19+F17+F15+F13+F11+F9+F7</f>
         <v>0</v>
@@ -5986,41 +5986,6 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -6037,6 +6002,41 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6048,7 +6048,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6063,49 +6063,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="63"/>
     </row>
     <row r="2" spans="1:24" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
@@ -6239,41 +6239,41 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="63"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="49" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="51" t="s">
@@ -6310,10 +6310,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="11" t="s">
         <v>86</v>
       </c>
@@ -6341,13 +6341,13 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -6382,10 +6382,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6413,9 +6413,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="51"/>
       <c r="E9" s="9" t="s">
         <v>85</v>
@@ -6444,10 +6444,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="11" t="s">
         <v>86</v>
       </c>
@@ -6475,9 +6475,9 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="51"/>
       <c r="E11" s="9" t="s">
         <v>85</v>
@@ -6506,10 +6506,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="11" t="s">
         <v>86</v>
       </c>
@@ -6537,9 +6537,9 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="51"/>
       <c r="E13" s="9" t="s">
         <v>85</v>
@@ -6568,10 +6568,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="11" t="s">
         <v>86</v>
       </c>
@@ -6599,9 +6599,9 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="51"/>
       <c r="E15" s="9" t="s">
         <v>85</v>
@@ -6630,10 +6630,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="11" t="s">
         <v>86</v>
       </c>
@@ -6661,9 +6661,9 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="51"/>
       <c r="E17" s="9" t="s">
         <v>85</v>
@@ -6692,10 +6692,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
@@ -6723,9 +6723,9 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="51"/>
       <c r="E19" s="9" t="s">
         <v>85</v>
@@ -6754,10 +6754,10 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="11" t="s">
         <v>86</v>
       </c>
@@ -6785,9 +6785,9 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="51"/>
       <c r="E21" s="9" t="s">
         <v>85</v>
@@ -6816,10 +6816,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="11" t="s">
         <v>86</v>
       </c>
@@ -6847,9 +6847,9 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="51"/>
       <c r="E23" s="9" t="s">
         <v>85</v>
@@ -6878,10 +6878,10 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="11" t="s">
         <v>86</v>
       </c>
@@ -6909,15 +6909,15 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="59"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="13">
         <f t="shared" ref="F25:X25" si="1">F23+F21+F19+F17+F15+F13+F11+F9+F7+F5</f>
         <v>0</v>
@@ -6996,13 +6996,13 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="15">
         <f t="shared" ref="F26:X26" si="2">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>0</v>
@@ -7156,6 +7156,40 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F1:X1"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A11:A12"/>
@@ -7172,40 +7206,6 @@
     <mergeCell ref="A4:X4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F1:X1"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7216,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7233,51 +7233,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="50"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="63"/>
     </row>
     <row r="2" spans="1:25" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
@@ -7337,10 +7337,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="7" t="s">
         <v>59</v>
       </c>
@@ -7412,39 +7412,39 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="63"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="51" t="s">
         <v>30</v>
       </c>
@@ -7479,11 +7479,11 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -7509,10 +7509,10 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="51" t="s">
         <v>30</v>
       </c>
@@ -7557,11 +7557,11 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="11" t="s">
         <v>86</v>
       </c>
@@ -7589,10 +7589,10 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="51" t="s">
         <v>30</v>
       </c>
@@ -7627,11 +7627,11 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -7657,10 +7657,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="51" t="s">
         <v>30</v>
       </c>
@@ -7697,11 +7697,11 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="11" t="s">
         <v>86</v>
       </c>
@@ -7729,10 +7729,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="51" t="s">
         <v>30</v>
       </c>
@@ -7767,11 +7767,11 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -7797,10 +7797,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="73"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="51" t="s">
         <v>30</v>
       </c>
@@ -7837,11 +7837,11 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="11" t="s">
         <v>86</v>
       </c>
@@ -7869,10 +7869,10 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="51" t="s">
         <v>30</v>
       </c>
@@ -7907,11 +7907,11 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -7937,16 +7937,16 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="13">
         <f t="shared" ref="G19:X19" si="1">G17+G15+G13+G11+G9+G7+G5+0</f>
         <v>0</v>
@@ -8025,14 +8025,14 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="60" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="15">
         <f t="shared" ref="G20:X20" si="2">G18+G16+G14+G12+G10+G8+G6+0</f>
         <v>0</v>
@@ -8111,282 +8111,290 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="82" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="79" t="s">
+      <c r="E22" s="68"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="52" t="s">
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="50"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="63"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="67" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="67" t="s">
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="83"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="96"/>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>1</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="18">
         <v>100.5</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="63" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="125">
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="97">
         <v>43981</v>
       </c>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="65"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="69"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="66"/>
+      <c r="A25" s="19">
+        <v>2</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="69"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="66"/>
+      <c r="A26" s="19">
+        <v>3</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="69"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="66"/>
+      <c r="A27" s="19">
+        <v>4</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="65"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="69"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>5</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="65"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="69"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="21">
         <f>SUM(D24:D28)</f>
         <v>100.5</v>
       </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="92"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="74"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8461,6 +8469,68 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="N22:Y22"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G22:M23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G1:Y1"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="T29:Y29"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="T27:Y27"/>
     <mergeCell ref="B27:C27"/>
@@ -8477,68 +8547,6 @@
     <mergeCell ref="N27:S27"/>
     <mergeCell ref="G26:M26"/>
     <mergeCell ref="N26:S26"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="G1:Y1"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G22:M23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="N22:Y22"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="T25:Y25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8549,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8562,34 +8570,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="22" t="s">
         <v>115</v>
       </c>
@@ -8614,7 +8622,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="25"/>
-      <c r="E4" s="126">
+      <c r="E4" s="34">
         <v>44012</v>
       </c>
       <c r="F4" s="26"/>
@@ -8660,10 +8668,10 @@
       <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
         <v>25</v>
@@ -8674,34 +8682,34 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="96" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="22" t="s">
         <v>115</v>
       </c>
@@ -8719,14 +8727,14 @@
       <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="123">
+      <c r="C14" s="32">
         <v>10</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="33" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="26"/>
@@ -8735,14 +8743,14 @@
       <c r="A15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="32">
         <v>12</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="26"/>
@@ -8788,10 +8796,10 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="27">
         <f>SUM(C14:C19)</f>
         <v>22</v>
@@ -8802,118 +8810,118 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="100" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="100" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="101">
+      <c r="B24" s="67"/>
+      <c r="C24" s="98">
         <f>'Лист 4 - УР - всего'!Y19</f>
         <v>220</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="101">
+      <c r="B25" s="67"/>
+      <c r="C25" s="98">
         <f>'Лист 4 - УР - всего'!D29</f>
         <v>100.5</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="69"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="101">
+      <c r="B26" s="67"/>
+      <c r="C26" s="98">
         <f>C9</f>
         <v>25</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="101">
+      <c r="B27" s="67"/>
+      <c r="C27" s="98">
         <f>C20</f>
         <v>22</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="91">
+      <c r="B28" s="74"/>
+      <c r="C28" s="73">
         <f>SUM(C24:C27)</f>
         <v>367.5</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8986,25 +8994,6 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:F2"/>
@@ -9021,6 +9010,25 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9031,7 +9039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9050,11 +9060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="3" t="s">
         <v>133</v>
       </c>
@@ -9085,497 +9095,497 @@
       <c r="B3" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="92"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="113"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="110"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="114" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="106"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="113"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="110"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="114" t="s">
+      <c r="A8" s="119"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="113"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="105" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="106"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="115"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="113"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="114" t="s">
+      <c r="A11" s="119"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="106"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="115"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="113"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="114" t="s">
+      <c r="A14" s="119"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="105" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="106"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="115"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="113"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="110"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="113"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="105" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="106"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="115"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="113"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="114" t="s">
+      <c r="A20" s="119"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="105" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="106"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="115"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="113"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="114" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="105" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="106"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="115"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="113"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="110"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="114" t="s">
+      <c r="A26" s="119"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="105" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="106"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="115"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="119"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="122"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="120" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="125"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -9584,19 +9594,19 @@
       <c r="B30" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="106"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="115"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -9605,19 +9615,19 @@
       <c r="B31" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="106"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="115"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -9626,19 +9636,19 @@
       <c r="B32" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="106"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="115"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -9647,19 +9657,19 @@
       <c r="B33" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="106"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="115"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -9668,19 +9678,19 @@
       <c r="B34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="106"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="115"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
@@ -9689,19 +9699,19 @@
       <c r="B35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="118"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="121"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9770,26 +9780,22 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C33:M33"/>
     <mergeCell ref="C34:M34"/>
@@ -9806,22 +9812,26 @@
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/sandbox/ИПП Аввакумов Г.Е..xlsx
+++ b/sandbox/ИПП Аввакумов Г.Е..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="11130" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="11130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - Титул" sheetId="1" r:id="rId1"/>
@@ -1514,47 +1514,64 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,70 +1581,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,30 +1627,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,6 +1668,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,18 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1709,9 +1712,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FN100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="DA25" sqref="DA25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:FN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2066,697 +2066,697 @@
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="36"/>
-      <c r="CH1" s="36"/>
-      <c r="CI1" s="36"/>
-      <c r="CJ1" s="36"/>
-      <c r="CK1" s="36"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="36"/>
-      <c r="CO1" s="36"/>
-      <c r="CP1" s="36"/>
-      <c r="CQ1" s="36"/>
-      <c r="CR1" s="36"/>
-      <c r="CS1" s="36"/>
-      <c r="CT1" s="36"/>
-      <c r="CU1" s="36"/>
-      <c r="CV1" s="36"/>
-      <c r="CW1" s="36"/>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="36"/>
-      <c r="CZ1" s="36"/>
-      <c r="DA1" s="36"/>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DL1" s="36"/>
-      <c r="DM1" s="36"/>
-      <c r="DN1" s="36"/>
-      <c r="DO1" s="36"/>
-      <c r="DP1" s="36"/>
-      <c r="DQ1" s="36"/>
-      <c r="DR1" s="36"/>
-      <c r="DS1" s="36"/>
-      <c r="DT1" s="36"/>
-      <c r="DU1" s="36"/>
-      <c r="DV1" s="36"/>
-      <c r="DW1" s="36"/>
-      <c r="DX1" s="36"/>
-      <c r="DY1" s="36"/>
-      <c r="DZ1" s="36"/>
-      <c r="EA1" s="36"/>
-      <c r="EB1" s="36"/>
-      <c r="EC1" s="36"/>
-      <c r="ED1" s="36"/>
-      <c r="EE1" s="36"/>
-      <c r="EF1" s="36"/>
-      <c r="EG1" s="36"/>
-      <c r="EH1" s="36"/>
-      <c r="EI1" s="36"/>
-      <c r="EJ1" s="36"/>
-      <c r="EK1" s="36"/>
-      <c r="EL1" s="36"/>
-      <c r="EM1" s="36"/>
-      <c r="EN1" s="36"/>
-      <c r="EO1" s="36"/>
-      <c r="EP1" s="36"/>
-      <c r="EQ1" s="36"/>
-      <c r="ER1" s="36"/>
-      <c r="ES1" s="36"/>
-      <c r="ET1" s="36"/>
-      <c r="EU1" s="36"/>
-      <c r="EV1" s="36"/>
-      <c r="EW1" s="36"/>
-      <c r="EX1" s="36"/>
-      <c r="EY1" s="36"/>
-      <c r="EZ1" s="36"/>
-      <c r="FA1" s="36"/>
-      <c r="FB1" s="36"/>
-      <c r="FC1" s="36"/>
-      <c r="FD1" s="36"/>
-      <c r="FE1" s="36"/>
-      <c r="FF1" s="36"/>
-      <c r="FG1" s="36"/>
-      <c r="FH1" s="36"/>
-      <c r="FI1" s="36"/>
-      <c r="FJ1" s="36"/>
-      <c r="FK1" s="36"/>
-      <c r="FL1" s="36"/>
-      <c r="FM1" s="36"/>
-      <c r="FN1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="38"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
+      <c r="CJ1" s="38"/>
+      <c r="CK1" s="38"/>
+      <c r="CL1" s="38"/>
+      <c r="CM1" s="38"/>
+      <c r="CN1" s="38"/>
+      <c r="CO1" s="38"/>
+      <c r="CP1" s="38"/>
+      <c r="CQ1" s="38"/>
+      <c r="CR1" s="38"/>
+      <c r="CS1" s="38"/>
+      <c r="CT1" s="38"/>
+      <c r="CU1" s="38"/>
+      <c r="CV1" s="38"/>
+      <c r="CW1" s="38"/>
+      <c r="CX1" s="38"/>
+      <c r="CY1" s="38"/>
+      <c r="CZ1" s="38"/>
+      <c r="DA1" s="38"/>
+      <c r="DB1" s="38"/>
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="38"/>
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="38"/>
+      <c r="DG1" s="38"/>
+      <c r="DH1" s="38"/>
+      <c r="DI1" s="38"/>
+      <c r="DJ1" s="38"/>
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="38"/>
+      <c r="DM1" s="38"/>
+      <c r="DN1" s="38"/>
+      <c r="DO1" s="38"/>
+      <c r="DP1" s="38"/>
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="38"/>
+      <c r="DS1" s="38"/>
+      <c r="DT1" s="38"/>
+      <c r="DU1" s="38"/>
+      <c r="DV1" s="38"/>
+      <c r="DW1" s="38"/>
+      <c r="DX1" s="38"/>
+      <c r="DY1" s="38"/>
+      <c r="DZ1" s="38"/>
+      <c r="EA1" s="38"/>
+      <c r="EB1" s="38"/>
+      <c r="EC1" s="38"/>
+      <c r="ED1" s="38"/>
+      <c r="EE1" s="38"/>
+      <c r="EF1" s="38"/>
+      <c r="EG1" s="38"/>
+      <c r="EH1" s="38"/>
+      <c r="EI1" s="38"/>
+      <c r="EJ1" s="38"/>
+      <c r="EK1" s="38"/>
+      <c r="EL1" s="38"/>
+      <c r="EM1" s="38"/>
+      <c r="EN1" s="38"/>
+      <c r="EO1" s="38"/>
+      <c r="EP1" s="38"/>
+      <c r="EQ1" s="38"/>
+      <c r="ER1" s="38"/>
+      <c r="ES1" s="38"/>
+      <c r="ET1" s="38"/>
+      <c r="EU1" s="38"/>
+      <c r="EV1" s="38"/>
+      <c r="EW1" s="38"/>
+      <c r="EX1" s="38"/>
+      <c r="EY1" s="38"/>
+      <c r="EZ1" s="38"/>
+      <c r="FA1" s="38"/>
+      <c r="FB1" s="38"/>
+      <c r="FC1" s="38"/>
+      <c r="FD1" s="38"/>
+      <c r="FE1" s="38"/>
+      <c r="FF1" s="38"/>
+      <c r="FG1" s="38"/>
+      <c r="FH1" s="38"/>
+      <c r="FI1" s="38"/>
+      <c r="FJ1" s="38"/>
+      <c r="FK1" s="38"/>
+      <c r="FL1" s="38"/>
+      <c r="FM1" s="38"/>
+      <c r="FN1" s="38"/>
     </row>
     <row r="2" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36"/>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="36"/>
-      <c r="CS2" s="36"/>
-      <c r="CT2" s="36"/>
-      <c r="CU2" s="36"/>
-      <c r="CV2" s="36"/>
-      <c r="CW2" s="36"/>
-      <c r="CX2" s="36"/>
-      <c r="CY2" s="36"/>
-      <c r="CZ2" s="36"/>
-      <c r="DA2" s="36"/>
-      <c r="DB2" s="36"/>
-      <c r="DC2" s="36"/>
-      <c r="DD2" s="36"/>
-      <c r="DE2" s="36"/>
-      <c r="DF2" s="36"/>
-      <c r="DG2" s="36"/>
-      <c r="DH2" s="36"/>
-      <c r="DI2" s="36"/>
-      <c r="DJ2" s="36"/>
-      <c r="DK2" s="36"/>
-      <c r="DL2" s="36"/>
-      <c r="DM2" s="36"/>
-      <c r="DN2" s="36"/>
-      <c r="DO2" s="36"/>
-      <c r="DP2" s="36"/>
-      <c r="DQ2" s="36"/>
-      <c r="DR2" s="36"/>
-      <c r="DS2" s="36"/>
-      <c r="DT2" s="36"/>
-      <c r="DU2" s="36"/>
-      <c r="DV2" s="36"/>
-      <c r="DW2" s="36"/>
-      <c r="DX2" s="36"/>
-      <c r="DY2" s="36"/>
-      <c r="DZ2" s="36"/>
-      <c r="EA2" s="36"/>
-      <c r="EB2" s="36"/>
-      <c r="EC2" s="36"/>
-      <c r="ED2" s="36"/>
-      <c r="EE2" s="36"/>
-      <c r="EF2" s="36"/>
-      <c r="EG2" s="36"/>
-      <c r="EH2" s="36"/>
-      <c r="EI2" s="36"/>
-      <c r="EJ2" s="36"/>
-      <c r="EK2" s="36"/>
-      <c r="EL2" s="36"/>
-      <c r="EM2" s="36"/>
-      <c r="EN2" s="36"/>
-      <c r="EO2" s="36"/>
-      <c r="EP2" s="36"/>
-      <c r="EQ2" s="36"/>
-      <c r="ER2" s="36"/>
-      <c r="ES2" s="36"/>
-      <c r="ET2" s="36"/>
-      <c r="EU2" s="36"/>
-      <c r="EV2" s="36"/>
-      <c r="EW2" s="36"/>
-      <c r="EX2" s="36"/>
-      <c r="EY2" s="36"/>
-      <c r="EZ2" s="36"/>
-      <c r="FA2" s="36"/>
-      <c r="FB2" s="36"/>
-      <c r="FC2" s="36"/>
-      <c r="FD2" s="36"/>
-      <c r="FE2" s="36"/>
-      <c r="FF2" s="36"/>
-      <c r="FG2" s="36"/>
-      <c r="FH2" s="36"/>
-      <c r="FI2" s="36"/>
-      <c r="FJ2" s="36"/>
-      <c r="FK2" s="36"/>
-      <c r="FL2" s="36"/>
-      <c r="FM2" s="36"/>
-      <c r="FN2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="38"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="38"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="38"/>
+      <c r="CS2" s="38"/>
+      <c r="CT2" s="38"/>
+      <c r="CU2" s="38"/>
+      <c r="CV2" s="38"/>
+      <c r="CW2" s="38"/>
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="38"/>
+      <c r="DC2" s="38"/>
+      <c r="DD2" s="38"/>
+      <c r="DE2" s="38"/>
+      <c r="DF2" s="38"/>
+      <c r="DG2" s="38"/>
+      <c r="DH2" s="38"/>
+      <c r="DI2" s="38"/>
+      <c r="DJ2" s="38"/>
+      <c r="DK2" s="38"/>
+      <c r="DL2" s="38"/>
+      <c r="DM2" s="38"/>
+      <c r="DN2" s="38"/>
+      <c r="DO2" s="38"/>
+      <c r="DP2" s="38"/>
+      <c r="DQ2" s="38"/>
+      <c r="DR2" s="38"/>
+      <c r="DS2" s="38"/>
+      <c r="DT2" s="38"/>
+      <c r="DU2" s="38"/>
+      <c r="DV2" s="38"/>
+      <c r="DW2" s="38"/>
+      <c r="DX2" s="38"/>
+      <c r="DY2" s="38"/>
+      <c r="DZ2" s="38"/>
+      <c r="EA2" s="38"/>
+      <c r="EB2" s="38"/>
+      <c r="EC2" s="38"/>
+      <c r="ED2" s="38"/>
+      <c r="EE2" s="38"/>
+      <c r="EF2" s="38"/>
+      <c r="EG2" s="38"/>
+      <c r="EH2" s="38"/>
+      <c r="EI2" s="38"/>
+      <c r="EJ2" s="38"/>
+      <c r="EK2" s="38"/>
+      <c r="EL2" s="38"/>
+      <c r="EM2" s="38"/>
+      <c r="EN2" s="38"/>
+      <c r="EO2" s="38"/>
+      <c r="EP2" s="38"/>
+      <c r="EQ2" s="38"/>
+      <c r="ER2" s="38"/>
+      <c r="ES2" s="38"/>
+      <c r="ET2" s="38"/>
+      <c r="EU2" s="38"/>
+      <c r="EV2" s="38"/>
+      <c r="EW2" s="38"/>
+      <c r="EX2" s="38"/>
+      <c r="EY2" s="38"/>
+      <c r="EZ2" s="38"/>
+      <c r="FA2" s="38"/>
+      <c r="FB2" s="38"/>
+      <c r="FC2" s="38"/>
+      <c r="FD2" s="38"/>
+      <c r="FE2" s="38"/>
+      <c r="FF2" s="38"/>
+      <c r="FG2" s="38"/>
+      <c r="FH2" s="38"/>
+      <c r="FI2" s="38"/>
+      <c r="FJ2" s="38"/>
+      <c r="FK2" s="38"/>
+      <c r="FL2" s="38"/>
+      <c r="FM2" s="38"/>
+      <c r="FN2" s="38"/>
     </row>
     <row r="3" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="36"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="36"/>
-      <c r="CM3" s="36"/>
-      <c r="CN3" s="36"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="36"/>
-      <c r="CU3" s="36"/>
-      <c r="CV3" s="36"/>
-      <c r="CW3" s="36"/>
-      <c r="CX3" s="36"/>
-      <c r="CY3" s="36"/>
-      <c r="CZ3" s="36"/>
-      <c r="DA3" s="36"/>
-      <c r="DB3" s="36"/>
-      <c r="DC3" s="36"/>
-      <c r="DD3" s="36"/>
-      <c r="DE3" s="36"/>
-      <c r="DF3" s="36"/>
-      <c r="DG3" s="36"/>
-      <c r="DH3" s="36"/>
-      <c r="DI3" s="36"/>
-      <c r="DJ3" s="36"/>
-      <c r="DK3" s="36"/>
-      <c r="DL3" s="36"/>
-      <c r="DM3" s="36"/>
-      <c r="DN3" s="36"/>
-      <c r="DO3" s="36"/>
-      <c r="DP3" s="36"/>
-      <c r="DQ3" s="36"/>
-      <c r="DR3" s="36"/>
-      <c r="DS3" s="36"/>
-      <c r="DT3" s="36"/>
-      <c r="DU3" s="36"/>
-      <c r="DV3" s="36"/>
-      <c r="DW3" s="36"/>
-      <c r="DX3" s="36"/>
-      <c r="DY3" s="36"/>
-      <c r="DZ3" s="36"/>
-      <c r="EA3" s="36"/>
-      <c r="EB3" s="36"/>
-      <c r="EC3" s="36"/>
-      <c r="ED3" s="36"/>
-      <c r="EE3" s="36"/>
-      <c r="EF3" s="36"/>
-      <c r="EG3" s="36"/>
-      <c r="EH3" s="36"/>
-      <c r="EI3" s="36"/>
-      <c r="EJ3" s="36"/>
-      <c r="EK3" s="36"/>
-      <c r="EL3" s="36"/>
-      <c r="EM3" s="36"/>
-      <c r="EN3" s="36"/>
-      <c r="EO3" s="36"/>
-      <c r="EP3" s="36"/>
-      <c r="EQ3" s="36"/>
-      <c r="ER3" s="36"/>
-      <c r="ES3" s="36"/>
-      <c r="ET3" s="36"/>
-      <c r="EU3" s="36"/>
-      <c r="EV3" s="36"/>
-      <c r="EW3" s="36"/>
-      <c r="EX3" s="36"/>
-      <c r="EY3" s="36"/>
-      <c r="EZ3" s="36"/>
-      <c r="FA3" s="36"/>
-      <c r="FB3" s="36"/>
-      <c r="FC3" s="36"/>
-      <c r="FD3" s="36"/>
-      <c r="FE3" s="36"/>
-      <c r="FF3" s="36"/>
-      <c r="FG3" s="36"/>
-      <c r="FH3" s="36"/>
-      <c r="FI3" s="36"/>
-      <c r="FJ3" s="36"/>
-      <c r="FK3" s="36"/>
-      <c r="FL3" s="36"/>
-      <c r="FM3" s="36"/>
-      <c r="FN3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="38"/>
+      <c r="BQ3" s="38"/>
+      <c r="BR3" s="38"/>
+      <c r="BS3" s="38"/>
+      <c r="BT3" s="38"/>
+      <c r="BU3" s="38"/>
+      <c r="BV3" s="38"/>
+      <c r="BW3" s="38"/>
+      <c r="BX3" s="38"/>
+      <c r="BY3" s="38"/>
+      <c r="BZ3" s="38"/>
+      <c r="CA3" s="38"/>
+      <c r="CB3" s="38"/>
+      <c r="CC3" s="38"/>
+      <c r="CD3" s="38"/>
+      <c r="CE3" s="38"/>
+      <c r="CF3" s="38"/>
+      <c r="CG3" s="38"/>
+      <c r="CH3" s="38"/>
+      <c r="CI3" s="38"/>
+      <c r="CJ3" s="38"/>
+      <c r="CK3" s="38"/>
+      <c r="CL3" s="38"/>
+      <c r="CM3" s="38"/>
+      <c r="CN3" s="38"/>
+      <c r="CO3" s="38"/>
+      <c r="CP3" s="38"/>
+      <c r="CQ3" s="38"/>
+      <c r="CR3" s="38"/>
+      <c r="CS3" s="38"/>
+      <c r="CT3" s="38"/>
+      <c r="CU3" s="38"/>
+      <c r="CV3" s="38"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="38"/>
+      <c r="DC3" s="38"/>
+      <c r="DD3" s="38"/>
+      <c r="DE3" s="38"/>
+      <c r="DF3" s="38"/>
+      <c r="DG3" s="38"/>
+      <c r="DH3" s="38"/>
+      <c r="DI3" s="38"/>
+      <c r="DJ3" s="38"/>
+      <c r="DK3" s="38"/>
+      <c r="DL3" s="38"/>
+      <c r="DM3" s="38"/>
+      <c r="DN3" s="38"/>
+      <c r="DO3" s="38"/>
+      <c r="DP3" s="38"/>
+      <c r="DQ3" s="38"/>
+      <c r="DR3" s="38"/>
+      <c r="DS3" s="38"/>
+      <c r="DT3" s="38"/>
+      <c r="DU3" s="38"/>
+      <c r="DV3" s="38"/>
+      <c r="DW3" s="38"/>
+      <c r="DX3" s="38"/>
+      <c r="DY3" s="38"/>
+      <c r="DZ3" s="38"/>
+      <c r="EA3" s="38"/>
+      <c r="EB3" s="38"/>
+      <c r="EC3" s="38"/>
+      <c r="ED3" s="38"/>
+      <c r="EE3" s="38"/>
+      <c r="EF3" s="38"/>
+      <c r="EG3" s="38"/>
+      <c r="EH3" s="38"/>
+      <c r="EI3" s="38"/>
+      <c r="EJ3" s="38"/>
+      <c r="EK3" s="38"/>
+      <c r="EL3" s="38"/>
+      <c r="EM3" s="38"/>
+      <c r="EN3" s="38"/>
+      <c r="EO3" s="38"/>
+      <c r="EP3" s="38"/>
+      <c r="EQ3" s="38"/>
+      <c r="ER3" s="38"/>
+      <c r="ES3" s="38"/>
+      <c r="ET3" s="38"/>
+      <c r="EU3" s="38"/>
+      <c r="EV3" s="38"/>
+      <c r="EW3" s="38"/>
+      <c r="EX3" s="38"/>
+      <c r="EY3" s="38"/>
+      <c r="EZ3" s="38"/>
+      <c r="FA3" s="38"/>
+      <c r="FB3" s="38"/>
+      <c r="FC3" s="38"/>
+      <c r="FD3" s="38"/>
+      <c r="FE3" s="38"/>
+      <c r="FF3" s="38"/>
+      <c r="FG3" s="38"/>
+      <c r="FH3" s="38"/>
+      <c r="FI3" s="38"/>
+      <c r="FJ3" s="38"/>
+      <c r="FK3" s="38"/>
+      <c r="FL3" s="38"/>
+      <c r="FM3" s="38"/>
+      <c r="FN3" s="38"/>
     </row>
     <row r="4" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36"/>
-      <c r="DH4" s="36"/>
-      <c r="DI4" s="36"/>
-      <c r="DJ4" s="36"/>
-      <c r="DK4" s="36"/>
-      <c r="DL4" s="36"/>
-      <c r="DM4" s="36"/>
-      <c r="DN4" s="36"/>
-      <c r="DO4" s="36"/>
-      <c r="DP4" s="36"/>
-      <c r="DQ4" s="36"/>
-      <c r="DR4" s="36"/>
-      <c r="DS4" s="36"/>
-      <c r="DT4" s="36"/>
-      <c r="DU4" s="36"/>
-      <c r="DV4" s="36"/>
-      <c r="DW4" s="36"/>
-      <c r="DX4" s="36"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="36"/>
-      <c r="EA4" s="36"/>
-      <c r="EB4" s="36"/>
-      <c r="EC4" s="36"/>
-      <c r="ED4" s="36"/>
-      <c r="EE4" s="36"/>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="36"/>
-      <c r="EH4" s="36"/>
-      <c r="EI4" s="36"/>
-      <c r="EJ4" s="36"/>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="36"/>
-      <c r="EO4" s="36"/>
-      <c r="EP4" s="36"/>
-      <c r="EQ4" s="36"/>
-      <c r="ER4" s="36"/>
-      <c r="ES4" s="36"/>
-      <c r="ET4" s="36"/>
-      <c r="EU4" s="36"/>
-      <c r="EV4" s="36"/>
-      <c r="EW4" s="36"/>
-      <c r="EX4" s="36"/>
-      <c r="EY4" s="36"/>
-      <c r="EZ4" s="36"/>
-      <c r="FA4" s="36"/>
-      <c r="FB4" s="36"/>
-      <c r="FC4" s="36"/>
-      <c r="FD4" s="36"/>
-      <c r="FE4" s="36"/>
-      <c r="FF4" s="36"/>
-      <c r="FG4" s="36"/>
-      <c r="FH4" s="36"/>
-      <c r="FI4" s="36"/>
-      <c r="FJ4" s="36"/>
-      <c r="FK4" s="36"/>
-      <c r="FL4" s="36"/>
-      <c r="FM4" s="36"/>
-      <c r="FN4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38"/>
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38"/>
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38"/>
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38"/>
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38"/>
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
     </row>
     <row r="5" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2764,281 +2764,281 @@
     <row r="8" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW10" s="44" t="s">
+      <c r="AW10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36"/>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="36"/>
-      <c r="BM10" s="36"/>
-      <c r="BN10" s="36"/>
-      <c r="BO10" s="36"/>
-      <c r="BP10" s="36"/>
-      <c r="BQ10" s="36"/>
-      <c r="BR10" s="36"/>
-      <c r="BS10" s="36"/>
-      <c r="BT10" s="36"/>
-      <c r="BU10" s="36"/>
-      <c r="BV10" s="36"/>
-      <c r="BW10" s="36"/>
-      <c r="BX10" s="36"/>
-      <c r="BY10" s="36"/>
-      <c r="BZ10" s="36"/>
-      <c r="CA10" s="36"/>
-      <c r="CB10" s="36"/>
-      <c r="CC10" s="36"/>
-      <c r="CD10" s="36"/>
-      <c r="CE10" s="36"/>
-      <c r="CF10" s="36"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="38"/>
+      <c r="BO10" s="38"/>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="38"/>
+      <c r="BS10" s="38"/>
+      <c r="BT10" s="38"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="38"/>
+      <c r="BW10" s="38"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="38"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="38"/>
+      <c r="CC10" s="38"/>
+      <c r="CD10" s="38"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="38"/>
       <c r="CI10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EE10" s="44" t="s">
+      <c r="EE10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="EF10" s="36"/>
-      <c r="EG10" s="36"/>
-      <c r="EH10" s="36"/>
-      <c r="EI10" s="36"/>
-      <c r="EJ10" s="36"/>
-      <c r="EK10" s="36"/>
-      <c r="EL10" s="36"/>
-      <c r="EM10" s="36"/>
-      <c r="EN10" s="36"/>
-      <c r="EO10" s="36"/>
-      <c r="EP10" s="36"/>
-      <c r="EQ10" s="36"/>
-      <c r="ER10" s="36"/>
-      <c r="ES10" s="36"/>
-      <c r="ET10" s="36"/>
-      <c r="EU10" s="36"/>
-      <c r="EV10" s="36"/>
-      <c r="EW10" s="36"/>
-      <c r="EX10" s="36"/>
-      <c r="EY10" s="36"/>
-      <c r="EZ10" s="36"/>
-      <c r="FA10" s="36"/>
-      <c r="FB10" s="36"/>
-      <c r="FC10" s="36"/>
-      <c r="FD10" s="36"/>
-      <c r="FE10" s="36"/>
-      <c r="FF10" s="36"/>
-      <c r="FG10" s="36"/>
-      <c r="FH10" s="36"/>
-      <c r="FI10" s="36"/>
-      <c r="FJ10" s="36"/>
-      <c r="FK10" s="36"/>
-      <c r="FL10" s="36"/>
-      <c r="FM10" s="36"/>
-      <c r="FN10" s="36"/>
+      <c r="EF10" s="38"/>
+      <c r="EG10" s="38"/>
+      <c r="EH10" s="38"/>
+      <c r="EI10" s="38"/>
+      <c r="EJ10" s="38"/>
+      <c r="EK10" s="38"/>
+      <c r="EL10" s="38"/>
+      <c r="EM10" s="38"/>
+      <c r="EN10" s="38"/>
+      <c r="EO10" s="38"/>
+      <c r="EP10" s="38"/>
+      <c r="EQ10" s="38"/>
+      <c r="ER10" s="38"/>
+      <c r="ES10" s="38"/>
+      <c r="ET10" s="38"/>
+      <c r="EU10" s="38"/>
+      <c r="EV10" s="38"/>
+      <c r="EW10" s="38"/>
+      <c r="EX10" s="38"/>
+      <c r="EY10" s="38"/>
+      <c r="EZ10" s="38"/>
+      <c r="FA10" s="38"/>
+      <c r="FB10" s="38"/>
+      <c r="FC10" s="38"/>
+      <c r="FD10" s="38"/>
+      <c r="FE10" s="38"/>
+      <c r="FF10" s="38"/>
+      <c r="FG10" s="38"/>
+      <c r="FH10" s="38"/>
+      <c r="FI10" s="38"/>
+      <c r="FJ10" s="38"/>
+      <c r="FK10" s="38"/>
+      <c r="FL10" s="38"/>
+      <c r="FM10" s="38"/>
+      <c r="FN10" s="38"/>
     </row>
     <row r="11" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AO11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="45" t="s">
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="38"/>
-      <c r="BI11" s="38"/>
-      <c r="BJ11" s="38"/>
-      <c r="BK11" s="38"/>
-      <c r="BL11" s="38"/>
-      <c r="BM11" s="38"/>
-      <c r="BN11" s="38"/>
-      <c r="BO11" s="38"/>
-      <c r="BP11" s="38"/>
-      <c r="BQ11" s="38"/>
-      <c r="BR11" s="38"/>
-      <c r="BS11" s="38"/>
-      <c r="BT11" s="38"/>
-      <c r="BU11" s="38"/>
-      <c r="BV11" s="38"/>
-      <c r="BW11" s="38"/>
-      <c r="BX11" s="38"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="38"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="38"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="36"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="36"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="36"/>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="36"/>
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="36"/>
+      <c r="BV11" s="36"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="36"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="36"/>
+      <c r="CF11" s="36"/>
       <c r="CI11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="DW11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="DX11" s="36"/>
-      <c r="DY11" s="36"/>
-      <c r="DZ11" s="36"/>
-      <c r="EA11" s="36"/>
-      <c r="EB11" s="36"/>
-      <c r="EC11" s="36"/>
-      <c r="ED11" s="36"/>
-      <c r="EE11" s="36"/>
-      <c r="EF11" s="36"/>
-      <c r="EG11" s="36"/>
-      <c r="EH11" s="36"/>
-      <c r="EI11" s="45" t="s">
+      <c r="DX11" s="38"/>
+      <c r="DY11" s="38"/>
+      <c r="DZ11" s="38"/>
+      <c r="EA11" s="38"/>
+      <c r="EB11" s="38"/>
+      <c r="EC11" s="38"/>
+      <c r="ED11" s="38"/>
+      <c r="EE11" s="38"/>
+      <c r="EF11" s="38"/>
+      <c r="EG11" s="38"/>
+      <c r="EH11" s="38"/>
+      <c r="EI11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="EJ11" s="38"/>
-      <c r="EK11" s="38"/>
-      <c r="EL11" s="38"/>
-      <c r="EM11" s="38"/>
-      <c r="EN11" s="38"/>
-      <c r="EO11" s="38"/>
-      <c r="EP11" s="38"/>
-      <c r="EQ11" s="38"/>
-      <c r="ER11" s="38"/>
-      <c r="ES11" s="38"/>
-      <c r="ET11" s="38"/>
-      <c r="EU11" s="38"/>
-      <c r="EV11" s="38"/>
-      <c r="EW11" s="38"/>
-      <c r="EX11" s="38"/>
-      <c r="EY11" s="38"/>
-      <c r="EZ11" s="38"/>
-      <c r="FA11" s="38"/>
-      <c r="FB11" s="38"/>
-      <c r="FC11" s="38"/>
-      <c r="FD11" s="38"/>
-      <c r="FE11" s="38"/>
-      <c r="FF11" s="38"/>
-      <c r="FG11" s="38"/>
-      <c r="FH11" s="38"/>
-      <c r="FI11" s="38"/>
-      <c r="FJ11" s="38"/>
-      <c r="FK11" s="38"/>
-      <c r="FL11" s="38"/>
-      <c r="FM11" s="38"/>
-      <c r="FN11" s="38"/>
+      <c r="EJ11" s="36"/>
+      <c r="EK11" s="36"/>
+      <c r="EL11" s="36"/>
+      <c r="EM11" s="36"/>
+      <c r="EN11" s="36"/>
+      <c r="EO11" s="36"/>
+      <c r="EP11" s="36"/>
+      <c r="EQ11" s="36"/>
+      <c r="ER11" s="36"/>
+      <c r="ES11" s="36"/>
+      <c r="ET11" s="36"/>
+      <c r="EU11" s="36"/>
+      <c r="EV11" s="36"/>
+      <c r="EW11" s="36"/>
+      <c r="EX11" s="36"/>
+      <c r="EY11" s="36"/>
+      <c r="EZ11" s="36"/>
+      <c r="FA11" s="36"/>
+      <c r="FB11" s="36"/>
+      <c r="FC11" s="36"/>
+      <c r="FD11" s="36"/>
+      <c r="FE11" s="36"/>
+      <c r="FF11" s="36"/>
+      <c r="FG11" s="36"/>
+      <c r="FH11" s="36"/>
+      <c r="FI11" s="36"/>
+      <c r="FJ11" s="36"/>
+      <c r="FK11" s="36"/>
+      <c r="FL11" s="36"/>
+      <c r="FM11" s="36"/>
+      <c r="FN11" s="36"/>
     </row>
     <row r="12" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BB12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="37" t="s">
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
       <c r="BH12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="37" t="s">
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="38"/>
-      <c r="BN12" s="38"/>
-      <c r="BO12" s="38"/>
-      <c r="BP12" s="38"/>
-      <c r="BQ12" s="38"/>
-      <c r="BR12" s="38"/>
-      <c r="BS12" s="38"/>
-      <c r="BT12" s="38"/>
-      <c r="BU12" s="38"/>
-      <c r="BV12" s="38"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="36"/>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
       <c r="BW12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BX12" s="36"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="36"/>
-      <c r="CA12" s="37">
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="41">
         <v>19</v>
       </c>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
       <c r="CE12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CF12" s="36"/>
+      <c r="CF12" s="38"/>
       <c r="CI12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="EJ12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="EK12" s="36"/>
-      <c r="EL12" s="37" t="s">
+      <c r="EK12" s="38"/>
+      <c r="EL12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="EM12" s="38"/>
-      <c r="EN12" s="38"/>
-      <c r="EO12" s="38"/>
+      <c r="EM12" s="36"/>
+      <c r="EN12" s="36"/>
+      <c r="EO12" s="36"/>
       <c r="EP12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="EQ12" s="36"/>
-      <c r="ER12" s="37" t="s">
+      <c r="EQ12" s="38"/>
+      <c r="ER12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="ES12" s="38"/>
-      <c r="ET12" s="38"/>
-      <c r="EU12" s="38"/>
-      <c r="EV12" s="38"/>
-      <c r="EW12" s="38"/>
-      <c r="EX12" s="38"/>
-      <c r="EY12" s="38"/>
-      <c r="EZ12" s="38"/>
-      <c r="FA12" s="38"/>
-      <c r="FB12" s="38"/>
-      <c r="FC12" s="38"/>
-      <c r="FD12" s="38"/>
+      <c r="ES12" s="36"/>
+      <c r="ET12" s="36"/>
+      <c r="EU12" s="36"/>
+      <c r="EV12" s="36"/>
+      <c r="EW12" s="36"/>
+      <c r="EX12" s="36"/>
+      <c r="EY12" s="36"/>
+      <c r="EZ12" s="36"/>
+      <c r="FA12" s="36"/>
+      <c r="FB12" s="36"/>
+      <c r="FC12" s="36"/>
+      <c r="FD12" s="36"/>
       <c r="FE12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="FF12" s="36"/>
-      <c r="FG12" s="36"/>
-      <c r="FH12" s="36"/>
-      <c r="FI12" s="37">
+      <c r="FF12" s="38"/>
+      <c r="FG12" s="38"/>
+      <c r="FH12" s="38"/>
+      <c r="FI12" s="41">
         <v>20</v>
       </c>
-      <c r="FJ12" s="38"/>
-      <c r="FK12" s="38"/>
-      <c r="FL12" s="38"/>
+      <c r="FJ12" s="36"/>
+      <c r="FK12" s="36"/>
+      <c r="FL12" s="36"/>
       <c r="FM12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="FN12" s="36"/>
+      <c r="FN12" s="38"/>
     </row>
     <row r="13" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI13" s="2" t="s">
@@ -3056,349 +3056,349 @@
       </c>
     </row>
     <row r="16" spans="1:170" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="36"/>
-      <c r="BB16" s="36"/>
-      <c r="BC16" s="36"/>
-      <c r="BD16" s="36"/>
-      <c r="BE16" s="36"/>
-      <c r="BF16" s="36"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="36"/>
-      <c r="BI16" s="36"/>
-      <c r="BJ16" s="36"/>
-      <c r="BK16" s="36"/>
-      <c r="BL16" s="36"/>
-      <c r="BM16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="36"/>
-      <c r="BP16" s="36"/>
-      <c r="BQ16" s="36"/>
-      <c r="BR16" s="36"/>
-      <c r="BS16" s="36"/>
-      <c r="BT16" s="36"/>
-      <c r="BU16" s="36"/>
-      <c r="BV16" s="36"/>
-      <c r="BW16" s="36"/>
-      <c r="BX16" s="36"/>
-      <c r="BY16" s="36"/>
-      <c r="BZ16" s="36"/>
-      <c r="CA16" s="36"/>
-      <c r="CB16" s="36"/>
-      <c r="CC16" s="36"/>
-      <c r="CD16" s="36"/>
-      <c r="CE16" s="36"/>
-      <c r="CF16" s="36"/>
-      <c r="CG16" s="36"/>
-      <c r="CH16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="38"/>
+      <c r="CB16" s="38"/>
+      <c r="CC16" s="38"/>
+      <c r="CD16" s="38"/>
+      <c r="CE16" s="38"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
       <c r="CI16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CJ16" s="41" t="s">
+      <c r="CJ16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="CK16" s="36"/>
-      <c r="CL16" s="36"/>
-      <c r="CM16" s="36"/>
-      <c r="CN16" s="36"/>
-      <c r="CO16" s="36"/>
-      <c r="CP16" s="36"/>
-      <c r="CQ16" s="36"/>
-      <c r="CR16" s="36"/>
-      <c r="CS16" s="36"/>
-      <c r="CT16" s="36"/>
-      <c r="CU16" s="36"/>
-      <c r="CV16" s="36"/>
-      <c r="CW16" s="36"/>
-      <c r="CX16" s="36"/>
-      <c r="CY16" s="36"/>
-      <c r="CZ16" s="36"/>
-      <c r="DA16" s="36"/>
-      <c r="DB16" s="36"/>
-      <c r="DC16" s="36"/>
-      <c r="DD16" s="36"/>
-      <c r="DE16" s="36"/>
-      <c r="DF16" s="36"/>
-      <c r="DG16" s="36"/>
-      <c r="DH16" s="36"/>
-      <c r="DI16" s="36"/>
-      <c r="DJ16" s="36"/>
-      <c r="DK16" s="36"/>
-      <c r="DL16" s="36"/>
-      <c r="DM16" s="36"/>
-      <c r="DN16" s="36"/>
-      <c r="DO16" s="36"/>
-      <c r="DP16" s="36"/>
-      <c r="DQ16" s="36"/>
-      <c r="DR16" s="36"/>
-      <c r="DS16" s="36"/>
-      <c r="DT16" s="36"/>
-      <c r="DU16" s="36"/>
-      <c r="DV16" s="36"/>
-      <c r="DW16" s="36"/>
-      <c r="DX16" s="36"/>
-      <c r="DY16" s="36"/>
-      <c r="DZ16" s="36"/>
-      <c r="EA16" s="36"/>
-      <c r="EB16" s="36"/>
-      <c r="EC16" s="36"/>
-      <c r="ED16" s="36"/>
-      <c r="EE16" s="36"/>
-      <c r="EF16" s="36"/>
-      <c r="EG16" s="36"/>
-      <c r="EH16" s="36"/>
-      <c r="EI16" s="36"/>
-      <c r="EJ16" s="36"/>
-      <c r="EK16" s="36"/>
-      <c r="EL16" s="36"/>
-      <c r="EM16" s="36"/>
-      <c r="EN16" s="36"/>
-      <c r="EO16" s="36"/>
-      <c r="EP16" s="36"/>
-      <c r="EQ16" s="36"/>
-      <c r="ER16" s="36"/>
-      <c r="ES16" s="36"/>
-      <c r="ET16" s="36"/>
-      <c r="EU16" s="36"/>
-      <c r="EV16" s="36"/>
-      <c r="EW16" s="36"/>
-      <c r="EX16" s="36"/>
-      <c r="EY16" s="36"/>
-      <c r="EZ16" s="36"/>
-      <c r="FA16" s="36"/>
-      <c r="FB16" s="36"/>
-      <c r="FC16" s="36"/>
-      <c r="FD16" s="36"/>
-      <c r="FE16" s="36"/>
-      <c r="FF16" s="36"/>
-      <c r="FG16" s="36"/>
-      <c r="FH16" s="36"/>
-      <c r="FI16" s="36"/>
-      <c r="FJ16" s="36"/>
-      <c r="FK16" s="36"/>
-      <c r="FL16" s="36"/>
-      <c r="FM16" s="36"/>
-      <c r="FN16" s="36"/>
+      <c r="CK16" s="38"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="38"/>
+      <c r="CT16" s="38"/>
+      <c r="CU16" s="38"/>
+      <c r="CV16" s="38"/>
+      <c r="CW16" s="38"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="38"/>
+      <c r="CZ16" s="38"/>
+      <c r="DA16" s="38"/>
+      <c r="DB16" s="38"/>
+      <c r="DC16" s="38"/>
+      <c r="DD16" s="38"/>
+      <c r="DE16" s="38"/>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="38"/>
+      <c r="DH16" s="38"/>
+      <c r="DI16" s="38"/>
+      <c r="DJ16" s="38"/>
+      <c r="DK16" s="38"/>
+      <c r="DL16" s="38"/>
+      <c r="DM16" s="38"/>
+      <c r="DN16" s="38"/>
+      <c r="DO16" s="38"/>
+      <c r="DP16" s="38"/>
+      <c r="DQ16" s="38"/>
+      <c r="DR16" s="38"/>
+      <c r="DS16" s="38"/>
+      <c r="DT16" s="38"/>
+      <c r="DU16" s="38"/>
+      <c r="DV16" s="38"/>
+      <c r="DW16" s="38"/>
+      <c r="DX16" s="38"/>
+      <c r="DY16" s="38"/>
+      <c r="DZ16" s="38"/>
+      <c r="EA16" s="38"/>
+      <c r="EB16" s="38"/>
+      <c r="EC16" s="38"/>
+      <c r="ED16" s="38"/>
+      <c r="EE16" s="38"/>
+      <c r="EF16" s="38"/>
+      <c r="EG16" s="38"/>
+      <c r="EH16" s="38"/>
+      <c r="EI16" s="38"/>
+      <c r="EJ16" s="38"/>
+      <c r="EK16" s="38"/>
+      <c r="EL16" s="38"/>
+      <c r="EM16" s="38"/>
+      <c r="EN16" s="38"/>
+      <c r="EO16" s="38"/>
+      <c r="EP16" s="38"/>
+      <c r="EQ16" s="38"/>
+      <c r="ER16" s="38"/>
+      <c r="ES16" s="38"/>
+      <c r="ET16" s="38"/>
+      <c r="EU16" s="38"/>
+      <c r="EV16" s="38"/>
+      <c r="EW16" s="38"/>
+      <c r="EX16" s="38"/>
+      <c r="EY16" s="38"/>
+      <c r="EZ16" s="38"/>
+      <c r="FA16" s="38"/>
+      <c r="FB16" s="38"/>
+      <c r="FC16" s="38"/>
+      <c r="FD16" s="38"/>
+      <c r="FE16" s="38"/>
+      <c r="FF16" s="38"/>
+      <c r="FG16" s="38"/>
+      <c r="FH16" s="38"/>
+      <c r="FI16" s="38"/>
+      <c r="FJ16" s="38"/>
+      <c r="FK16" s="38"/>
+      <c r="FL16" s="38"/>
+      <c r="FM16" s="38"/>
+      <c r="FN16" s="38"/>
     </row>
     <row r="17" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="43" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="42" t="s">
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="43" t="s">
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="42" t="s">
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="36"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="38"/>
+      <c r="BW17" s="38"/>
+      <c r="BX17" s="38"/>
+      <c r="BY17" s="38"/>
       <c r="CI17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CV17" s="42" t="s">
+      <c r="CV17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="CW17" s="36"/>
-      <c r="CX17" s="36"/>
-      <c r="CY17" s="36"/>
-      <c r="CZ17" s="36"/>
-      <c r="DA17" s="36"/>
-      <c r="DB17" s="36"/>
-      <c r="DC17" s="36"/>
-      <c r="DD17" s="36"/>
-      <c r="DE17" s="36"/>
-      <c r="DF17" s="36"/>
-      <c r="DG17" s="36"/>
-      <c r="DH17" s="36"/>
-      <c r="DI17" s="36"/>
-      <c r="DJ17" s="36"/>
-      <c r="DK17" s="36"/>
-      <c r="DL17" s="36"/>
-      <c r="DM17" s="36"/>
-      <c r="DN17" s="36"/>
-      <c r="DO17" s="36"/>
-      <c r="DP17" s="36"/>
-      <c r="DQ17" s="36"/>
-      <c r="DR17" s="36"/>
-      <c r="DS17" s="36"/>
-      <c r="DT17" s="36"/>
-      <c r="DU17" s="36"/>
-      <c r="DV17" s="36"/>
-      <c r="DW17" s="36"/>
-      <c r="DX17" s="36"/>
-      <c r="DY17" s="36"/>
-      <c r="DZ17" s="36"/>
-      <c r="EA17" s="36"/>
-      <c r="EB17" s="36"/>
-      <c r="EC17" s="36"/>
-      <c r="ED17" s="36"/>
-      <c r="EE17" s="36"/>
-      <c r="EF17" s="36"/>
-      <c r="EG17" s="36"/>
-      <c r="EH17" s="36"/>
-      <c r="EI17" s="36"/>
-      <c r="EJ17" s="43" t="s">
+      <c r="CW17" s="38"/>
+      <c r="CX17" s="38"/>
+      <c r="CY17" s="38"/>
+      <c r="CZ17" s="38"/>
+      <c r="DA17" s="38"/>
+      <c r="DB17" s="38"/>
+      <c r="DC17" s="38"/>
+      <c r="DD17" s="38"/>
+      <c r="DE17" s="38"/>
+      <c r="DF17" s="38"/>
+      <c r="DG17" s="38"/>
+      <c r="DH17" s="38"/>
+      <c r="DI17" s="38"/>
+      <c r="DJ17" s="38"/>
+      <c r="DK17" s="38"/>
+      <c r="DL17" s="38"/>
+      <c r="DM17" s="38"/>
+      <c r="DN17" s="38"/>
+      <c r="DO17" s="38"/>
+      <c r="DP17" s="38"/>
+      <c r="DQ17" s="38"/>
+      <c r="DR17" s="38"/>
+      <c r="DS17" s="38"/>
+      <c r="DT17" s="38"/>
+      <c r="DU17" s="38"/>
+      <c r="DV17" s="38"/>
+      <c r="DW17" s="38"/>
+      <c r="DX17" s="38"/>
+      <c r="DY17" s="38"/>
+      <c r="DZ17" s="38"/>
+      <c r="EA17" s="38"/>
+      <c r="EB17" s="38"/>
+      <c r="EC17" s="38"/>
+      <c r="ED17" s="38"/>
+      <c r="EE17" s="38"/>
+      <c r="EF17" s="38"/>
+      <c r="EG17" s="38"/>
+      <c r="EH17" s="38"/>
+      <c r="EI17" s="38"/>
+      <c r="EJ17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="EK17" s="38"/>
-      <c r="EL17" s="38"/>
-      <c r="EM17" s="38"/>
-      <c r="EN17" s="42" t="s">
+      <c r="EK17" s="36"/>
+      <c r="EL17" s="36"/>
+      <c r="EM17" s="36"/>
+      <c r="EN17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="EO17" s="36"/>
-      <c r="EP17" s="36"/>
-      <c r="EQ17" s="43" t="s">
+      <c r="EO17" s="38"/>
+      <c r="EP17" s="38"/>
+      <c r="EQ17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="ER17" s="38"/>
-      <c r="ES17" s="38"/>
-      <c r="ET17" s="38"/>
-      <c r="EU17" s="42" t="s">
+      <c r="ER17" s="36"/>
+      <c r="ES17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="EV17" s="36"/>
-      <c r="EW17" s="36"/>
-      <c r="EX17" s="36"/>
-      <c r="EY17" s="36"/>
-      <c r="EZ17" s="36"/>
-      <c r="FA17" s="36"/>
-      <c r="FB17" s="36"/>
-      <c r="FC17" s="36"/>
-      <c r="FD17" s="36"/>
-      <c r="FE17" s="36"/>
-      <c r="FF17" s="36"/>
-      <c r="FG17" s="36"/>
-      <c r="FH17" s="36"/>
-      <c r="FI17" s="36"/>
-      <c r="FJ17" s="36"/>
-      <c r="FK17" s="36"/>
-      <c r="FL17" s="36"/>
-      <c r="FM17" s="36"/>
-      <c r="FN17" s="36"/>
+      <c r="EV17" s="38"/>
+      <c r="EW17" s="38"/>
+      <c r="EX17" s="38"/>
+      <c r="EY17" s="38"/>
+      <c r="EZ17" s="38"/>
+      <c r="FA17" s="38"/>
+      <c r="FB17" s="38"/>
+      <c r="FC17" s="38"/>
+      <c r="FD17" s="38"/>
+      <c r="FE17" s="38"/>
+      <c r="FF17" s="38"/>
+      <c r="FG17" s="38"/>
+      <c r="FH17" s="38"/>
+      <c r="FI17" s="38"/>
+      <c r="FJ17" s="38"/>
+      <c r="FK17" s="38"/>
+      <c r="FL17" s="38"/>
+      <c r="FM17" s="38"/>
+      <c r="FN17" s="38"/>
     </row>
     <row r="18" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI18" s="2" t="s">
@@ -3416,278 +3416,278 @@
       </c>
     </row>
     <row r="21" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="40" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
       <c r="BA21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="37">
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="41">
         <v>28</v>
       </c>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
       <c r="BG21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="37" t="s">
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="38"/>
-      <c r="BS21" s="38"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="38"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="36"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
       <c r="BV21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BW21" s="36"/>
-      <c r="BX21" s="36"/>
-      <c r="BY21" s="36"/>
-      <c r="BZ21" s="37">
+      <c r="BW21" s="38"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="41">
         <v>19</v>
       </c>
-      <c r="CA21" s="38"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
+      <c r="CA21" s="36"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="36"/>
       <c r="CD21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CE21" s="36"/>
+      <c r="CE21" s="38"/>
       <c r="CI21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="CN21" s="35" t="s">
+      <c r="CN21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CO21" s="36"/>
-      <c r="CP21" s="36"/>
-      <c r="CQ21" s="36"/>
-      <c r="CR21" s="36"/>
-      <c r="CS21" s="36"/>
-      <c r="CT21" s="36"/>
-      <c r="CU21" s="36"/>
-      <c r="CV21" s="40" t="s">
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="38"/>
+      <c r="CS21" s="38"/>
+      <c r="CT21" s="38"/>
+      <c r="CU21" s="38"/>
+      <c r="CV21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="CW21" s="36"/>
-      <c r="CX21" s="36"/>
-      <c r="CY21" s="36"/>
-      <c r="CZ21" s="36"/>
-      <c r="DA21" s="36"/>
-      <c r="DB21" s="36"/>
-      <c r="DC21" s="36"/>
-      <c r="DD21" s="36"/>
-      <c r="DE21" s="36"/>
-      <c r="DF21" s="36"/>
-      <c r="DG21" s="36"/>
-      <c r="DH21" s="36"/>
-      <c r="DI21" s="36"/>
-      <c r="DJ21" s="36"/>
-      <c r="DK21" s="36"/>
-      <c r="DL21" s="36"/>
-      <c r="DM21" s="36"/>
-      <c r="DN21" s="36"/>
-      <c r="DO21" s="36"/>
-      <c r="DP21" s="36"/>
-      <c r="DQ21" s="36"/>
-      <c r="DR21" s="36"/>
-      <c r="DS21" s="36"/>
-      <c r="DT21" s="36"/>
-      <c r="DU21" s="36"/>
-      <c r="DV21" s="36"/>
-      <c r="DW21" s="36"/>
-      <c r="DX21" s="36"/>
-      <c r="DY21" s="36"/>
-      <c r="DZ21" s="36"/>
-      <c r="EA21" s="36"/>
-      <c r="EB21" s="36"/>
-      <c r="EC21" s="36"/>
-      <c r="ED21" s="36"/>
-      <c r="EE21" s="36"/>
-      <c r="EF21" s="36"/>
-      <c r="EG21" s="36"/>
-      <c r="EH21" s="36"/>
-      <c r="EI21" s="36"/>
+      <c r="CW21" s="38"/>
+      <c r="CX21" s="38"/>
+      <c r="CY21" s="38"/>
+      <c r="CZ21" s="38"/>
+      <c r="DA21" s="38"/>
+      <c r="DB21" s="38"/>
+      <c r="DC21" s="38"/>
+      <c r="DD21" s="38"/>
+      <c r="DE21" s="38"/>
+      <c r="DF21" s="38"/>
+      <c r="DG21" s="38"/>
+      <c r="DH21" s="38"/>
+      <c r="DI21" s="38"/>
+      <c r="DJ21" s="38"/>
+      <c r="DK21" s="38"/>
+      <c r="DL21" s="38"/>
+      <c r="DM21" s="38"/>
+      <c r="DN21" s="38"/>
+      <c r="DO21" s="38"/>
+      <c r="DP21" s="38"/>
+      <c r="DQ21" s="38"/>
+      <c r="DR21" s="38"/>
+      <c r="DS21" s="38"/>
+      <c r="DT21" s="38"/>
+      <c r="DU21" s="38"/>
+      <c r="DV21" s="38"/>
+      <c r="DW21" s="38"/>
+      <c r="DX21" s="38"/>
+      <c r="DY21" s="38"/>
+      <c r="DZ21" s="38"/>
+      <c r="EA21" s="38"/>
+      <c r="EB21" s="38"/>
+      <c r="EC21" s="38"/>
+      <c r="ED21" s="38"/>
+      <c r="EE21" s="38"/>
+      <c r="EF21" s="38"/>
+      <c r="EG21" s="38"/>
+      <c r="EH21" s="38"/>
+      <c r="EI21" s="38"/>
       <c r="EJ21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="EK21" s="36"/>
-      <c r="EL21" s="37" t="s">
+      <c r="EK21" s="38"/>
+      <c r="EL21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="EM21" s="38"/>
-      <c r="EN21" s="38"/>
-      <c r="EO21" s="38"/>
+      <c r="EM21" s="36"/>
+      <c r="EN21" s="36"/>
+      <c r="EO21" s="36"/>
       <c r="EP21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="EQ21" s="36"/>
-      <c r="ER21" s="37" t="s">
+      <c r="EQ21" s="38"/>
+      <c r="ER21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="ES21" s="38"/>
-      <c r="ET21" s="38"/>
-      <c r="EU21" s="38"/>
-      <c r="EV21" s="38"/>
-      <c r="EW21" s="38"/>
-      <c r="EX21" s="38"/>
-      <c r="EY21" s="38"/>
-      <c r="EZ21" s="38"/>
-      <c r="FA21" s="38"/>
-      <c r="FB21" s="38"/>
-      <c r="FC21" s="38"/>
-      <c r="FD21" s="38"/>
+      <c r="ES21" s="36"/>
+      <c r="ET21" s="36"/>
+      <c r="EU21" s="36"/>
+      <c r="EV21" s="36"/>
+      <c r="EW21" s="36"/>
+      <c r="EX21" s="36"/>
+      <c r="EY21" s="36"/>
+      <c r="EZ21" s="36"/>
+      <c r="FA21" s="36"/>
+      <c r="FB21" s="36"/>
+      <c r="FC21" s="36"/>
+      <c r="FD21" s="36"/>
       <c r="FE21" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="FF21" s="36"/>
-      <c r="FG21" s="36"/>
-      <c r="FH21" s="36"/>
-      <c r="FI21" s="37">
+      <c r="FF21" s="38"/>
+      <c r="FG21" s="38"/>
+      <c r="FH21" s="38"/>
+      <c r="FI21" s="41">
         <v>20</v>
       </c>
-      <c r="FJ21" s="38"/>
-      <c r="FK21" s="38"/>
-      <c r="FL21" s="38"/>
+      <c r="FJ21" s="36"/>
+      <c r="FK21" s="36"/>
+      <c r="FL21" s="36"/>
       <c r="FM21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="FN21" s="36"/>
+      <c r="FN21" s="38"/>
     </row>
     <row r="22" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD22" s="44" t="s">
+      <c r="BD22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="36"/>
-      <c r="BI22" s="36"/>
-      <c r="BJ22" s="36"/>
-      <c r="BK22" s="36"/>
-      <c r="BL22" s="36"/>
-      <c r="BM22" s="36"/>
-      <c r="BN22" s="36"/>
-      <c r="BO22" s="36"/>
-      <c r="BP22" s="36"/>
-      <c r="BQ22" s="36"/>
-      <c r="BR22" s="36"/>
-      <c r="BS22" s="36"/>
-      <c r="BT22" s="36"/>
-      <c r="BU22" s="37">
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+      <c r="BO22" s="38"/>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="38"/>
+      <c r="BR22" s="38"/>
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="41">
         <v>1</v>
       </c>
-      <c r="BV22" s="38"/>
-      <c r="BW22" s="38"/>
-      <c r="BX22" s="38"/>
-      <c r="BY22" s="38"/>
-      <c r="BZ22" s="38"/>
-      <c r="CA22" s="38"/>
-      <c r="CB22" s="38"/>
-      <c r="CC22" s="38"/>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="44" t="s">
+      <c r="BV22" s="36"/>
+      <c r="BW22" s="36"/>
+      <c r="BX22" s="36"/>
+      <c r="BY22" s="36"/>
+      <c r="BZ22" s="36"/>
+      <c r="CA22" s="36"/>
+      <c r="CB22" s="36"/>
+      <c r="CC22" s="36"/>
+      <c r="CD22" s="36"/>
+      <c r="CE22" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="CF22" s="36"/>
+      <c r="CF22" s="38"/>
       <c r="CI22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EL22" s="44" t="s">
+      <c r="EL22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="EM22" s="36"/>
-      <c r="EN22" s="36"/>
-      <c r="EO22" s="36"/>
-      <c r="EP22" s="36"/>
-      <c r="EQ22" s="36"/>
-      <c r="ER22" s="36"/>
-      <c r="ES22" s="36"/>
-      <c r="ET22" s="36"/>
-      <c r="EU22" s="36"/>
-      <c r="EV22" s="36"/>
-      <c r="EW22" s="36"/>
-      <c r="EX22" s="36"/>
-      <c r="EY22" s="36"/>
-      <c r="EZ22" s="36"/>
-      <c r="FA22" s="36"/>
-      <c r="FB22" s="36"/>
-      <c r="FC22" s="37" t="s">
+      <c r="EM22" s="38"/>
+      <c r="EN22" s="38"/>
+      <c r="EO22" s="38"/>
+      <c r="EP22" s="38"/>
+      <c r="EQ22" s="38"/>
+      <c r="ER22" s="38"/>
+      <c r="ES22" s="38"/>
+      <c r="ET22" s="38"/>
+      <c r="EU22" s="38"/>
+      <c r="EV22" s="38"/>
+      <c r="EW22" s="38"/>
+      <c r="EX22" s="38"/>
+      <c r="EY22" s="38"/>
+      <c r="EZ22" s="38"/>
+      <c r="FA22" s="38"/>
+      <c r="FB22" s="38"/>
+      <c r="FC22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="FD22" s="38"/>
-      <c r="FE22" s="38"/>
-      <c r="FF22" s="38"/>
-      <c r="FG22" s="38"/>
-      <c r="FH22" s="38"/>
-      <c r="FI22" s="38"/>
-      <c r="FJ22" s="38"/>
-      <c r="FK22" s="38"/>
-      <c r="FL22" s="38"/>
-      <c r="FM22" s="44" t="s">
+      <c r="FD22" s="36"/>
+      <c r="FE22" s="36"/>
+      <c r="FF22" s="36"/>
+      <c r="FG22" s="36"/>
+      <c r="FH22" s="36"/>
+      <c r="FI22" s="36"/>
+      <c r="FJ22" s="36"/>
+      <c r="FK22" s="36"/>
+      <c r="FL22" s="36"/>
+      <c r="FM22" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="FN22" s="36"/>
+      <c r="FN22" s="38"/>
     </row>
     <row r="23" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CI23" s="2" t="s">
@@ -3695,1014 +3695,1014 @@
       </c>
     </row>
     <row r="24" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y24" s="40" t="s">
+      <c r="Y24" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="45" t="s">
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="38"/>
-      <c r="BF24" s="38"/>
-      <c r="BG24" s="38"/>
-      <c r="BH24" s="38"/>
-      <c r="BI24" s="38"/>
-      <c r="BJ24" s="38"/>
-      <c r="BK24" s="38"/>
-      <c r="BL24" s="38"/>
-      <c r="BM24" s="38"/>
-      <c r="BN24" s="38"/>
-      <c r="BO24" s="38"/>
-      <c r="BP24" s="38"/>
-      <c r="BQ24" s="38"/>
-      <c r="BR24" s="38"/>
-      <c r="BS24" s="38"/>
-      <c r="BT24" s="38"/>
-      <c r="BU24" s="38"/>
-      <c r="BV24" s="38"/>
-      <c r="BW24" s="38"/>
-      <c r="BX24" s="38"/>
-      <c r="BY24" s="38"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="38"/>
-      <c r="CB24" s="38"/>
-      <c r="CC24" s="38"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="38"/>
-      <c r="CF24" s="38"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="36"/>
+      <c r="BE24" s="36"/>
+      <c r="BF24" s="36"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="36"/>
+      <c r="BJ24" s="36"/>
+      <c r="BK24" s="36"/>
+      <c r="BL24" s="36"/>
+      <c r="BM24" s="36"/>
+      <c r="BN24" s="36"/>
+      <c r="BO24" s="36"/>
+      <c r="BP24" s="36"/>
+      <c r="BQ24" s="36"/>
+      <c r="BR24" s="36"/>
+      <c r="BS24" s="36"/>
+      <c r="BT24" s="36"/>
+      <c r="BU24" s="36"/>
+      <c r="BV24" s="36"/>
+      <c r="BW24" s="36"/>
+      <c r="BX24" s="36"/>
+      <c r="BY24" s="36"/>
+      <c r="BZ24" s="36"/>
+      <c r="CA24" s="36"/>
+      <c r="CB24" s="36"/>
+      <c r="CC24" s="36"/>
+      <c r="CD24" s="36"/>
+      <c r="CE24" s="36"/>
+      <c r="CF24" s="36"/>
       <c r="CI24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DG24" s="40" t="s">
+      <c r="DG24" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="DH24" s="36"/>
-      <c r="DI24" s="36"/>
-      <c r="DJ24" s="36"/>
-      <c r="DK24" s="36"/>
-      <c r="DL24" s="36"/>
-      <c r="DM24" s="36"/>
-      <c r="DN24" s="36"/>
-      <c r="DO24" s="36"/>
-      <c r="DP24" s="36"/>
-      <c r="DQ24" s="36"/>
-      <c r="DR24" s="36"/>
-      <c r="DS24" s="36"/>
-      <c r="DT24" s="36"/>
-      <c r="DU24" s="36"/>
-      <c r="DV24" s="36"/>
-      <c r="DW24" s="36"/>
-      <c r="DX24" s="36"/>
-      <c r="DY24" s="36"/>
-      <c r="DZ24" s="36"/>
-      <c r="EA24" s="36"/>
-      <c r="EB24" s="36"/>
-      <c r="EC24" s="36"/>
-      <c r="ED24" s="36"/>
-      <c r="EE24" s="36"/>
-      <c r="EF24" s="36"/>
-      <c r="EG24" s="36"/>
-      <c r="EH24" s="45" t="s">
+      <c r="DH24" s="38"/>
+      <c r="DI24" s="38"/>
+      <c r="DJ24" s="38"/>
+      <c r="DK24" s="38"/>
+      <c r="DL24" s="38"/>
+      <c r="DM24" s="38"/>
+      <c r="DN24" s="38"/>
+      <c r="DO24" s="38"/>
+      <c r="DP24" s="38"/>
+      <c r="DQ24" s="38"/>
+      <c r="DR24" s="38"/>
+      <c r="DS24" s="38"/>
+      <c r="DT24" s="38"/>
+      <c r="DU24" s="38"/>
+      <c r="DV24" s="38"/>
+      <c r="DW24" s="38"/>
+      <c r="DX24" s="38"/>
+      <c r="DY24" s="38"/>
+      <c r="DZ24" s="38"/>
+      <c r="EA24" s="38"/>
+      <c r="EB24" s="38"/>
+      <c r="EC24" s="38"/>
+      <c r="ED24" s="38"/>
+      <c r="EE24" s="38"/>
+      <c r="EF24" s="38"/>
+      <c r="EG24" s="38"/>
+      <c r="EH24" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="EI24" s="38"/>
-      <c r="EJ24" s="38"/>
-      <c r="EK24" s="38"/>
-      <c r="EL24" s="38"/>
-      <c r="EM24" s="38"/>
-      <c r="EN24" s="38"/>
-      <c r="EO24" s="38"/>
-      <c r="EP24" s="38"/>
-      <c r="EQ24" s="38"/>
-      <c r="ER24" s="38"/>
-      <c r="ES24" s="38"/>
-      <c r="ET24" s="38"/>
-      <c r="EU24" s="38"/>
-      <c r="EV24" s="38"/>
-      <c r="EW24" s="38"/>
-      <c r="EX24" s="38"/>
-      <c r="EY24" s="38"/>
-      <c r="EZ24" s="38"/>
-      <c r="FA24" s="38"/>
-      <c r="FB24" s="38"/>
-      <c r="FC24" s="38"/>
-      <c r="FD24" s="38"/>
-      <c r="FE24" s="38"/>
-      <c r="FF24" s="38"/>
-      <c r="FG24" s="38"/>
-      <c r="FH24" s="38"/>
-      <c r="FI24" s="38"/>
-      <c r="FJ24" s="38"/>
-      <c r="FK24" s="38"/>
-      <c r="FL24" s="38"/>
-      <c r="FM24" s="38"/>
-      <c r="FN24" s="38"/>
+      <c r="EI24" s="36"/>
+      <c r="EJ24" s="36"/>
+      <c r="EK24" s="36"/>
+      <c r="EL24" s="36"/>
+      <c r="EM24" s="36"/>
+      <c r="EN24" s="36"/>
+      <c r="EO24" s="36"/>
+      <c r="EP24" s="36"/>
+      <c r="EQ24" s="36"/>
+      <c r="ER24" s="36"/>
+      <c r="ES24" s="36"/>
+      <c r="ET24" s="36"/>
+      <c r="EU24" s="36"/>
+      <c r="EV24" s="36"/>
+      <c r="EW24" s="36"/>
+      <c r="EX24" s="36"/>
+      <c r="EY24" s="36"/>
+      <c r="EZ24" s="36"/>
+      <c r="FA24" s="36"/>
+      <c r="FB24" s="36"/>
+      <c r="FC24" s="36"/>
+      <c r="FD24" s="36"/>
+      <c r="FE24" s="36"/>
+      <c r="FF24" s="36"/>
+      <c r="FG24" s="36"/>
+      <c r="FH24" s="36"/>
+      <c r="FI24" s="36"/>
+      <c r="FJ24" s="36"/>
+      <c r="FK24" s="36"/>
+      <c r="FL24" s="36"/>
+      <c r="FM24" s="36"/>
+      <c r="FN24" s="36"/>
     </row>
     <row r="25" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="38"/>
-      <c r="BG26" s="38"/>
-      <c r="BH26" s="38"/>
-      <c r="BI26" s="38"/>
-      <c r="BJ26" s="38"/>
-      <c r="BK26" s="38"/>
-      <c r="BL26" s="38"/>
-      <c r="BM26" s="38"/>
-      <c r="BN26" s="38"/>
-      <c r="BO26" s="38"/>
-      <c r="BP26" s="38"/>
-      <c r="BQ26" s="38"/>
-      <c r="BR26" s="38"/>
-      <c r="BS26" s="38"/>
-      <c r="BT26" s="38"/>
-      <c r="BU26" s="38"/>
-      <c r="BV26" s="38"/>
-      <c r="BW26" s="38"/>
-      <c r="BX26" s="38"/>
-      <c r="BY26" s="38"/>
-      <c r="BZ26" s="38"/>
-      <c r="CA26" s="38"/>
-      <c r="CB26" s="38"/>
-      <c r="CC26" s="38"/>
-      <c r="CD26" s="38"/>
-      <c r="CE26" s="38"/>
-      <c r="CF26" s="38"/>
-      <c r="CG26" s="38"/>
-      <c r="CH26" s="38"/>
-      <c r="CI26" s="38"/>
-      <c r="CJ26" s="37" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
+      <c r="AR26" s="36"/>
+      <c r="AS26" s="36"/>
+      <c r="AT26" s="36"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="36"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="36"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="36"/>
+      <c r="BP26" s="36"/>
+      <c r="BQ26" s="36"/>
+      <c r="BR26" s="36"/>
+      <c r="BS26" s="36"/>
+      <c r="BT26" s="36"/>
+      <c r="BU26" s="36"/>
+      <c r="BV26" s="36"/>
+      <c r="BW26" s="36"/>
+      <c r="BX26" s="36"/>
+      <c r="BY26" s="36"/>
+      <c r="BZ26" s="36"/>
+      <c r="CA26" s="36"/>
+      <c r="CB26" s="36"/>
+      <c r="CC26" s="36"/>
+      <c r="CD26" s="36"/>
+      <c r="CE26" s="36"/>
+      <c r="CF26" s="36"/>
+      <c r="CG26" s="36"/>
+      <c r="CH26" s="36"/>
+      <c r="CI26" s="36"/>
+      <c r="CJ26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="CK26" s="38"/>
-      <c r="CL26" s="38"/>
-      <c r="CM26" s="38"/>
-      <c r="CN26" s="38"/>
-      <c r="CO26" s="38"/>
-      <c r="CP26" s="38"/>
-      <c r="CQ26" s="38"/>
-      <c r="CR26" s="38"/>
-      <c r="CS26" s="38"/>
-      <c r="CT26" s="38"/>
-      <c r="CU26" s="38"/>
-      <c r="CV26" s="38"/>
-      <c r="CW26" s="38"/>
-      <c r="CX26" s="38"/>
-      <c r="CY26" s="38"/>
-      <c r="CZ26" s="38"/>
-      <c r="DA26" s="38"/>
-      <c r="DB26" s="38"/>
-      <c r="DC26" s="38"/>
-      <c r="DD26" s="38"/>
-      <c r="DE26" s="38"/>
-      <c r="DF26" s="38"/>
-      <c r="DG26" s="38"/>
-      <c r="DH26" s="38"/>
-      <c r="DI26" s="38"/>
-      <c r="DJ26" s="38"/>
-      <c r="DK26" s="38"/>
-      <c r="DL26" s="38"/>
-      <c r="DM26" s="38"/>
-      <c r="DN26" s="38"/>
-      <c r="DO26" s="38"/>
-      <c r="DP26" s="38"/>
-      <c r="DQ26" s="38"/>
-      <c r="DR26" s="38"/>
-      <c r="DS26" s="38"/>
-      <c r="DT26" s="38"/>
-      <c r="DU26" s="38"/>
-      <c r="DV26" s="38"/>
-      <c r="DW26" s="38"/>
-      <c r="DX26" s="38"/>
-      <c r="DY26" s="38"/>
-      <c r="DZ26" s="38"/>
-      <c r="EA26" s="38"/>
-      <c r="EB26" s="38"/>
-      <c r="EC26" s="38"/>
-      <c r="ED26" s="38"/>
-      <c r="EE26" s="38"/>
-      <c r="EF26" s="38"/>
-      <c r="EG26" s="38"/>
-      <c r="EH26" s="38"/>
-      <c r="EI26" s="38"/>
-      <c r="EJ26" s="38"/>
-      <c r="EK26" s="38"/>
-      <c r="EL26" s="38"/>
-      <c r="EM26" s="38"/>
-      <c r="EN26" s="38"/>
-      <c r="EO26" s="38"/>
-      <c r="EP26" s="38"/>
-      <c r="EQ26" s="38"/>
-      <c r="ER26" s="38"/>
-      <c r="ES26" s="38"/>
-      <c r="ET26" s="38"/>
-      <c r="EU26" s="38"/>
-      <c r="EV26" s="38"/>
-      <c r="EW26" s="38"/>
-      <c r="EX26" s="38"/>
-      <c r="EY26" s="38"/>
-      <c r="EZ26" s="38"/>
-      <c r="FA26" s="38"/>
-      <c r="FB26" s="38"/>
-      <c r="FC26" s="38"/>
-      <c r="FD26" s="38"/>
-      <c r="FE26" s="38"/>
-      <c r="FF26" s="38"/>
-      <c r="FG26" s="38"/>
-      <c r="FH26" s="38"/>
-      <c r="FI26" s="38"/>
-      <c r="FJ26" s="38"/>
-      <c r="FK26" s="38"/>
-      <c r="FL26" s="38"/>
-      <c r="FM26" s="38"/>
-      <c r="FN26" s="38"/>
+      <c r="CK26" s="36"/>
+      <c r="CL26" s="36"/>
+      <c r="CM26" s="36"/>
+      <c r="CN26" s="36"/>
+      <c r="CO26" s="36"/>
+      <c r="CP26" s="36"/>
+      <c r="CQ26" s="36"/>
+      <c r="CR26" s="36"/>
+      <c r="CS26" s="36"/>
+      <c r="CT26" s="36"/>
+      <c r="CU26" s="36"/>
+      <c r="CV26" s="36"/>
+      <c r="CW26" s="36"/>
+      <c r="CX26" s="36"/>
+      <c r="CY26" s="36"/>
+      <c r="CZ26" s="36"/>
+      <c r="DA26" s="36"/>
+      <c r="DB26" s="36"/>
+      <c r="DC26" s="36"/>
+      <c r="DD26" s="36"/>
+      <c r="DE26" s="36"/>
+      <c r="DF26" s="36"/>
+      <c r="DG26" s="36"/>
+      <c r="DH26" s="36"/>
+      <c r="DI26" s="36"/>
+      <c r="DJ26" s="36"/>
+      <c r="DK26" s="36"/>
+      <c r="DL26" s="36"/>
+      <c r="DM26" s="36"/>
+      <c r="DN26" s="36"/>
+      <c r="DO26" s="36"/>
+      <c r="DP26" s="36"/>
+      <c r="DQ26" s="36"/>
+      <c r="DR26" s="36"/>
+      <c r="DS26" s="36"/>
+      <c r="DT26" s="36"/>
+      <c r="DU26" s="36"/>
+      <c r="DV26" s="36"/>
+      <c r="DW26" s="36"/>
+      <c r="DX26" s="36"/>
+      <c r="DY26" s="36"/>
+      <c r="DZ26" s="36"/>
+      <c r="EA26" s="36"/>
+      <c r="EB26" s="36"/>
+      <c r="EC26" s="36"/>
+      <c r="ED26" s="36"/>
+      <c r="EE26" s="36"/>
+      <c r="EF26" s="36"/>
+      <c r="EG26" s="36"/>
+      <c r="EH26" s="36"/>
+      <c r="EI26" s="36"/>
+      <c r="EJ26" s="36"/>
+      <c r="EK26" s="36"/>
+      <c r="EL26" s="36"/>
+      <c r="EM26" s="36"/>
+      <c r="EN26" s="36"/>
+      <c r="EO26" s="36"/>
+      <c r="EP26" s="36"/>
+      <c r="EQ26" s="36"/>
+      <c r="ER26" s="36"/>
+      <c r="ES26" s="36"/>
+      <c r="ET26" s="36"/>
+      <c r="EU26" s="36"/>
+      <c r="EV26" s="36"/>
+      <c r="EW26" s="36"/>
+      <c r="EX26" s="36"/>
+      <c r="EY26" s="36"/>
+      <c r="EZ26" s="36"/>
+      <c r="FA26" s="36"/>
+      <c r="FB26" s="36"/>
+      <c r="FC26" s="36"/>
+      <c r="FD26" s="36"/>
+      <c r="FE26" s="36"/>
+      <c r="FF26" s="36"/>
+      <c r="FG26" s="36"/>
+      <c r="FH26" s="36"/>
+      <c r="FI26" s="36"/>
+      <c r="FJ26" s="36"/>
+      <c r="FK26" s="36"/>
+      <c r="FL26" s="36"/>
+      <c r="FM26" s="36"/>
+      <c r="FN26" s="36"/>
     </row>
     <row r="27" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="38"/>
-      <c r="BA27" s="38"/>
-      <c r="BB27" s="38"/>
-      <c r="BC27" s="38"/>
-      <c r="BD27" s="38"/>
-      <c r="BE27" s="38"/>
-      <c r="BF27" s="38"/>
-      <c r="BG27" s="38"/>
-      <c r="BH27" s="38"/>
-      <c r="BI27" s="38"/>
-      <c r="BJ27" s="38"/>
-      <c r="BK27" s="38"/>
-      <c r="BL27" s="38"/>
-      <c r="BM27" s="38"/>
-      <c r="BN27" s="38"/>
-      <c r="BO27" s="38"/>
-      <c r="BP27" s="38"/>
-      <c r="BQ27" s="38"/>
-      <c r="BR27" s="38"/>
-      <c r="BS27" s="38"/>
-      <c r="BT27" s="38"/>
-      <c r="BU27" s="38"/>
-      <c r="BV27" s="38"/>
-      <c r="BW27" s="38"/>
-      <c r="BX27" s="38"/>
-      <c r="BY27" s="38"/>
-      <c r="BZ27" s="38"/>
-      <c r="CA27" s="38"/>
-      <c r="CB27" s="38"/>
-      <c r="CC27" s="38"/>
-      <c r="CD27" s="38"/>
-      <c r="CE27" s="38"/>
-      <c r="CF27" s="38"/>
-      <c r="CG27" s="38"/>
-      <c r="CH27" s="38"/>
-      <c r="CI27" s="38"/>
-      <c r="CJ27" s="38"/>
-      <c r="CK27" s="38"/>
-      <c r="CL27" s="38"/>
-      <c r="CM27" s="38"/>
-      <c r="CN27" s="38"/>
-      <c r="CO27" s="38"/>
-      <c r="CP27" s="38"/>
-      <c r="CQ27" s="38"/>
-      <c r="CR27" s="38"/>
-      <c r="CS27" s="38"/>
-      <c r="CT27" s="38"/>
-      <c r="CU27" s="38"/>
-      <c r="CV27" s="38"/>
-      <c r="CW27" s="38"/>
-      <c r="CX27" s="38"/>
-      <c r="CY27" s="38"/>
-      <c r="CZ27" s="38"/>
-      <c r="DA27" s="38"/>
-      <c r="DB27" s="38"/>
-      <c r="DC27" s="38"/>
-      <c r="DD27" s="38"/>
-      <c r="DE27" s="38"/>
-      <c r="DF27" s="38"/>
-      <c r="DG27" s="38"/>
-      <c r="DH27" s="38"/>
-      <c r="DI27" s="38"/>
-      <c r="DJ27" s="38"/>
-      <c r="DK27" s="38"/>
-      <c r="DL27" s="38"/>
-      <c r="DM27" s="38"/>
-      <c r="DN27" s="38"/>
-      <c r="DO27" s="38"/>
-      <c r="DP27" s="38"/>
-      <c r="DQ27" s="38"/>
-      <c r="DR27" s="38"/>
-      <c r="DS27" s="38"/>
-      <c r="DT27" s="38"/>
-      <c r="DU27" s="38"/>
-      <c r="DV27" s="38"/>
-      <c r="DW27" s="38"/>
-      <c r="DX27" s="38"/>
-      <c r="DY27" s="38"/>
-      <c r="DZ27" s="38"/>
-      <c r="EA27" s="38"/>
-      <c r="EB27" s="38"/>
-      <c r="EC27" s="38"/>
-      <c r="ED27" s="38"/>
-      <c r="EE27" s="38"/>
-      <c r="EF27" s="38"/>
-      <c r="EG27" s="38"/>
-      <c r="EH27" s="38"/>
-      <c r="EI27" s="38"/>
-      <c r="EJ27" s="38"/>
-      <c r="EK27" s="38"/>
-      <c r="EL27" s="38"/>
-      <c r="EM27" s="38"/>
-      <c r="EN27" s="38"/>
-      <c r="EO27" s="38"/>
-      <c r="EP27" s="38"/>
-      <c r="EQ27" s="38"/>
-      <c r="ER27" s="38"/>
-      <c r="ES27" s="38"/>
-      <c r="ET27" s="38"/>
-      <c r="EU27" s="38"/>
-      <c r="EV27" s="38"/>
-      <c r="EW27" s="38"/>
-      <c r="EX27" s="38"/>
-      <c r="EY27" s="38"/>
-      <c r="EZ27" s="38"/>
-      <c r="FA27" s="38"/>
-      <c r="FB27" s="38"/>
-      <c r="FC27" s="38"/>
-      <c r="FD27" s="38"/>
-      <c r="FE27" s="38"/>
-      <c r="FF27" s="38"/>
-      <c r="FG27" s="38"/>
-      <c r="FH27" s="38"/>
-      <c r="FI27" s="38"/>
-      <c r="FJ27" s="38"/>
-      <c r="FK27" s="38"/>
-      <c r="FL27" s="38"/>
-      <c r="FM27" s="38"/>
-      <c r="FN27" s="38"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="36"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+      <c r="BR27" s="36"/>
+      <c r="BS27" s="36"/>
+      <c r="BT27" s="36"/>
+      <c r="BU27" s="36"/>
+      <c r="BV27" s="36"/>
+      <c r="BW27" s="36"/>
+      <c r="BX27" s="36"/>
+      <c r="BY27" s="36"/>
+      <c r="BZ27" s="36"/>
+      <c r="CA27" s="36"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="36"/>
+      <c r="CD27" s="36"/>
+      <c r="CE27" s="36"/>
+      <c r="CF27" s="36"/>
+      <c r="CG27" s="36"/>
+      <c r="CH27" s="36"/>
+      <c r="CI27" s="36"/>
+      <c r="CJ27" s="36"/>
+      <c r="CK27" s="36"/>
+      <c r="CL27" s="36"/>
+      <c r="CM27" s="36"/>
+      <c r="CN27" s="36"/>
+      <c r="CO27" s="36"/>
+      <c r="CP27" s="36"/>
+      <c r="CQ27" s="36"/>
+      <c r="CR27" s="36"/>
+      <c r="CS27" s="36"/>
+      <c r="CT27" s="36"/>
+      <c r="CU27" s="36"/>
+      <c r="CV27" s="36"/>
+      <c r="CW27" s="36"/>
+      <c r="CX27" s="36"/>
+      <c r="CY27" s="36"/>
+      <c r="CZ27" s="36"/>
+      <c r="DA27" s="36"/>
+      <c r="DB27" s="36"/>
+      <c r="DC27" s="36"/>
+      <c r="DD27" s="36"/>
+      <c r="DE27" s="36"/>
+      <c r="DF27" s="36"/>
+      <c r="DG27" s="36"/>
+      <c r="DH27" s="36"/>
+      <c r="DI27" s="36"/>
+      <c r="DJ27" s="36"/>
+      <c r="DK27" s="36"/>
+      <c r="DL27" s="36"/>
+      <c r="DM27" s="36"/>
+      <c r="DN27" s="36"/>
+      <c r="DO27" s="36"/>
+      <c r="DP27" s="36"/>
+      <c r="DQ27" s="36"/>
+      <c r="DR27" s="36"/>
+      <c r="DS27" s="36"/>
+      <c r="DT27" s="36"/>
+      <c r="DU27" s="36"/>
+      <c r="DV27" s="36"/>
+      <c r="DW27" s="36"/>
+      <c r="DX27" s="36"/>
+      <c r="DY27" s="36"/>
+      <c r="DZ27" s="36"/>
+      <c r="EA27" s="36"/>
+      <c r="EB27" s="36"/>
+      <c r="EC27" s="36"/>
+      <c r="ED27" s="36"/>
+      <c r="EE27" s="36"/>
+      <c r="EF27" s="36"/>
+      <c r="EG27" s="36"/>
+      <c r="EH27" s="36"/>
+      <c r="EI27" s="36"/>
+      <c r="EJ27" s="36"/>
+      <c r="EK27" s="36"/>
+      <c r="EL27" s="36"/>
+      <c r="EM27" s="36"/>
+      <c r="EN27" s="36"/>
+      <c r="EO27" s="36"/>
+      <c r="EP27" s="36"/>
+      <c r="EQ27" s="36"/>
+      <c r="ER27" s="36"/>
+      <c r="ES27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="EV27" s="36"/>
+      <c r="EW27" s="36"/>
+      <c r="EX27" s="36"/>
+      <c r="EY27" s="36"/>
+      <c r="EZ27" s="36"/>
+      <c r="FA27" s="36"/>
+      <c r="FB27" s="36"/>
+      <c r="FC27" s="36"/>
+      <c r="FD27" s="36"/>
+      <c r="FE27" s="36"/>
+      <c r="FF27" s="36"/>
+      <c r="FG27" s="36"/>
+      <c r="FH27" s="36"/>
+      <c r="FI27" s="36"/>
+      <c r="FJ27" s="36"/>
+      <c r="FK27" s="36"/>
+      <c r="FL27" s="36"/>
+      <c r="FM27" s="36"/>
+      <c r="FN27" s="36"/>
     </row>
     <row r="28" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="37" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="38"/>
-      <c r="BI28" s="38"/>
-      <c r="BJ28" s="38"/>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="38"/>
-      <c r="BM28" s="38"/>
-      <c r="BN28" s="38"/>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="38"/>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="38"/>
-      <c r="CA28" s="38"/>
-      <c r="CB28" s="38"/>
-      <c r="CC28" s="38"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="38"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="38"/>
-      <c r="CH28" s="38"/>
-      <c r="CI28" s="38"/>
-      <c r="CJ28" s="38"/>
-      <c r="CK28" s="38"/>
-      <c r="CL28" s="38"/>
-      <c r="CM28" s="38"/>
-      <c r="CN28" s="38"/>
-      <c r="CO28" s="38"/>
-      <c r="CP28" s="38"/>
-      <c r="CQ28" s="38"/>
-      <c r="CR28" s="38"/>
-      <c r="CS28" s="38"/>
-      <c r="CT28" s="38"/>
-      <c r="CU28" s="38"/>
-      <c r="CV28" s="38"/>
-      <c r="CW28" s="38"/>
-      <c r="CX28" s="38"/>
-      <c r="CY28" s="38"/>
-      <c r="CZ28" s="38"/>
-      <c r="DA28" s="38"/>
-      <c r="DB28" s="38"/>
-      <c r="DC28" s="38"/>
-      <c r="DD28" s="38"/>
-      <c r="DE28" s="38"/>
-      <c r="DF28" s="38"/>
-      <c r="DG28" s="38"/>
-      <c r="DH28" s="38"/>
-      <c r="DI28" s="38"/>
-      <c r="DJ28" s="38"/>
-      <c r="DK28" s="38"/>
-      <c r="DL28" s="38"/>
-      <c r="DM28" s="38"/>
-      <c r="DN28" s="38"/>
-      <c r="DO28" s="38"/>
-      <c r="DP28" s="38"/>
-      <c r="DQ28" s="38"/>
-      <c r="DR28" s="38"/>
-      <c r="DS28" s="38"/>
-      <c r="DT28" s="38"/>
-      <c r="DU28" s="38"/>
-      <c r="DV28" s="38"/>
-      <c r="DW28" s="38"/>
-      <c r="DX28" s="38"/>
-      <c r="DY28" s="38"/>
-      <c r="DZ28" s="38"/>
-      <c r="EA28" s="38"/>
-      <c r="EB28" s="38"/>
-      <c r="EC28" s="38"/>
-      <c r="ED28" s="38"/>
-      <c r="EE28" s="38"/>
-      <c r="EF28" s="38"/>
-      <c r="EG28" s="38"/>
-      <c r="EH28" s="38"/>
-      <c r="EI28" s="38"/>
-      <c r="EJ28" s="38"/>
-      <c r="EK28" s="38"/>
-      <c r="EL28" s="38"/>
-      <c r="EM28" s="38"/>
-      <c r="EN28" s="38"/>
-      <c r="EO28" s="38"/>
-      <c r="EP28" s="38"/>
-      <c r="EQ28" s="38"/>
-      <c r="ER28" s="38"/>
-      <c r="ES28" s="38"/>
-      <c r="ET28" s="38"/>
-      <c r="EU28" s="38"/>
-      <c r="EV28" s="38"/>
-      <c r="EW28" s="38"/>
-      <c r="EX28" s="38"/>
-      <c r="EY28" s="38"/>
-      <c r="EZ28" s="38"/>
-      <c r="FA28" s="38"/>
-      <c r="FB28" s="38"/>
-      <c r="FC28" s="38"/>
-      <c r="FD28" s="38"/>
-      <c r="FE28" s="38"/>
-      <c r="FF28" s="38"/>
-      <c r="FG28" s="38"/>
-      <c r="FH28" s="38"/>
-      <c r="FI28" s="38"/>
-      <c r="FJ28" s="38"/>
-      <c r="FK28" s="38"/>
-      <c r="FL28" s="38"/>
-      <c r="FM28" s="38"/>
-      <c r="FN28" s="38"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="36"/>
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="36"/>
+      <c r="BW28" s="36"/>
+      <c r="BX28" s="36"/>
+      <c r="BY28" s="36"/>
+      <c r="BZ28" s="36"/>
+      <c r="CA28" s="36"/>
+      <c r="CB28" s="36"/>
+      <c r="CC28" s="36"/>
+      <c r="CD28" s="36"/>
+      <c r="CE28" s="36"/>
+      <c r="CF28" s="36"/>
+      <c r="CG28" s="36"/>
+      <c r="CH28" s="36"/>
+      <c r="CI28" s="36"/>
+      <c r="CJ28" s="36"/>
+      <c r="CK28" s="36"/>
+      <c r="CL28" s="36"/>
+      <c r="CM28" s="36"/>
+      <c r="CN28" s="36"/>
+      <c r="CO28" s="36"/>
+      <c r="CP28" s="36"/>
+      <c r="CQ28" s="36"/>
+      <c r="CR28" s="36"/>
+      <c r="CS28" s="36"/>
+      <c r="CT28" s="36"/>
+      <c r="CU28" s="36"/>
+      <c r="CV28" s="36"/>
+      <c r="CW28" s="36"/>
+      <c r="CX28" s="36"/>
+      <c r="CY28" s="36"/>
+      <c r="CZ28" s="36"/>
+      <c r="DA28" s="36"/>
+      <c r="DB28" s="36"/>
+      <c r="DC28" s="36"/>
+      <c r="DD28" s="36"/>
+      <c r="DE28" s="36"/>
+      <c r="DF28" s="36"/>
+      <c r="DG28" s="36"/>
+      <c r="DH28" s="36"/>
+      <c r="DI28" s="36"/>
+      <c r="DJ28" s="36"/>
+      <c r="DK28" s="36"/>
+      <c r="DL28" s="36"/>
+      <c r="DM28" s="36"/>
+      <c r="DN28" s="36"/>
+      <c r="DO28" s="36"/>
+      <c r="DP28" s="36"/>
+      <c r="DQ28" s="36"/>
+      <c r="DR28" s="36"/>
+      <c r="DS28" s="36"/>
+      <c r="DT28" s="36"/>
+      <c r="DU28" s="36"/>
+      <c r="DV28" s="36"/>
+      <c r="DW28" s="36"/>
+      <c r="DX28" s="36"/>
+      <c r="DY28" s="36"/>
+      <c r="DZ28" s="36"/>
+      <c r="EA28" s="36"/>
+      <c r="EB28" s="36"/>
+      <c r="EC28" s="36"/>
+      <c r="ED28" s="36"/>
+      <c r="EE28" s="36"/>
+      <c r="EF28" s="36"/>
+      <c r="EG28" s="36"/>
+      <c r="EH28" s="36"/>
+      <c r="EI28" s="36"/>
+      <c r="EJ28" s="36"/>
+      <c r="EK28" s="36"/>
+      <c r="EL28" s="36"/>
+      <c r="EM28" s="36"/>
+      <c r="EN28" s="36"/>
+      <c r="EO28" s="36"/>
+      <c r="EP28" s="36"/>
+      <c r="EQ28" s="36"/>
+      <c r="ER28" s="36"/>
+      <c r="ES28" s="36"/>
+      <c r="ET28" s="36"/>
+      <c r="EU28" s="36"/>
+      <c r="EV28" s="36"/>
+      <c r="EW28" s="36"/>
+      <c r="EX28" s="36"/>
+      <c r="EY28" s="36"/>
+      <c r="EZ28" s="36"/>
+      <c r="FA28" s="36"/>
+      <c r="FB28" s="36"/>
+      <c r="FC28" s="36"/>
+      <c r="FD28" s="36"/>
+      <c r="FE28" s="36"/>
+      <c r="FF28" s="36"/>
+      <c r="FG28" s="36"/>
+      <c r="FH28" s="36"/>
+      <c r="FI28" s="36"/>
+      <c r="FJ28" s="36"/>
+      <c r="FK28" s="36"/>
+      <c r="FL28" s="36"/>
+      <c r="FM28" s="36"/>
+      <c r="FN28" s="36"/>
     </row>
     <row r="29" spans="1:170" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
-      <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
-      <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="38"/>
-      <c r="CF29" s="38"/>
-      <c r="CG29" s="38"/>
-      <c r="CH29" s="38"/>
-      <c r="CI29" s="38"/>
-      <c r="CJ29" s="38"/>
-      <c r="CK29" s="38"/>
-      <c r="CL29" s="38"/>
-      <c r="CM29" s="38"/>
-      <c r="CN29" s="38"/>
-      <c r="CO29" s="38"/>
-      <c r="CP29" s="38"/>
-      <c r="CQ29" s="38"/>
-      <c r="CR29" s="38"/>
-      <c r="CS29" s="38"/>
-      <c r="CT29" s="38"/>
-      <c r="CU29" s="38"/>
-      <c r="CV29" s="38"/>
-      <c r="CW29" s="38"/>
-      <c r="CX29" s="38"/>
-      <c r="CY29" s="38"/>
-      <c r="CZ29" s="38"/>
-      <c r="DA29" s="38"/>
-      <c r="DB29" s="38"/>
-      <c r="DC29" s="38"/>
-      <c r="DD29" s="38"/>
-      <c r="DE29" s="38"/>
-      <c r="DF29" s="38"/>
-      <c r="DG29" s="38"/>
-      <c r="DH29" s="38"/>
-      <c r="DI29" s="38"/>
-      <c r="DJ29" s="38"/>
-      <c r="DK29" s="38"/>
-      <c r="DL29" s="38"/>
-      <c r="DM29" s="38"/>
-      <c r="DN29" s="38"/>
-      <c r="DO29" s="38"/>
-      <c r="DP29" s="38"/>
-      <c r="DQ29" s="38"/>
-      <c r="DR29" s="38"/>
-      <c r="DS29" s="38"/>
-      <c r="DT29" s="38"/>
-      <c r="DU29" s="38"/>
-      <c r="DV29" s="38"/>
-      <c r="DW29" s="38"/>
-      <c r="DX29" s="38"/>
-      <c r="DY29" s="38"/>
-      <c r="DZ29" s="38"/>
-      <c r="EA29" s="38"/>
-      <c r="EB29" s="38"/>
-      <c r="EC29" s="38"/>
-      <c r="ED29" s="38"/>
-      <c r="EE29" s="38"/>
-      <c r="EF29" s="38"/>
-      <c r="EG29" s="38"/>
-      <c r="EH29" s="38"/>
-      <c r="EI29" s="38"/>
-      <c r="EJ29" s="38"/>
-      <c r="EK29" s="38"/>
-      <c r="EL29" s="38"/>
-      <c r="EM29" s="38"/>
-      <c r="EN29" s="38"/>
-      <c r="EO29" s="38"/>
-      <c r="EP29" s="38"/>
-      <c r="EQ29" s="38"/>
-      <c r="ER29" s="38"/>
-      <c r="ES29" s="38"/>
-      <c r="ET29" s="38"/>
-      <c r="EU29" s="38"/>
-      <c r="EV29" s="38"/>
-      <c r="EW29" s="38"/>
-      <c r="EX29" s="38"/>
-      <c r="EY29" s="38"/>
-      <c r="EZ29" s="38"/>
-      <c r="FA29" s="38"/>
-      <c r="FB29" s="38"/>
-      <c r="FC29" s="38"/>
-      <c r="FD29" s="38"/>
-      <c r="FE29" s="38"/>
-      <c r="FF29" s="38"/>
-      <c r="FG29" s="38"/>
-      <c r="FH29" s="38"/>
-      <c r="FI29" s="38"/>
-      <c r="FJ29" s="38"/>
-      <c r="FK29" s="38"/>
-      <c r="FL29" s="38"/>
-      <c r="FM29" s="38"/>
-      <c r="FN29" s="38"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+      <c r="BR29" s="36"/>
+      <c r="BS29" s="36"/>
+      <c r="BT29" s="36"/>
+      <c r="BU29" s="36"/>
+      <c r="BV29" s="36"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="36"/>
+      <c r="BY29" s="36"/>
+      <c r="BZ29" s="36"/>
+      <c r="CA29" s="36"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="36"/>
+      <c r="CD29" s="36"/>
+      <c r="CE29" s="36"/>
+      <c r="CF29" s="36"/>
+      <c r="CG29" s="36"/>
+      <c r="CH29" s="36"/>
+      <c r="CI29" s="36"/>
+      <c r="CJ29" s="36"/>
+      <c r="CK29" s="36"/>
+      <c r="CL29" s="36"/>
+      <c r="CM29" s="36"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="36"/>
+      <c r="CP29" s="36"/>
+      <c r="CQ29" s="36"/>
+      <c r="CR29" s="36"/>
+      <c r="CS29" s="36"/>
+      <c r="CT29" s="36"/>
+      <c r="CU29" s="36"/>
+      <c r="CV29" s="36"/>
+      <c r="CW29" s="36"/>
+      <c r="CX29" s="36"/>
+      <c r="CY29" s="36"/>
+      <c r="CZ29" s="36"/>
+      <c r="DA29" s="36"/>
+      <c r="DB29" s="36"/>
+      <c r="DC29" s="36"/>
+      <c r="DD29" s="36"/>
+      <c r="DE29" s="36"/>
+      <c r="DF29" s="36"/>
+      <c r="DG29" s="36"/>
+      <c r="DH29" s="36"/>
+      <c r="DI29" s="36"/>
+      <c r="DJ29" s="36"/>
+      <c r="DK29" s="36"/>
+      <c r="DL29" s="36"/>
+      <c r="DM29" s="36"/>
+      <c r="DN29" s="36"/>
+      <c r="DO29" s="36"/>
+      <c r="DP29" s="36"/>
+      <c r="DQ29" s="36"/>
+      <c r="DR29" s="36"/>
+      <c r="DS29" s="36"/>
+      <c r="DT29" s="36"/>
+      <c r="DU29" s="36"/>
+      <c r="DV29" s="36"/>
+      <c r="DW29" s="36"/>
+      <c r="DX29" s="36"/>
+      <c r="DY29" s="36"/>
+      <c r="DZ29" s="36"/>
+      <c r="EA29" s="36"/>
+      <c r="EB29" s="36"/>
+      <c r="EC29" s="36"/>
+      <c r="ED29" s="36"/>
+      <c r="EE29" s="36"/>
+      <c r="EF29" s="36"/>
+      <c r="EG29" s="36"/>
+      <c r="EH29" s="36"/>
+      <c r="EI29" s="36"/>
+      <c r="EJ29" s="36"/>
+      <c r="EK29" s="36"/>
+      <c r="EL29" s="36"/>
+      <c r="EM29" s="36"/>
+      <c r="EN29" s="36"/>
+      <c r="EO29" s="36"/>
+      <c r="EP29" s="36"/>
+      <c r="EQ29" s="36"/>
+      <c r="ER29" s="36"/>
+      <c r="ES29" s="36"/>
+      <c r="ET29" s="36"/>
+      <c r="EU29" s="36"/>
+      <c r="EV29" s="36"/>
+      <c r="EW29" s="36"/>
+      <c r="EX29" s="36"/>
+      <c r="EY29" s="36"/>
+      <c r="EZ29" s="36"/>
+      <c r="FA29" s="36"/>
+      <c r="FB29" s="36"/>
+      <c r="FC29" s="36"/>
+      <c r="FD29" s="36"/>
+      <c r="FE29" s="36"/>
+      <c r="FF29" s="36"/>
+      <c r="FG29" s="36"/>
+      <c r="FH29" s="36"/>
+      <c r="FI29" s="36"/>
+      <c r="FJ29" s="36"/>
+      <c r="FK29" s="36"/>
+      <c r="FL29" s="36"/>
+      <c r="FM29" s="36"/>
+      <c r="FN29" s="36"/>
     </row>
     <row r="30" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="36"/>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
-      <c r="BR30" s="36"/>
-      <c r="BS30" s="36"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="36"/>
-      <c r="BW30" s="36"/>
-      <c r="BX30" s="36"/>
-      <c r="BY30" s="36"/>
-      <c r="BZ30" s="36"/>
-      <c r="CA30" s="36"/>
-      <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
-      <c r="CD30" s="36"/>
-      <c r="CE30" s="36"/>
-      <c r="CF30" s="36"/>
-      <c r="CG30" s="36"/>
-      <c r="CH30" s="36"/>
-      <c r="CI30" s="36"/>
-      <c r="CJ30" s="36"/>
-      <c r="CK30" s="36"/>
-      <c r="CL30" s="36"/>
-      <c r="CM30" s="36"/>
-      <c r="CN30" s="36"/>
-      <c r="CO30" s="36"/>
-      <c r="CP30" s="36"/>
-      <c r="CQ30" s="36"/>
-      <c r="CR30" s="36"/>
-      <c r="CS30" s="36"/>
-      <c r="CT30" s="36"/>
-      <c r="CU30" s="36"/>
-      <c r="CV30" s="36"/>
-      <c r="CW30" s="36"/>
-      <c r="CX30" s="36"/>
-      <c r="CY30" s="36"/>
-      <c r="CZ30" s="36"/>
-      <c r="DA30" s="36"/>
-      <c r="DB30" s="36"/>
-      <c r="DC30" s="36"/>
-      <c r="DD30" s="36"/>
-      <c r="DE30" s="36"/>
-      <c r="DF30" s="36"/>
-      <c r="DG30" s="36"/>
-      <c r="DH30" s="36"/>
-      <c r="DI30" s="36"/>
-      <c r="DJ30" s="36"/>
-      <c r="DK30" s="36"/>
-      <c r="DL30" s="36"/>
-      <c r="DM30" s="36"/>
-      <c r="DN30" s="36"/>
-      <c r="DO30" s="36"/>
-      <c r="DP30" s="36"/>
-      <c r="DQ30" s="36"/>
-      <c r="DR30" s="36"/>
-      <c r="DS30" s="36"/>
-      <c r="DT30" s="36"/>
-      <c r="DU30" s="36"/>
-      <c r="DV30" s="36"/>
-      <c r="DW30" s="36"/>
-      <c r="DX30" s="36"/>
-      <c r="DY30" s="36"/>
-      <c r="DZ30" s="36"/>
-      <c r="EA30" s="36"/>
-      <c r="EB30" s="36"/>
-      <c r="EC30" s="36"/>
-      <c r="ED30" s="36"/>
-      <c r="EE30" s="36"/>
-      <c r="EF30" s="36"/>
-      <c r="EG30" s="36"/>
-      <c r="EH30" s="36"/>
-      <c r="EI30" s="36"/>
-      <c r="EJ30" s="36"/>
-      <c r="EK30" s="36"/>
-      <c r="EL30" s="36"/>
-      <c r="EM30" s="36"/>
-      <c r="EN30" s="36"/>
-      <c r="EO30" s="36"/>
-      <c r="EP30" s="36"/>
-      <c r="EQ30" s="36"/>
-      <c r="ER30" s="36"/>
-      <c r="ES30" s="36"/>
-      <c r="ET30" s="36"/>
-      <c r="EU30" s="36"/>
-      <c r="EV30" s="36"/>
-      <c r="EW30" s="36"/>
-      <c r="EX30" s="36"/>
-      <c r="EY30" s="36"/>
-      <c r="EZ30" s="36"/>
-      <c r="FA30" s="36"/>
-      <c r="FB30" s="36"/>
-      <c r="FC30" s="36"/>
-      <c r="FD30" s="36"/>
-      <c r="FE30" s="36"/>
-      <c r="FF30" s="36"/>
-      <c r="FG30" s="36"/>
-      <c r="FH30" s="36"/>
-      <c r="FI30" s="36"/>
-      <c r="FJ30" s="36"/>
-      <c r="FK30" s="36"/>
-      <c r="FL30" s="36"/>
-      <c r="FM30" s="36"/>
-      <c r="FN30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="38"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+      <c r="BO30" s="38"/>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="38"/>
+      <c r="BT30" s="38"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="38"/>
+      <c r="BW30" s="38"/>
+      <c r="BX30" s="38"/>
+      <c r="BY30" s="38"/>
+      <c r="BZ30" s="38"/>
+      <c r="CA30" s="38"/>
+      <c r="CB30" s="38"/>
+      <c r="CC30" s="38"/>
+      <c r="CD30" s="38"/>
+      <c r="CE30" s="38"/>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="38"/>
+      <c r="CH30" s="38"/>
+      <c r="CI30" s="38"/>
+      <c r="CJ30" s="38"/>
+      <c r="CK30" s="38"/>
+      <c r="CL30" s="38"/>
+      <c r="CM30" s="38"/>
+      <c r="CN30" s="38"/>
+      <c r="CO30" s="38"/>
+      <c r="CP30" s="38"/>
+      <c r="CQ30" s="38"/>
+      <c r="CR30" s="38"/>
+      <c r="CS30" s="38"/>
+      <c r="CT30" s="38"/>
+      <c r="CU30" s="38"/>
+      <c r="CV30" s="38"/>
+      <c r="CW30" s="38"/>
+      <c r="CX30" s="38"/>
+      <c r="CY30" s="38"/>
+      <c r="CZ30" s="38"/>
+      <c r="DA30" s="38"/>
+      <c r="DB30" s="38"/>
+      <c r="DC30" s="38"/>
+      <c r="DD30" s="38"/>
+      <c r="DE30" s="38"/>
+      <c r="DF30" s="38"/>
+      <c r="DG30" s="38"/>
+      <c r="DH30" s="38"/>
+      <c r="DI30" s="38"/>
+      <c r="DJ30" s="38"/>
+      <c r="DK30" s="38"/>
+      <c r="DL30" s="38"/>
+      <c r="DM30" s="38"/>
+      <c r="DN30" s="38"/>
+      <c r="DO30" s="38"/>
+      <c r="DP30" s="38"/>
+      <c r="DQ30" s="38"/>
+      <c r="DR30" s="38"/>
+      <c r="DS30" s="38"/>
+      <c r="DT30" s="38"/>
+      <c r="DU30" s="38"/>
+      <c r="DV30" s="38"/>
+      <c r="DW30" s="38"/>
+      <c r="DX30" s="38"/>
+      <c r="DY30" s="38"/>
+      <c r="DZ30" s="38"/>
+      <c r="EA30" s="38"/>
+      <c r="EB30" s="38"/>
+      <c r="EC30" s="38"/>
+      <c r="ED30" s="38"/>
+      <c r="EE30" s="38"/>
+      <c r="EF30" s="38"/>
+      <c r="EG30" s="38"/>
+      <c r="EH30" s="38"/>
+      <c r="EI30" s="38"/>
+      <c r="EJ30" s="38"/>
+      <c r="EK30" s="38"/>
+      <c r="EL30" s="38"/>
+      <c r="EM30" s="38"/>
+      <c r="EN30" s="38"/>
+      <c r="EO30" s="38"/>
+      <c r="EP30" s="38"/>
+      <c r="EQ30" s="38"/>
+      <c r="ER30" s="38"/>
+      <c r="ES30" s="38"/>
+      <c r="ET30" s="38"/>
+      <c r="EU30" s="38"/>
+      <c r="EV30" s="38"/>
+      <c r="EW30" s="38"/>
+      <c r="EX30" s="38"/>
+      <c r="EY30" s="38"/>
+      <c r="EZ30" s="38"/>
+      <c r="FA30" s="38"/>
+      <c r="FB30" s="38"/>
+      <c r="FC30" s="38"/>
+      <c r="FD30" s="38"/>
+      <c r="FE30" s="38"/>
+      <c r="FF30" s="38"/>
+      <c r="FG30" s="38"/>
+      <c r="FH30" s="38"/>
+      <c r="FI30" s="38"/>
+      <c r="FJ30" s="38"/>
+      <c r="FK30" s="38"/>
+      <c r="FL30" s="38"/>
+      <c r="FM30" s="38"/>
+      <c r="FN30" s="38"/>
     </row>
     <row r="31" spans="1:170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4776,62 +4776,6 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="EJ17:EM17"/>
-    <mergeCell ref="EN17:EP17"/>
-    <mergeCell ref="EQ17:ET17"/>
-    <mergeCell ref="EU17:FN17"/>
-    <mergeCell ref="FM12:FN12"/>
-    <mergeCell ref="CJ16:FN16"/>
-    <mergeCell ref="CV17:EI17"/>
-    <mergeCell ref="FI12:FL12"/>
-    <mergeCell ref="FE12:FH12"/>
-    <mergeCell ref="EJ12:EK12"/>
-    <mergeCell ref="EL12:EO12"/>
-    <mergeCell ref="EP12:EQ12"/>
-    <mergeCell ref="ER12:FD12"/>
-    <mergeCell ref="CA12:CD12"/>
-    <mergeCell ref="BA11:CF11"/>
-    <mergeCell ref="AW10:CF10"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="DW11:EH11"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BJ12:BV12"/>
-    <mergeCell ref="BW12:BZ12"/>
-    <mergeCell ref="EI11:FN11"/>
-    <mergeCell ref="A1:FN1"/>
-    <mergeCell ref="A2:FN2"/>
-    <mergeCell ref="A3:FN3"/>
-    <mergeCell ref="A4:FN4"/>
-    <mergeCell ref="EE10:FN10"/>
-    <mergeCell ref="FM22:FN22"/>
-    <mergeCell ref="EL22:FB22"/>
-    <mergeCell ref="A29:FN29"/>
-    <mergeCell ref="A30:FN30"/>
-    <mergeCell ref="Y24:AY24"/>
-    <mergeCell ref="EH24:FN24"/>
-    <mergeCell ref="CJ26:FN26"/>
-    <mergeCell ref="AZ24:CF24"/>
-    <mergeCell ref="DG24:EG24"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A26:CI26"/>
-    <mergeCell ref="Q27:FN27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="AH28:FN28"/>
-    <mergeCell ref="FI21:FL21"/>
-    <mergeCell ref="BD22:BT22"/>
-    <mergeCell ref="BU22:CD22"/>
-    <mergeCell ref="CE22:CF22"/>
-    <mergeCell ref="FC22:FL22"/>
-    <mergeCell ref="EJ21:EK21"/>
-    <mergeCell ref="A16:CH16"/>
-    <mergeCell ref="G17:AT17"/>
-    <mergeCell ref="AU17:AX17"/>
-    <mergeCell ref="AY17:BA17"/>
-    <mergeCell ref="BB17:BE17"/>
-    <mergeCell ref="BF17:BY17"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="BI21:BU21"/>
     <mergeCell ref="FM21:FN21"/>
@@ -4848,6 +4792,62 @@
     <mergeCell ref="EP21:EQ21"/>
     <mergeCell ref="ER21:FD21"/>
     <mergeCell ref="FE21:FH21"/>
+    <mergeCell ref="A16:CH16"/>
+    <mergeCell ref="G17:AT17"/>
+    <mergeCell ref="AU17:AX17"/>
+    <mergeCell ref="AY17:BA17"/>
+    <mergeCell ref="BB17:BE17"/>
+    <mergeCell ref="BF17:BY17"/>
+    <mergeCell ref="FI21:FL21"/>
+    <mergeCell ref="BD22:BT22"/>
+    <mergeCell ref="BU22:CD22"/>
+    <mergeCell ref="CE22:CF22"/>
+    <mergeCell ref="FC22:FL22"/>
+    <mergeCell ref="EJ21:EK21"/>
+    <mergeCell ref="FM22:FN22"/>
+    <mergeCell ref="EL22:FB22"/>
+    <mergeCell ref="A29:FN29"/>
+    <mergeCell ref="A30:FN30"/>
+    <mergeCell ref="Y24:AY24"/>
+    <mergeCell ref="EH24:FN24"/>
+    <mergeCell ref="CJ26:FN26"/>
+    <mergeCell ref="AZ24:CF24"/>
+    <mergeCell ref="DG24:EG24"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A26:CI26"/>
+    <mergeCell ref="Q27:FN27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="AH28:FN28"/>
+    <mergeCell ref="EI11:FN11"/>
+    <mergeCell ref="A1:FN1"/>
+    <mergeCell ref="A2:FN2"/>
+    <mergeCell ref="A3:FN3"/>
+    <mergeCell ref="A4:FN4"/>
+    <mergeCell ref="EE10:FN10"/>
+    <mergeCell ref="CA12:CD12"/>
+    <mergeCell ref="BA11:CF11"/>
+    <mergeCell ref="AW10:CF10"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="DW11:EH11"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BJ12:BV12"/>
+    <mergeCell ref="BW12:BZ12"/>
+    <mergeCell ref="EJ17:EM17"/>
+    <mergeCell ref="EN17:EP17"/>
+    <mergeCell ref="EQ17:ET17"/>
+    <mergeCell ref="EU17:FN17"/>
+    <mergeCell ref="FM12:FN12"/>
+    <mergeCell ref="CJ16:FN16"/>
+    <mergeCell ref="CV17:EI17"/>
+    <mergeCell ref="FI12:FL12"/>
+    <mergeCell ref="FE12:FH12"/>
+    <mergeCell ref="EJ12:EK12"/>
+    <mergeCell ref="EL12:EO12"/>
+    <mergeCell ref="EP12:EQ12"/>
+    <mergeCell ref="ER12:FD12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4858,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4874,77 +4874,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
     </row>
     <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="63"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
     </row>
     <row r="3" spans="1:24" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
@@ -5078,35 +5078,35 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="63"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="56" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="49" t="s">
@@ -5115,7 +5115,7 @@
       <c r="C6" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -5151,10 +5151,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
@@ -5182,10 +5182,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="51"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="9" t="s">
         <v>85</v>
       </c>
@@ -5213,10 +5213,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
@@ -5244,10 +5244,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9" t="s">
         <v>85</v>
       </c>
@@ -5275,10 +5275,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="11" t="s">
         <v>86</v>
       </c>
@@ -5306,10 +5306,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
-      <c r="D12" s="51"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
@@ -5337,10 +5337,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="11" t="s">
         <v>86</v>
       </c>
@@ -5368,10 +5368,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
-      <c r="D14" s="51"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="9" t="s">
         <v>85</v>
       </c>
@@ -5399,10 +5399,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
@@ -5430,10 +5430,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
@@ -5461,10 +5461,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="11" t="s">
         <v>86</v>
       </c>
@@ -5492,10 +5492,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="9" t="s">
         <v>85</v>
       </c>
@@ -5523,10 +5523,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="11" t="s">
         <v>86</v>
       </c>
@@ -5554,10 +5554,10 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="51"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5585,10 +5585,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="11" t="s">
         <v>86</v>
       </c>
@@ -5616,10 +5616,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="9" t="s">
         <v>85</v>
       </c>
@@ -5647,10 +5647,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="11" t="s">
         <v>86</v>
       </c>
@@ -5678,10 +5678,10 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="9" t="s">
         <v>85</v>
       </c>
@@ -5709,10 +5709,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
@@ -5740,15 +5740,15 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="13">
         <f t="shared" ref="F26:X26" si="1">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>0</v>
@@ -5827,13 +5827,13 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="15">
         <f t="shared" ref="F27:X27" si="2">F25+F23+F21+F19+F17+F15+F13+F11+F9+F7</f>
         <v>0</v>
@@ -5986,6 +5986,41 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -6002,44 +6037,9 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6063,49 +6063,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="63"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
@@ -6239,35 +6239,35 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="63"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="53"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="56" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="49" t="s">
@@ -6276,7 +6276,7 @@
       <c r="C5" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -6310,10 +6310,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="11" t="s">
         <v>86</v>
       </c>
@@ -6341,7 +6341,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="56" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -6350,7 +6350,7 @@
       <c r="C7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="54" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -6382,10 +6382,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="11" t="s">
         <v>86</v>
       </c>
@@ -6413,10 +6413,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="9" t="s">
         <v>85</v>
       </c>
@@ -6444,10 +6444,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="11" t="s">
         <v>86</v>
       </c>
@@ -6475,10 +6475,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9" t="s">
         <v>85</v>
       </c>
@@ -6506,10 +6506,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="11" t="s">
         <v>86</v>
       </c>
@@ -6537,10 +6537,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="9" t="s">
         <v>85</v>
       </c>
@@ -6568,10 +6568,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="11" t="s">
         <v>86</v>
       </c>
@@ -6599,10 +6599,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="9" t="s">
         <v>85</v>
       </c>
@@ -6630,10 +6630,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="11" t="s">
         <v>86</v>
       </c>
@@ -6661,10 +6661,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="51"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="9" t="s">
         <v>85</v>
       </c>
@@ -6692,10 +6692,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
@@ -6723,10 +6723,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="9" t="s">
         <v>85</v>
       </c>
@@ -6754,10 +6754,10 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="11" t="s">
         <v>86</v>
       </c>
@@ -6785,10 +6785,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="9" t="s">
         <v>85</v>
       </c>
@@ -6816,10 +6816,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="11" t="s">
         <v>86</v>
       </c>
@@ -6847,10 +6847,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="9" t="s">
         <v>85</v>
       </c>
@@ -6878,10 +6878,10 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="11" t="s">
         <v>86</v>
       </c>
@@ -6909,15 +6909,15 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="13">
         <f t="shared" ref="F25:X25" si="1">F23+F21+F19+F17+F15+F13+F11+F9+F7+F5</f>
         <v>0</v>
@@ -6996,13 +6996,13 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="15">
         <f t="shared" ref="F26:X26" si="2">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>0</v>
@@ -7156,12 +7156,34 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="F1:X1"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
@@ -7178,34 +7200,12 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7216,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7233,51 +7233,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="63"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
@@ -7337,10 +7337,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
         <v>59</v>
       </c>
@@ -7412,46 +7412,46 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="63"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="77"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="9"/>
@@ -7481,9 +7481,9 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="79"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -7513,13 +7513,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="77"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -7559,9 +7559,9 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="11" t="s">
         <v>86</v>
       </c>
@@ -7593,13 +7593,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="77"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="9"/>
@@ -7629,9 +7629,9 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="79"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -7661,13 +7661,13 @@
         <v>98</v>
       </c>
       <c r="B11" s="77"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -7699,9 +7699,9 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="79"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="11" t="s">
         <v>86</v>
       </c>
@@ -7733,13 +7733,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="77"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="9"/>
@@ -7769,9 +7769,9 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="79"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -7801,13 +7801,13 @@
         <v>99</v>
       </c>
       <c r="B15" s="77"/>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -7839,9 +7839,9 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="79"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="11" t="s">
         <v>86</v>
       </c>
@@ -7873,13 +7873,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="77"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="54" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="9"/>
@@ -7909,9 +7909,9 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -7937,16 +7937,16 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="13">
         <f t="shared" ref="G19:X19" si="1">G17+G15+G13+G11+G9+G7+G5+0</f>
         <v>0</v>
@@ -8025,14 +8025,14 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="15">
         <f t="shared" ref="G20:X20" si="2">G18+G16+G14+G12+G10+G8+G6+0</f>
         <v>0</v>
@@ -8111,105 +8111,105 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="83" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="92" t="s">
+      <c r="E22" s="67"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="77"/>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="63"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="53"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="87"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="88" t="s">
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="96"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="87"/>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
@@ -8218,183 +8218,183 @@
       <c r="B24" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="18">
         <v>100.5</v>
       </c>
       <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="97">
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="71">
         <v>43981</v>
       </c>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="69"/>
       <c r="T24" s="66"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="69"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="68"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>2</v>
       </c>
       <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="20"/>
       <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="66"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="66"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="66"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="69"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="68"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>3</v>
       </c>
       <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="20"/>
       <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="66"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="66"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="69"/>
       <c r="T26" s="66"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="69"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="68"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>4</v>
       </c>
       <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="20"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="66"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="66"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="69"/>
       <c r="T27" s="66"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="69"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="68"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>5</v>
       </c>
       <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="20"/>
       <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="66"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="66"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="66"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="69"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="68"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="21">
         <f>SUM(D24:D28)</f>
         <v>100.5</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="74"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="96"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8469,15 +8469,59 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="N22:Y22"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="G1:Y1"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="B24:C24"/>
@@ -8494,59 +8538,15 @@
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G1:Y1"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="N22:Y22"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="T25:Y25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8557,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8570,34 +8570,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="103" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="22" t="s">
         <v>115</v>
       </c>
@@ -8668,10 +8668,10 @@
       <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
         <v>25</v>
@@ -8682,34 +8682,34 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="103" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="22" t="s">
         <v>115</v>
       </c>
@@ -8796,10 +8796,10 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="27">
         <f>SUM(C14:C19)</f>
         <v>22</v>
@@ -8810,118 +8810,118 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="108" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="108" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="96"/>
+      <c r="F23" s="87"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="98">
+      <c r="B24" s="69"/>
+      <c r="C24" s="105">
         <f>'Лист 4 - УР - всего'!Y19</f>
         <v>220</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="98">
+      <c r="B25" s="69"/>
+      <c r="C25" s="105">
         <f>'Лист 4 - УР - всего'!D29</f>
         <v>100.5</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="98">
+      <c r="B26" s="69"/>
+      <c r="C26" s="105">
         <f>C9</f>
         <v>25</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="68"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="98">
+      <c r="B27" s="69"/>
+      <c r="C27" s="105">
         <f>C20</f>
         <v>22</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="73">
+      <c r="B28" s="96"/>
+      <c r="C28" s="95">
         <f>SUM(C24:C27)</f>
         <v>367.5</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8994,6 +8994,25 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:F2"/>
@@ -9010,25 +9029,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9060,11 +9060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="3" t="s">
         <v>133</v>
       </c>
@@ -9095,497 +9095,497 @@
       <c r="B3" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="74"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="110"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="111" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="114" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="115"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="110"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="110"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="117"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="119"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="111" t="s">
+      <c r="A8" s="112"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="113"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="114" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="115"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="110"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="111" t="s">
+      <c r="A11" s="112"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="113"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="114" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="115"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="110"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="117"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="111" t="s">
+      <c r="A14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="114" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="115"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="110"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="117"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="119"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="111" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="113"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="114" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="115"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="110"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="117"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="119"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="111" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="114" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="115"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="110"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="117"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="111" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="114" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="115"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="110"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="110"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="117"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="111" t="s">
+      <c r="A26" s="112"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="114" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="115"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="113" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="122"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="123"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="123" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -9594,19 +9594,19 @@
       <c r="B30" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="115"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -9615,19 +9615,19 @@
       <c r="B31" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="115"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -9636,19 +9636,19 @@
       <c r="B32" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="115"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -9657,19 +9657,19 @@
       <c r="B33" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="115"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -9678,19 +9678,19 @@
       <c r="B34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="115"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="110"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
@@ -9699,19 +9699,19 @@
       <c r="B35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="121"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="122"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9780,6 +9780,42 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="C12:M12"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A16:A18"/>
@@ -9796,42 +9832,6 @@
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C9:M9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
